--- a/report_template/epa_compare.xlsx
+++ b/report_template/epa_compare.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>測站名稱：麥寮環境監測中心</t>
   </si>
@@ -92,18 +92,6 @@
     <t>定保</t>
   </si>
   <si>
-    <t>無效數據</t>
-  </si>
-  <si>
-    <t>校正失敗</t>
-  </si>
-  <si>
-    <t>遺失數據</t>
-  </si>
-  <si>
-    <t>不可抗力</t>
-  </si>
-  <si>
     <t>EPA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,6 +101,18 @@
   </si>
   <si>
     <t>最大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>異常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自動檢核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工註記</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,7 +156,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,12 +177,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF00FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -195,19 +189,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0000FF"/>
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,7 +261,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -280,10 +274,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -292,43 +322,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -465,11 +462,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="165013440"/>
-        <c:axId val="165015008"/>
+        <c:axId val="437436288"/>
+        <c:axId val="437436680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="165013440"/>
+        <c:axId val="437436288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -497,7 +494,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165015008"/>
+        <c:crossAx val="437436680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -505,7 +502,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165015008"/>
+        <c:axId val="437436680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="360"/>
@@ -537,7 +534,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165013440"/>
+        <c:crossAx val="437436288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="90"/>
@@ -674,11 +671,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="165015400"/>
-        <c:axId val="165011872"/>
+        <c:axId val="431889720"/>
+        <c:axId val="574999120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="165015400"/>
+        <c:axId val="431889720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -706,7 +703,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165011872"/>
+        <c:crossAx val="574999120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -714,7 +711,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165011872"/>
+        <c:axId val="574999120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -744,7 +741,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165015400"/>
+        <c:crossAx val="431889720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -876,11 +873,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="165016576"/>
-        <c:axId val="165017360"/>
+        <c:axId val="574996768"/>
+        <c:axId val="574997160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="165016576"/>
+        <c:axId val="574996768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -908,7 +905,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165017360"/>
+        <c:crossAx val="574997160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -916,7 +913,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165017360"/>
+        <c:axId val="574997160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -946,7 +943,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165016576"/>
+        <c:crossAx val="574996768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1078,11 +1075,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="165012264"/>
-        <c:axId val="165013048"/>
+        <c:axId val="574998728"/>
+        <c:axId val="574999512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="165012264"/>
+        <c:axId val="574998728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1110,7 +1107,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165013048"/>
+        <c:crossAx val="574999512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1118,7 +1115,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165013048"/>
+        <c:axId val="574999512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1148,7 +1145,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165012264"/>
+        <c:crossAx val="574998728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1280,11 +1277,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="166625792"/>
-        <c:axId val="166623048"/>
+        <c:axId val="437439816"/>
+        <c:axId val="431890896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="166625792"/>
+        <c:axId val="437439816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1312,7 +1309,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166623048"/>
+        <c:crossAx val="431890896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1320,7 +1317,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166623048"/>
+        <c:axId val="431890896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1350,7 +1347,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166625792"/>
+        <c:crossAx val="437439816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1486,11 +1483,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="166621872"/>
-        <c:axId val="166623832"/>
+        <c:axId val="574979120"/>
+        <c:axId val="574982648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="166621872"/>
+        <c:axId val="574979120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1518,7 +1515,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166623832"/>
+        <c:crossAx val="574982648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1526,7 +1523,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166623832"/>
+        <c:axId val="574982648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1556,7 +1553,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166621872"/>
+        <c:crossAx val="574979120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1700,11 +1697,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="166619912"/>
-        <c:axId val="166620696"/>
+        <c:axId val="574981472"/>
+        <c:axId val="574980296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="166619912"/>
+        <c:axId val="574981472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1732,7 +1729,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166620696"/>
+        <c:crossAx val="574980296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1740,7 +1737,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166620696"/>
+        <c:axId val="574980296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1770,7 +1767,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166619912"/>
+        <c:crossAx val="574981472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1877,11 +1874,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="166625008"/>
-        <c:axId val="166625400"/>
+        <c:axId val="574980688"/>
+        <c:axId val="574979512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="166625008"/>
+        <c:axId val="574980688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1909,7 +1906,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166625400"/>
+        <c:crossAx val="574979512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1917,7 +1914,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166625400"/>
+        <c:axId val="574979512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1947,7 +1944,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166625008"/>
+        <c:crossAx val="574980688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2054,11 +2051,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="166626184"/>
-        <c:axId val="166620304"/>
+        <c:axId val="574982256"/>
+        <c:axId val="574997944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="166626184"/>
+        <c:axId val="574982256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2087,7 +2084,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166620304"/>
+        <c:crossAx val="574997944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2095,7 +2092,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166620304"/>
+        <c:axId val="574997944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2125,7 +2122,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166626184"/>
+        <c:crossAx val="574982256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2711,7 +2708,7 @@
   <dimension ref="A1:AC137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2721,117 +2718,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
     </row>
     <row r="2" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
     </row>
     <row r="3" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="14" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="16" t="s">
+      <c r="J3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="17" t="s">
+      <c r="K3" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="18" t="s">
+      <c r="L3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" s="14"/>
-      <c r="U3" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="V3" s="14"/>
-      <c r="W3" s="22" t="s">
+      <c r="M3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
+      <c r="N3" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
     </row>
     <row r="4" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -2910,11 +2905,11 @@
       <c r="Z4" s="13">
         <v>23</v>
       </c>
-      <c r="AA4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>29</v>
+      <c r="AA4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB4" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="AC4" s="13" t="s">
         <v>7</v>
@@ -2951,12 +2946,12 @@
       <c r="X5" s="13"/>
       <c r="Y5" s="13"/>
       <c r="Z5" s="13"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
       <c r="AC5" s="13"/>
     </row>
     <row r="6" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2991,9 +2986,9 @@
       <c r="AC6" s="5"/>
     </row>
     <row r="7" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -3024,7 +3019,7 @@
       <c r="AC7" s="5"/>
     </row>
     <row r="8" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3059,7 +3054,7 @@
       <c r="AC8" s="5"/>
     </row>
     <row r="9" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
@@ -3092,7 +3087,7 @@
       <c r="AC9" s="5"/>
     </row>
     <row r="10" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="17" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3127,7 +3122,7 @@
       <c r="AC10" s="5"/>
     </row>
     <row r="11" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -3160,7 +3155,7 @@
       <c r="AC11" s="5"/>
     </row>
     <row r="12" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3195,7 +3190,7 @@
       <c r="AC12" s="5"/>
     </row>
     <row r="13" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
@@ -3228,7 +3223,7 @@
       <c r="AC13" s="5"/>
     </row>
     <row r="14" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -3263,7 +3258,7 @@
       <c r="AC14" s="5"/>
     </row>
     <row r="15" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
@@ -3296,7 +3291,7 @@
       <c r="AC15" s="5"/>
     </row>
     <row r="16" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -3331,7 +3326,7 @@
       <c r="AC16" s="5"/>
     </row>
     <row r="17" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
@@ -3364,7 +3359,7 @@
       <c r="AC17" s="5"/>
     </row>
     <row r="18" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -3399,7 +3394,7 @@
       <c r="AC18" s="5"/>
     </row>
     <row r="19" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="2" t="s">
         <v>11</v>
       </c>
@@ -3432,7 +3427,7 @@
       <c r="AC19" s="5"/>
     </row>
     <row r="20" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -3467,7 +3462,7 @@
       <c r="AC20" s="5"/>
     </row>
     <row r="21" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
@@ -3500,324 +3495,324 @@
       <c r="AC21" s="5"/>
     </row>
     <row r="22" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
     </row>
     <row r="23" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="12"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
     </row>
     <row r="24" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="12"/>
-      <c r="AC24" s="12"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
     </row>
     <row r="25" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="12"/>
-      <c r="AC25" s="12"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
     </row>
     <row r="26" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="11"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
     </row>
     <row r="27" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
     </row>
     <row r="28" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="11"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
     </row>
     <row r="29" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="11"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="8"/>
-      <c r="X41" s="8"/>
-      <c r="Y41" s="8" t="s">
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="Z41" s="8"/>
-      <c r="AA41" s="8"/>
-      <c r="AB41" s="8"/>
-      <c r="AC41" s="8"/>
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="16"/>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
-      <c r="Y42" s="8" t="s">
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="Z42" s="8"/>
-      <c r="AA42" s="8"/>
-      <c r="AB42" s="8"/>
-      <c r="AC42" s="8"/>
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="16"/>
+      <c r="AC42" s="16"/>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
@@ -5215,74 +5210,74 @@
       <c r="AC87" s="3"/>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
-      <c r="N88" s="8"/>
-      <c r="O88" s="8"/>
-      <c r="P88" s="8"/>
-      <c r="Q88" s="8"/>
-      <c r="R88" s="8"/>
-      <c r="S88" s="8"/>
-      <c r="T88" s="8"/>
-      <c r="U88" s="8"/>
-      <c r="V88" s="8"/>
-      <c r="W88" s="8"/>
-      <c r="X88" s="8"/>
-      <c r="Y88" s="8" t="s">
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="16"/>
+      <c r="L88" s="16"/>
+      <c r="M88" s="16"/>
+      <c r="N88" s="16"/>
+      <c r="O88" s="16"/>
+      <c r="P88" s="16"/>
+      <c r="Q88" s="16"/>
+      <c r="R88" s="16"/>
+      <c r="S88" s="16"/>
+      <c r="T88" s="16"/>
+      <c r="U88" s="16"/>
+      <c r="V88" s="16"/>
+      <c r="W88" s="16"/>
+      <c r="X88" s="16"/>
+      <c r="Y88" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="Z88" s="8"/>
-      <c r="AA88" s="8"/>
-      <c r="AB88" s="8"/>
-      <c r="AC88" s="8"/>
+      <c r="Z88" s="16"/>
+      <c r="AA88" s="16"/>
+      <c r="AB88" s="16"/>
+      <c r="AC88" s="16"/>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
-      <c r="M89" s="8"/>
-      <c r="N89" s="8"/>
-      <c r="O89" s="8"/>
-      <c r="P89" s="8"/>
-      <c r="Q89" s="8"/>
-      <c r="R89" s="8"/>
-      <c r="S89" s="8"/>
-      <c r="T89" s="8"/>
-      <c r="U89" s="8"/>
-      <c r="V89" s="8"/>
-      <c r="W89" s="8"/>
-      <c r="X89" s="8"/>
-      <c r="Y89" s="8" t="s">
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="16"/>
+      <c r="L89" s="16"/>
+      <c r="M89" s="16"/>
+      <c r="N89" s="16"/>
+      <c r="O89" s="16"/>
+      <c r="P89" s="16"/>
+      <c r="Q89" s="16"/>
+      <c r="R89" s="16"/>
+      <c r="S89" s="16"/>
+      <c r="T89" s="16"/>
+      <c r="U89" s="16"/>
+      <c r="V89" s="16"/>
+      <c r="W89" s="16"/>
+      <c r="X89" s="16"/>
+      <c r="Y89" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="Z89" s="8"/>
-      <c r="AA89" s="8"/>
-      <c r="AB89" s="8"/>
-      <c r="AC89" s="8"/>
+      <c r="Z89" s="16"/>
+      <c r="AA89" s="16"/>
+      <c r="AB89" s="16"/>
+      <c r="AC89" s="16"/>
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
@@ -6711,24 +6706,24 @@
       <c r="AC135" s="3"/>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A136" s="8" t="s">
+      <c r="A136" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B136" s="8"/>
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
-      <c r="H136" s="8"/>
-      <c r="I136" s="8"/>
-      <c r="J136" s="8"/>
-      <c r="K136" s="8"/>
-      <c r="L136" s="8" t="s">
+      <c r="B136" s="16"/>
+      <c r="C136" s="16"/>
+      <c r="D136" s="16"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="16"/>
+      <c r="G136" s="16"/>
+      <c r="H136" s="16"/>
+      <c r="I136" s="16"/>
+      <c r="J136" s="16"/>
+      <c r="K136" s="16"/>
+      <c r="L136" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="M136" s="8"/>
-      <c r="N136" s="8"/>
+      <c r="M136" s="16"/>
+      <c r="N136" s="16"/>
       <c r="O136" s="3"/>
       <c r="P136" s="3"/>
       <c r="Q136" s="3"/>
@@ -6746,24 +6741,24 @@
       <c r="AC136" s="3"/>
     </row>
     <row r="137" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A137" s="8" t="s">
+      <c r="A137" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B137" s="8"/>
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="8"/>
-      <c r="H137" s="8"/>
-      <c r="I137" s="8"/>
-      <c r="J137" s="8"/>
-      <c r="K137" s="8"/>
-      <c r="L137" s="8" t="s">
+      <c r="B137" s="16"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="16"/>
+      <c r="E137" s="16"/>
+      <c r="F137" s="16"/>
+      <c r="G137" s="16"/>
+      <c r="H137" s="16"/>
+      <c r="I137" s="16"/>
+      <c r="J137" s="16"/>
+      <c r="K137" s="16"/>
+      <c r="L137" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M137" s="8"/>
-      <c r="N137" s="8"/>
+      <c r="M137" s="16"/>
+      <c r="N137" s="16"/>
       <c r="O137" s="3"/>
       <c r="P137" s="3"/>
       <c r="Q137" s="3"/>
@@ -6781,38 +6776,23 @@
       <c r="AC137" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="A2:X2"/>
-    <mergeCell ref="Y2:AC2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AC3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
+  <mergeCells count="55">
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="A136:K136"/>
+    <mergeCell ref="L136:N136"/>
+    <mergeCell ref="A137:K137"/>
+    <mergeCell ref="L137:N137"/>
+    <mergeCell ref="A42:X42"/>
+    <mergeCell ref="Y42:AC42"/>
+    <mergeCell ref="A88:X88"/>
+    <mergeCell ref="Y88:AC88"/>
+    <mergeCell ref="A89:X89"/>
+    <mergeCell ref="Y89:AC89"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A29"/>
     <mergeCell ref="B22:AC29"/>
     <mergeCell ref="A41:X41"/>
     <mergeCell ref="Y41:AC41"/>
@@ -6829,22 +6809,29 @@
     <mergeCell ref="Y4:Y5"/>
     <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="A136:K136"/>
-    <mergeCell ref="L136:N136"/>
-    <mergeCell ref="A137:K137"/>
-    <mergeCell ref="L137:N137"/>
-    <mergeCell ref="A42:X42"/>
-    <mergeCell ref="Y42:AC42"/>
-    <mergeCell ref="A88:X88"/>
-    <mergeCell ref="Y88:AC88"/>
-    <mergeCell ref="A89:X89"/>
-    <mergeCell ref="Y89:AC89"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="Y3:AC3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/report_template/epa_compare.xlsx
+++ b/report_template/epa_compare.xlsx
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>FPG</t>
-  </si>
-  <si>
-    <t>二氧化硫</t>
   </si>
   <si>
     <t>EPA</t>
@@ -113,6 +110,10 @@
   </si>
   <si>
     <t>人工註記</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>風速</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,36 +296,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -333,6 +304,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,11 +463,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="437436288"/>
-        <c:axId val="437436680"/>
+        <c:axId val="444020272"/>
+        <c:axId val="444020664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="437436288"/>
+        <c:axId val="444020272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -494,7 +495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="437436680"/>
+        <c:crossAx val="444020664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -502,7 +503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="437436680"/>
+        <c:axId val="444020664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="360"/>
@@ -534,7 +535,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="437436288"/>
+        <c:crossAx val="444020272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="90"/>
@@ -671,11 +672,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="431889720"/>
-        <c:axId val="574999120"/>
+        <c:axId val="444021840"/>
+        <c:axId val="444022624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="431889720"/>
+        <c:axId val="444021840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -703,7 +704,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="574999120"/>
+        <c:crossAx val="444022624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -711,7 +712,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="574999120"/>
+        <c:axId val="444022624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -741,7 +742,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="431889720"/>
+        <c:crossAx val="444021840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -873,11 +874,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="574996768"/>
-        <c:axId val="574997160"/>
+        <c:axId val="444024192"/>
+        <c:axId val="444026544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="574996768"/>
+        <c:axId val="444024192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -905,7 +906,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="574997160"/>
+        <c:crossAx val="444026544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -913,7 +914,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="574997160"/>
+        <c:axId val="444026544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -943,7 +944,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="574996768"/>
+        <c:crossAx val="444024192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1075,11 +1076,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="574998728"/>
-        <c:axId val="574999512"/>
+        <c:axId val="445684256"/>
+        <c:axId val="445693664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="574998728"/>
+        <c:axId val="445684256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1107,7 +1108,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="574999512"/>
+        <c:crossAx val="445693664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1115,7 +1116,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="574999512"/>
+        <c:axId val="445693664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1145,7 +1146,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="574998728"/>
+        <c:crossAx val="445684256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1277,11 +1278,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="437439816"/>
-        <c:axId val="431890896"/>
+        <c:axId val="445683864"/>
+        <c:axId val="445691312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="437439816"/>
+        <c:axId val="445683864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1309,7 +1310,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="431890896"/>
+        <c:crossAx val="445691312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1317,7 +1318,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="431890896"/>
+        <c:axId val="445691312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1347,7 +1348,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="437439816"/>
+        <c:crossAx val="445683864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1483,11 +1484,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="574979120"/>
-        <c:axId val="574982648"/>
+        <c:axId val="445692096"/>
+        <c:axId val="445692488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="574979120"/>
+        <c:axId val="445692096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1515,7 +1516,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="574982648"/>
+        <c:crossAx val="445692488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1523,7 +1524,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="574982648"/>
+        <c:axId val="445692488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1553,7 +1554,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="574979120"/>
+        <c:crossAx val="445692096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1697,11 +1698,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="574981472"/>
-        <c:axId val="574980296"/>
+        <c:axId val="445687784"/>
+        <c:axId val="445689744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="574981472"/>
+        <c:axId val="445687784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1729,7 +1730,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="574980296"/>
+        <c:crossAx val="445689744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1737,7 +1738,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="574980296"/>
+        <c:axId val="445689744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1767,7 +1768,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="574981472"/>
+        <c:crossAx val="445687784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1874,11 +1875,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="574980688"/>
-        <c:axId val="574979512"/>
+        <c:axId val="445688568"/>
+        <c:axId val="445693272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="574980688"/>
+        <c:axId val="445688568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1906,7 +1907,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="574979512"/>
+        <c:crossAx val="445693272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1914,7 +1915,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="574979512"/>
+        <c:axId val="445693272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1944,7 +1945,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="574980688"/>
+        <c:crossAx val="445688568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2051,11 +2052,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="574982256"/>
-        <c:axId val="574997944"/>
+        <c:axId val="445686216"/>
+        <c:axId val="445688960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="574982256"/>
+        <c:axId val="445686216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2084,7 +2085,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="574997944"/>
+        <c:crossAx val="445688960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2092,7 +2093,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="574997944"/>
+        <c:axId val="445688960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2122,7 +2123,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="574982256"/>
+        <c:crossAx val="445686216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2708,7 +2709,7 @@
   <dimension ref="A1:AC137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2718,200 +2719,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
     </row>
     <row r="2" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
     </row>
     <row r="3" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="L3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+    </row>
+    <row r="4" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21">
+        <v>0</v>
+      </c>
+      <c r="D4" s="21">
+        <v>1</v>
+      </c>
+      <c r="E4" s="21">
+        <v>2</v>
+      </c>
+      <c r="F4" s="21">
+        <v>3</v>
+      </c>
+      <c r="G4" s="21">
+        <v>4</v>
+      </c>
+      <c r="H4" s="21">
+        <v>5</v>
+      </c>
+      <c r="I4" s="21">
+        <v>6</v>
+      </c>
+      <c r="J4" s="21">
+        <v>7</v>
+      </c>
+      <c r="K4" s="21">
+        <v>8</v>
+      </c>
+      <c r="L4" s="21">
+        <v>9</v>
+      </c>
+      <c r="M4" s="21">
+        <v>10</v>
+      </c>
+      <c r="N4" s="21">
+        <v>11</v>
+      </c>
+      <c r="O4" s="21">
+        <v>12</v>
+      </c>
+      <c r="P4" s="21">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="21">
+        <v>14</v>
+      </c>
+      <c r="R4" s="21">
+        <v>15</v>
+      </c>
+      <c r="S4" s="21">
+        <v>16</v>
+      </c>
+      <c r="T4" s="21">
+        <v>17</v>
+      </c>
+      <c r="U4" s="21">
+        <v>18</v>
+      </c>
+      <c r="V4" s="21">
+        <v>19</v>
+      </c>
+      <c r="W4" s="21">
+        <v>20</v>
+      </c>
+      <c r="X4" s="21">
+        <v>21</v>
+      </c>
+      <c r="Y4" s="21">
         <v>22</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-    </row>
-    <row r="4" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13">
-        <v>0</v>
-      </c>
-      <c r="D4" s="13">
-        <v>1</v>
-      </c>
-      <c r="E4" s="13">
-        <v>2</v>
-      </c>
-      <c r="F4" s="13">
-        <v>3</v>
-      </c>
-      <c r="G4" s="13">
-        <v>4</v>
-      </c>
-      <c r="H4" s="13">
-        <v>5</v>
-      </c>
-      <c r="I4" s="13">
-        <v>6</v>
-      </c>
-      <c r="J4" s="13">
-        <v>7</v>
-      </c>
-      <c r="K4" s="13">
-        <v>8</v>
-      </c>
-      <c r="L4" s="13">
-        <v>9</v>
-      </c>
-      <c r="M4" s="13">
-        <v>10</v>
-      </c>
-      <c r="N4" s="13">
-        <v>11</v>
-      </c>
-      <c r="O4" s="13">
-        <v>12</v>
-      </c>
-      <c r="P4" s="13">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>14</v>
-      </c>
-      <c r="R4" s="13">
-        <v>15</v>
-      </c>
-      <c r="S4" s="13">
-        <v>16</v>
-      </c>
-      <c r="T4" s="13">
-        <v>17</v>
-      </c>
-      <c r="U4" s="13">
-        <v>18</v>
-      </c>
-      <c r="V4" s="13">
-        <v>19</v>
-      </c>
-      <c r="W4" s="13">
-        <v>20</v>
-      </c>
-      <c r="X4" s="13">
-        <v>21</v>
-      </c>
-      <c r="Y4" s="13">
-        <v>22</v>
-      </c>
-      <c r="Z4" s="13">
+      <c r="Z4" s="21">
         <v>23</v>
       </c>
-      <c r="AA4" s="18" t="s">
+      <c r="AA4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AB4" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC4" s="13" t="s">
+      <c r="AC4" s="21" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2922,33 +2923,33 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="13"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="21"/>
     </row>
     <row r="6" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
@@ -2988,7 +2989,7 @@
     <row r="7" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -3020,7 +3021,7 @@
     </row>
     <row r="8" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -3056,7 +3057,7 @@
     <row r="9" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -3088,7 +3089,7 @@
     </row>
     <row r="10" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -3124,7 +3125,7 @@
     <row r="11" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3156,7 +3157,7 @@
     </row>
     <row r="12" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
@@ -3192,7 +3193,7 @@
     <row r="13" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -3224,7 +3225,7 @@
     </row>
     <row r="14" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
@@ -3260,7 +3261,7 @@
     <row r="15" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -3292,7 +3293,7 @@
     </row>
     <row r="16" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
@@ -3328,7 +3329,7 @@
     <row r="17" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -3360,7 +3361,7 @@
     </row>
     <row r="18" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
@@ -3396,7 +3397,7 @@
     <row r="19" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -3428,7 +3429,7 @@
     </row>
     <row r="20" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
@@ -3464,7 +3465,7 @@
     <row r="21" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -3495,254 +3496,254 @@
       <c r="AC21" s="5"/>
     </row>
     <row r="22" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
+      <c r="A22" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
     </row>
     <row r="23" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="15"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
     </row>
     <row r="24" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="15"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
     </row>
     <row r="25" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="15"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
     </row>
     <row r="26" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="14"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
     </row>
     <row r="27" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="14"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="14"/>
-      <c r="AC27" s="14"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
     </row>
     <row r="28" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="14"/>
-      <c r="AC28" s="14"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
     </row>
     <row r="29" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="14"/>
-      <c r="AC29" s="14"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
@@ -6777,6 +6778,45 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="Y3:AC3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="B22:AC29"/>
+    <mergeCell ref="A41:X41"/>
+    <mergeCell ref="Y41:AC41"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="A136:K136"/>
@@ -6793,45 +6833,6 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A29"/>
-    <mergeCell ref="B22:AC29"/>
-    <mergeCell ref="A41:X41"/>
-    <mergeCell ref="Y41:AC41"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="A2:X2"/>
-    <mergeCell ref="Y2:AC2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="Y3:AC3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/report_template/epa_compare.xlsx
+++ b/report_template/epa_compare.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>測站名稱：麥寮環境監測中心</t>
   </si>
@@ -116,11 +116,23 @@
     <t>風速</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>二氧化硫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="##0.00"/>
     <numFmt numFmtId="177" formatCode="0.00_ ;[Red]\-0.00\ "/>
@@ -262,7 +274,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -305,11 +317,20 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -317,23 +338,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -353,7 +371,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -424,6 +442,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B4A-47AC-96AC-086680AAB846}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -452,6 +475,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0B4A-47AC-96AC-086680AAB846}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -558,7 +586,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -611,7 +639,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>EPA測站比較表!$A$10:$B$10</c:f>
+              <c:f>EPA測站比較表!$A$12:$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -625,7 +653,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>EPA測站比較表!$C$10:$Z$10</c:f>
+              <c:f>EPA測站比較表!$C$12:$Z$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -633,13 +661,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-28BB-4C23-BB1B-938CF75ACDBD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>EPA測站比較表!$A$11:$B$11</c:f>
+              <c:f>EPA測站比較表!$A$13:$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -653,7 +686,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>EPA測站比較表!$C$11:$Z$11</c:f>
+              <c:f>EPA測站比較表!$C$13:$Z$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -661,6 +694,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-28BB-4C23-BB1B-938CF75ACDBD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -764,7 +802,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -813,7 +851,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>EPA測站比較表!$A$12:$B$12</c:f>
+              <c:f>EPA測站比較表!$A$14:$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -827,7 +865,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>EPA測站比較表!$C$12:$Z$12</c:f>
+              <c:f>EPA測站比較表!$C$14:$Z$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -835,13 +873,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E3EB-49BC-BDEF-213115C223CE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>EPA測站比較表!$A$13:$B$13</c:f>
+              <c:f>EPA測站比較表!$A$15:$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -855,7 +898,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>EPA測站比較表!$C$13:$Z$13</c:f>
+              <c:f>EPA測站比較表!$C$15:$Z$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -863,6 +906,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E3EB-49BC-BDEF-213115C223CE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -966,7 +1014,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -1015,7 +1063,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>EPA測站比較表!$A$14:$B$14</c:f>
+              <c:f>EPA測站比較表!$A$16:$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1029,7 +1077,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>EPA測站比較表!$C$14:$Z$14</c:f>
+              <c:f>EPA測站比較表!$C$16:$Z$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -1037,13 +1085,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7DAC-4366-982D-EBB5F4F9DE87}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>EPA測站比較表!$A$15:$B$15</c:f>
+              <c:f>EPA測站比較表!$A$17:$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1057,7 +1110,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>EPA測站比較表!$C$15:$Z$15</c:f>
+              <c:f>EPA測站比較表!$C$17:$Z$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -1065,6 +1118,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7DAC-4366-982D-EBB5F4F9DE87}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1168,7 +1226,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -1217,7 +1275,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>EPA測站比較表!$A$16:$B$16</c:f>
+              <c:f>EPA測站比較表!$A$18:$B$18</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1231,7 +1289,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>EPA測站比較表!$C$16:$Z$16</c:f>
+              <c:f>EPA測站比較表!$C$18:$Z$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -1239,13 +1297,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CEE1-4E75-985A-9E8BE5B90F82}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>EPA測站比較表!$A$17:$B$17</c:f>
+              <c:f>EPA測站比較表!$A$19:$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1259,7 +1322,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>EPA測站比較表!$C$17:$Z$17</c:f>
+              <c:f>EPA測站比較表!$C$19:$Z$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -1267,6 +1330,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CEE1-4E75-985A-9E8BE5B90F82}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1370,7 +1438,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -1423,7 +1491,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>EPA測站比較表!$A$18:$B$18</c:f>
+              <c:f>EPA測站比較表!$A$20:$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1437,7 +1505,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>EPA測站比較表!$C$18:$Z$18</c:f>
+              <c:f>EPA測站比較表!$C$20:$Z$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -1445,13 +1513,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-801C-4EDD-9B59-73CDD074BF60}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>EPA測站比較表!$A$19:$B$19</c:f>
+              <c:f>EPA測站比較表!$A$21:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1465,7 +1538,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>EPA測站比較表!$C$19:$Z$19</c:f>
+              <c:f>EPA測站比較表!$C$21:$Z$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -1473,6 +1546,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-801C-4EDD-9B59-73CDD074BF60}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1576,7 +1654,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -1637,7 +1715,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>EPA測站比較表!$A$20:$B$20</c:f>
+              <c:f>EPA測站比較表!$A$22:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1651,7 +1729,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>EPA測站比較表!$C$20:$Z$20</c:f>
+              <c:f>EPA測站比較表!$C$22:$Z$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -1659,13 +1737,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-586F-4B0D-BB27-2330553522A5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>EPA測站比較表!$A$21:$B$21</c:f>
+              <c:f>EPA測站比較表!$A$23:$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1679,7 +1762,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>EPA測站比較表!$C$21:$Z$21</c:f>
+              <c:f>EPA測站比較表!$C$23:$Z$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -1687,6 +1770,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-586F-4B0D-BB27-2330553522A5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1790,7 +1878,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -1839,7 +1927,7 @@
           <c:order val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>EPA測站比較表!$A$22:$Z$22</c:f>
+              <c:f>EPA測站比較表!$A$24:$Z$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1850,13 +1938,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F739-40BE-B717-18A94BD51A9B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:val>
             <c:numRef>
-              <c:f>EPA測站比較表!$A$23:$Z$23</c:f>
+              <c:f>EPA測站比較表!$A$25:$Z$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1864,6 +1957,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F739-40BE-B717-18A94BD51A9B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1967,7 +2065,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -2016,7 +2114,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>EPA測站比較表!$A$25</c:f>
+              <c:f>EPA測站比較表!$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -2024,7 +2122,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>EPA測站比較表!$B$24:$Z$24</c:f>
+              <c:f>EPA測站比較表!$B$26:$Z$26</c:f>
               <c:numCache>
                 <c:formatCode>##0.00</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2033,7 +2131,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>EPA測站比較表!$B$25:$Z$25</c:f>
+              <c:f>EPA測站比較表!$B$27:$Z$27</c:f>
               <c:numCache>
                 <c:formatCode>##0.00</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2041,6 +2139,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F726-4F7F-BFCD-5266E0505B44}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2150,13 +2253,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>434975</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2180,13 +2283,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>434975</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>669925</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2210,13 +2313,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>434975</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2240,13 +2343,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>434975</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>669925</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2270,13 +2373,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>434975</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2300,13 +2403,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>434975</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>669925</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2330,13 +2433,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>434975</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2360,13 +2463,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>434975</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>669925</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2390,13 +2493,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>434975</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2706,93 +2809,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC137"/>
+  <dimension ref="A1:AC139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B5" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="29" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="29" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
     </row>
     <row r="2" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
     </row>
     <row r="3" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
       <c r="I3" s="6" t="s">
         <v>18</v>
       </c>
@@ -2823,96 +2927,96 @@
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
     </row>
     <row r="4" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16">
         <v>0</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="16">
         <v>1</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="16">
         <v>2</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="16">
         <v>3</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="16">
         <v>4</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="16">
         <v>5</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="16">
         <v>6</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="16">
         <v>7</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="16">
         <v>8</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="16">
         <v>9</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="16">
         <v>10</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="16">
         <v>11</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="16">
         <v>12</v>
       </c>
-      <c r="P4" s="21">
+      <c r="P4" s="16">
         <v>13</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="Q4" s="16">
         <v>14</v>
       </c>
-      <c r="R4" s="21">
+      <c r="R4" s="16">
         <v>15</v>
       </c>
-      <c r="S4" s="21">
+      <c r="S4" s="16">
         <v>16</v>
       </c>
-      <c r="T4" s="21">
+      <c r="T4" s="16">
         <v>17</v>
       </c>
-      <c r="U4" s="21">
+      <c r="U4" s="16">
         <v>18</v>
       </c>
-      <c r="V4" s="21">
+      <c r="V4" s="16">
         <v>19</v>
       </c>
-      <c r="W4" s="21">
+      <c r="W4" s="16">
         <v>20</v>
       </c>
-      <c r="X4" s="21">
+      <c r="X4" s="16">
         <v>21</v>
       </c>
-      <c r="Y4" s="21">
+      <c r="Y4" s="16">
         <v>22</v>
       </c>
-      <c r="Z4" s="21">
+      <c r="Z4" s="16">
         <v>23</v>
       </c>
-      <c r="AA4" s="14" t="s">
+      <c r="AA4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AB4" s="14" t="s">
+      <c r="AB4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AC4" s="21" t="s">
+      <c r="AC4" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2923,36 +3027,36 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="21"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="16"/>
     </row>
     <row r="6" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2987,7 +3091,7 @@
       <c r="AC6" s="5"/>
     </row>
     <row r="7" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
@@ -3020,7 +3124,7 @@
       <c r="AC7" s="5"/>
     </row>
     <row r="8" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3055,7 +3159,7 @@
       <c r="AC8" s="5"/>
     </row>
     <row r="9" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -3088,11 +3192,11 @@
       <c r="AC9" s="5"/>
     </row>
     <row r="10" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>11</v>
+      <c r="A10" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -3123,9 +3227,9 @@
       <c r="AC10" s="5"/>
     </row>
     <row r="11" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3156,8 +3260,8 @@
       <c r="AC11" s="5"/>
     </row>
     <row r="12" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>12</v>
+      <c r="A12" s="20" t="s">
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
@@ -3191,7 +3295,7 @@
       <c r="AC12" s="5"/>
     </row>
     <row r="13" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -3224,8 +3328,8 @@
       <c r="AC13" s="5"/>
     </row>
     <row r="14" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>13</v>
+      <c r="A14" s="20" t="s">
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
@@ -3259,7 +3363,7 @@
       <c r="AC14" s="5"/>
     </row>
     <row r="15" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
@@ -3292,8 +3396,8 @@
       <c r="AC15" s="5"/>
     </row>
     <row r="16" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>14</v>
+      <c r="A16" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
@@ -3327,7 +3431,7 @@
       <c r="AC16" s="5"/>
     </row>
     <row r="17" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
@@ -3360,8 +3464,8 @@
       <c r="AC17" s="5"/>
     </row>
     <row r="18" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>15</v>
+      <c r="A18" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
@@ -3395,7 +3499,7 @@
       <c r="AC18" s="5"/>
     </row>
     <row r="19" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
@@ -3428,8 +3532,8 @@
       <c r="AC19" s="5"/>
     </row>
     <row r="20" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>16</v>
+      <c r="A20" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
@@ -3463,7 +3567,7 @@
       <c r="AC20" s="5"/>
     </row>
     <row r="21" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
@@ -3496,386 +3600,392 @@
       <c r="AC21" s="5"/>
     </row>
     <row r="22" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="5"/>
+    </row>
+    <row r="23" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="5"/>
+    </row>
+    <row r="24" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
-    </row>
-    <row r="23" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="20"/>
-    </row>
-    <row r="24" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="20"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="18"/>
     </row>
     <row r="25" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="20"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="18"/>
     </row>
     <row r="26" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="19"/>
-      <c r="AA26" s="19"/>
-      <c r="AB26" s="19"/>
-      <c r="AC26" s="19"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="18"/>
     </row>
     <row r="27" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="19"/>
-      <c r="AC27" s="19"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="18"/>
     </row>
     <row r="28" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="19"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
     </row>
     <row r="29" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="19"/>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
+    </row>
+    <row r="30" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
+    </row>
+    <row r="31" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="17"/>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="16"/>
-      <c r="T41" s="16"/>
-      <c r="U41" s="16"/>
-      <c r="V41" s="16"/>
-      <c r="W41" s="16"/>
-      <c r="X41" s="16"/>
-      <c r="Y41" s="16" t="s">
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="Z41" s="16"/>
-      <c r="AA41" s="16"/>
-      <c r="AB41" s="16"/>
-      <c r="AC41" s="16"/>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="19"/>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A44" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
-      <c r="S42" s="16"/>
-      <c r="T42" s="16"/>
-      <c r="U42" s="16"/>
-      <c r="V42" s="16"/>
-      <c r="W42" s="16"/>
-      <c r="X42" s="16"/>
-      <c r="Y42" s="16" t="s">
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="Z42" s="16"/>
-      <c r="AA42" s="16"/>
-      <c r="AB42" s="16"/>
-      <c r="AC42" s="16"/>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AC43" s="3"/>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
-      <c r="AB44" s="3"/>
-      <c r="AC44" s="3"/>
+      <c r="Z44" s="19"/>
+      <c r="AA44" s="19"/>
+      <c r="AB44" s="19"/>
+      <c r="AC44" s="19"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
@@ -5211,136 +5321,136 @@
       <c r="AC87" s="3"/>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A88" s="16" t="s">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3"/>
+      <c r="X88" s="3"/>
+      <c r="Y88" s="3"/>
+      <c r="Z88" s="3"/>
+      <c r="AA88" s="3"/>
+      <c r="AB88" s="3"/>
+      <c r="AC88" s="3"/>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+      <c r="V89" s="3"/>
+      <c r="W89" s="3"/>
+      <c r="X89" s="3"/>
+      <c r="Y89" s="3"/>
+      <c r="Z89" s="3"/>
+      <c r="AA89" s="3"/>
+      <c r="AB89" s="3"/>
+      <c r="AC89" s="3"/>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A90" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B88" s="16"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="16"/>
-      <c r="K88" s="16"/>
-      <c r="L88" s="16"/>
-      <c r="M88" s="16"/>
-      <c r="N88" s="16"/>
-      <c r="O88" s="16"/>
-      <c r="P88" s="16"/>
-      <c r="Q88" s="16"/>
-      <c r="R88" s="16"/>
-      <c r="S88" s="16"/>
-      <c r="T88" s="16"/>
-      <c r="U88" s="16"/>
-      <c r="V88" s="16"/>
-      <c r="W88" s="16"/>
-      <c r="X88" s="16"/>
-      <c r="Y88" s="16" t="s">
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="19"/>
+      <c r="L90" s="19"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="19"/>
+      <c r="P90" s="19"/>
+      <c r="Q90" s="19"/>
+      <c r="R90" s="19"/>
+      <c r="S90" s="19"/>
+      <c r="T90" s="19"/>
+      <c r="U90" s="19"/>
+      <c r="V90" s="19"/>
+      <c r="W90" s="19"/>
+      <c r="X90" s="19"/>
+      <c r="Y90" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="Z88" s="16"/>
-      <c r="AA88" s="16"/>
-      <c r="AB88" s="16"/>
-      <c r="AC88" s="16"/>
-    </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A89" s="16" t="s">
+      <c r="Z90" s="19"/>
+      <c r="AA90" s="19"/>
+      <c r="AB90" s="19"/>
+      <c r="AC90" s="19"/>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A91" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="16"/>
-      <c r="J89" s="16"/>
-      <c r="K89" s="16"/>
-      <c r="L89" s="16"/>
-      <c r="M89" s="16"/>
-      <c r="N89" s="16"/>
-      <c r="O89" s="16"/>
-      <c r="P89" s="16"/>
-      <c r="Q89" s="16"/>
-      <c r="R89" s="16"/>
-      <c r="S89" s="16"/>
-      <c r="T89" s="16"/>
-      <c r="U89" s="16"/>
-      <c r="V89" s="16"/>
-      <c r="W89" s="16"/>
-      <c r="X89" s="16"/>
-      <c r="Y89" s="16" t="s">
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="19"/>
+      <c r="K91" s="19"/>
+      <c r="L91" s="19"/>
+      <c r="M91" s="19"/>
+      <c r="N91" s="19"/>
+      <c r="O91" s="19"/>
+      <c r="P91" s="19"/>
+      <c r="Q91" s="19"/>
+      <c r="R91" s="19"/>
+      <c r="S91" s="19"/>
+      <c r="T91" s="19"/>
+      <c r="U91" s="19"/>
+      <c r="V91" s="19"/>
+      <c r="W91" s="19"/>
+      <c r="X91" s="19"/>
+      <c r="Y91" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="Z89" s="16"/>
-      <c r="AA89" s="16"/>
-      <c r="AB89" s="16"/>
-      <c r="AC89" s="16"/>
-    </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-      <c r="M90" s="3"/>
-      <c r="N90" s="3"/>
-      <c r="O90" s="3"/>
-      <c r="P90" s="3"/>
-      <c r="Q90" s="3"/>
-      <c r="R90" s="3"/>
-      <c r="S90" s="3"/>
-      <c r="T90" s="3"/>
-      <c r="U90" s="3"/>
-      <c r="V90" s="3"/>
-      <c r="W90" s="3"/>
-      <c r="X90" s="3"/>
-      <c r="Y90" s="3"/>
-      <c r="Z90" s="3"/>
-      <c r="AA90" s="3"/>
-      <c r="AB90" s="3"/>
-      <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3"/>
-      <c r="O91" s="3"/>
-      <c r="P91" s="3"/>
-      <c r="Q91" s="3"/>
-      <c r="R91" s="3"/>
-      <c r="S91" s="3"/>
-      <c r="T91" s="3"/>
-      <c r="U91" s="3"/>
-      <c r="V91" s="3"/>
-      <c r="W91" s="3"/>
-      <c r="X91" s="3"/>
-      <c r="Y91" s="3"/>
-      <c r="Z91" s="3"/>
-      <c r="AA91" s="3"/>
-      <c r="AB91" s="3"/>
-      <c r="AC91" s="3"/>
+      <c r="Z91" s="19"/>
+      <c r="AA91" s="19"/>
+      <c r="AB91" s="19"/>
+      <c r="AC91" s="19"/>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
@@ -6707,24 +6817,20 @@
       <c r="AC135" s="3"/>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A136" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B136" s="16"/>
-      <c r="C136" s="16"/>
-      <c r="D136" s="16"/>
-      <c r="E136" s="16"/>
-      <c r="F136" s="16"/>
-      <c r="G136" s="16"/>
-      <c r="H136" s="16"/>
-      <c r="I136" s="16"/>
-      <c r="J136" s="16"/>
-      <c r="K136" s="16"/>
-      <c r="L136" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="M136" s="16"/>
-      <c r="N136" s="16"/>
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
+      <c r="J136" s="3"/>
+      <c r="K136" s="3"/>
+      <c r="L136" s="3"/>
+      <c r="M136" s="3"/>
+      <c r="N136" s="3"/>
       <c r="O136" s="3"/>
       <c r="P136" s="3"/>
       <c r="Q136" s="3"/>
@@ -6742,24 +6848,20 @@
       <c r="AC136" s="3"/>
     </row>
     <row r="137" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A137" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B137" s="16"/>
-      <c r="C137" s="16"/>
-      <c r="D137" s="16"/>
-      <c r="E137" s="16"/>
-      <c r="F137" s="16"/>
-      <c r="G137" s="16"/>
-      <c r="H137" s="16"/>
-      <c r="I137" s="16"/>
-      <c r="J137" s="16"/>
-      <c r="K137" s="16"/>
-      <c r="L137" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="M137" s="16"/>
-      <c r="N137" s="16"/>
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
+      <c r="K137" s="3"/>
+      <c r="L137" s="3"/>
+      <c r="M137" s="3"/>
+      <c r="N137" s="3"/>
       <c r="O137" s="3"/>
       <c r="P137" s="3"/>
       <c r="Q137" s="3"/>
@@ -6776,24 +6878,111 @@
       <c r="AB137" s="3"/>
       <c r="AC137" s="3"/>
     </row>
+    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A138" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" s="19"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="19"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="19"/>
+      <c r="G138" s="19"/>
+      <c r="H138" s="19"/>
+      <c r="I138" s="19"/>
+      <c r="J138" s="19"/>
+      <c r="K138" s="19"/>
+      <c r="L138" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="M138" s="19"/>
+      <c r="N138" s="19"/>
+      <c r="O138" s="3"/>
+      <c r="P138" s="3"/>
+      <c r="Q138" s="3"/>
+      <c r="R138" s="3"/>
+      <c r="S138" s="3"/>
+      <c r="T138" s="3"/>
+      <c r="U138" s="3"/>
+      <c r="V138" s="3"/>
+      <c r="W138" s="3"/>
+      <c r="X138" s="3"/>
+      <c r="Y138" s="3"/>
+      <c r="Z138" s="3"/>
+      <c r="AA138" s="3"/>
+      <c r="AB138" s="3"/>
+      <c r="AC138" s="3"/>
+    </row>
+    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A139" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B139" s="19"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="19"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="19"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="19"/>
+      <c r="K139" s="19"/>
+      <c r="L139" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M139" s="19"/>
+      <c r="N139" s="19"/>
+      <c r="O139" s="3"/>
+      <c r="P139" s="3"/>
+      <c r="Q139" s="3"/>
+      <c r="R139" s="3"/>
+      <c r="S139" s="3"/>
+      <c r="T139" s="3"/>
+      <c r="U139" s="3"/>
+      <c r="V139" s="3"/>
+      <c r="W139" s="3"/>
+      <c r="X139" s="3"/>
+      <c r="Y139" s="3"/>
+      <c r="Z139" s="3"/>
+      <c r="AA139" s="3"/>
+      <c r="AB139" s="3"/>
+      <c r="AC139" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="A2:X2"/>
-    <mergeCell ref="Y2:AC2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="Y3:AC3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="P4:P5"/>
+  <mergeCells count="56">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="A138:K138"/>
+    <mergeCell ref="L138:N138"/>
+    <mergeCell ref="A139:K139"/>
+    <mergeCell ref="L139:N139"/>
+    <mergeCell ref="A44:X44"/>
+    <mergeCell ref="Y44:AC44"/>
+    <mergeCell ref="A90:X90"/>
+    <mergeCell ref="Y90:AC90"/>
+    <mergeCell ref="A91:X91"/>
+    <mergeCell ref="Y91:AC91"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="B24:AC31"/>
+    <mergeCell ref="A43:X43"/>
+    <mergeCell ref="Y43:AC43"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
@@ -6801,38 +6990,22 @@
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
-    <mergeCell ref="B22:AC29"/>
-    <mergeCell ref="A41:X41"/>
-    <mergeCell ref="Y41:AC41"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="A136:K136"/>
-    <mergeCell ref="L136:N136"/>
-    <mergeCell ref="A137:K137"/>
-    <mergeCell ref="L137:N137"/>
-    <mergeCell ref="A42:X42"/>
-    <mergeCell ref="Y42:AC42"/>
-    <mergeCell ref="A88:X88"/>
-    <mergeCell ref="Y88:AC88"/>
-    <mergeCell ref="A89:X89"/>
-    <mergeCell ref="Y89:AC89"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="Y3:AC3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/report_template/epa_compare.xlsx
+++ b/report_template/epa_compare.xlsx
@@ -334,8 +334,38 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -344,36 +374,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -427,6 +427,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -537,6 +538,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -575,6 +577,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
@@ -589,6 +592,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -641,6 +645,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -751,6 +756,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -787,6 +793,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
@@ -800,6 +807,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -848,6 +856,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -958,6 +967,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -994,6 +1004,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
@@ -1007,6 +1018,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1055,6 +1067,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1165,6 +1178,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1201,6 +1215,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
@@ -1214,6 +1229,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1262,6 +1278,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1372,6 +1389,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1408,6 +1426,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
@@ -1421,6 +1440,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1473,6 +1493,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1583,6 +1604,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1619,6 +1641,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
@@ -1632,6 +1655,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1692,6 +1716,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1802,6 +1827,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1838,6 +1864,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
@@ -1851,6 +1878,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1899,6 +1927,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2009,6 +2038,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -2045,6 +2075,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
@@ -2058,6 +2089,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2106,6 +2138,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2216,6 +2249,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2253,6 +2287,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
@@ -2266,6 +2301,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2286,13 +2322,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>434975</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2316,13 +2352,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>434975</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>669925</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2346,13 +2382,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>434975</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2376,13 +2412,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>434975</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>669925</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2406,13 +2442,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>434975</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2436,13 +2472,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>434975</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>669925</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2466,13 +2502,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>434975</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2496,13 +2532,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>434975</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>669925</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2526,13 +2562,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>434975</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2842,10 +2878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC141"/>
+  <dimension ref="A1:AC132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="AD34" sqref="AD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2856,80 +2892,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
     </row>
     <row r="2" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
     </row>
     <row r="3" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="10" t="s">
         <v>29</v>
       </c>
@@ -2960,96 +2996,96 @@
       <c r="V3" s="17"/>
       <c r="W3" s="17"/>
       <c r="X3" s="17"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
     </row>
     <row r="4" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="20">
+      <c r="B4" s="30"/>
+      <c r="C4" s="27">
         <v>0</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="27">
         <v>1</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="27">
         <v>2</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="27">
         <v>3</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="27">
         <v>4</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="27">
         <v>5</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="27">
         <v>6</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="27">
         <v>7</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="27">
         <v>8</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="27">
         <v>9</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="27">
         <v>10</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="27">
         <v>11</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4" s="27">
         <v>12</v>
       </c>
-      <c r="P4" s="20">
+      <c r="P4" s="27">
         <v>13</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4" s="27">
         <v>14</v>
       </c>
-      <c r="R4" s="20">
+      <c r="R4" s="27">
         <v>15</v>
       </c>
-      <c r="S4" s="20">
+      <c r="S4" s="27">
         <v>16</v>
       </c>
-      <c r="T4" s="20">
+      <c r="T4" s="27">
         <v>17</v>
       </c>
-      <c r="U4" s="20">
+      <c r="U4" s="27">
         <v>18</v>
       </c>
-      <c r="V4" s="20">
+      <c r="V4" s="27">
         <v>19</v>
       </c>
-      <c r="W4" s="20">
+      <c r="W4" s="27">
         <v>20</v>
       </c>
-      <c r="X4" s="20">
+      <c r="X4" s="27">
         <v>21</v>
       </c>
-      <c r="Y4" s="20">
+      <c r="Y4" s="27">
         <v>22</v>
       </c>
-      <c r="Z4" s="20">
+      <c r="Z4" s="27">
         <v>23</v>
       </c>
-      <c r="AA4" s="29" t="s">
+      <c r="AA4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="29" t="s">
+      <c r="AB4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="AC4" s="20" t="s">
+      <c r="AC4" s="27" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3060,36 +3096,36 @@
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="20"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="27"/>
     </row>
     <row r="6" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -3124,7 +3160,7 @@
       <c r="AC6" s="19"/>
     </row>
     <row r="7" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
@@ -3157,7 +3193,7 @@
       <c r="AC7" s="19"/>
     </row>
     <row r="8" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -3192,7 +3228,7 @@
       <c r="AC8" s="19"/>
     </row>
     <row r="9" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
@@ -3225,7 +3261,7 @@
       <c r="AC9" s="19"/>
     </row>
     <row r="10" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -3260,7 +3296,7 @@
       <c r="AC10" s="19"/>
     </row>
     <row r="11" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
@@ -3293,7 +3329,7 @@
       <c r="AC11" s="19"/>
     </row>
     <row r="12" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="28" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -3328,7 +3364,7 @@
       <c r="AC12" s="19"/>
     </row>
     <row r="13" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="4" t="s">
         <v>28</v>
       </c>
@@ -3361,7 +3397,7 @@
       <c r="AC13" s="19"/>
     </row>
     <row r="14" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3396,7 +3432,7 @@
       <c r="AC14" s="19"/>
     </row>
     <row r="15" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
@@ -3429,7 +3465,7 @@
       <c r="AC15" s="19"/>
     </row>
     <row r="16" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3464,7 +3500,7 @@
       <c r="AC16" s="19"/>
     </row>
     <row r="17" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="4" t="s">
         <v>8</v>
       </c>
@@ -3497,7 +3533,7 @@
       <c r="AC17" s="19"/>
     </row>
     <row r="18" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -3532,7 +3568,7 @@
       <c r="AC18" s="19"/>
     </row>
     <row r="19" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="4" t="s">
         <v>8</v>
       </c>
@@ -3565,7 +3601,7 @@
       <c r="AC19" s="19"/>
     </row>
     <row r="20" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -3600,7 +3636,7 @@
       <c r="AC20" s="19"/>
     </row>
     <row r="21" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
@@ -3633,7 +3669,7 @@
       <c r="AC21" s="19"/>
     </row>
     <row r="22" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -3668,7 +3704,7 @@
       <c r="AC22" s="19"/>
     </row>
     <row r="23" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="4" t="s">
         <v>8</v>
       </c>
@@ -3701,7 +3737,7 @@
       <c r="AC23" s="19"/>
     </row>
     <row r="24" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -3736,7 +3772,7 @@
       <c r="AC24" s="19"/>
     </row>
     <row r="25" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="4" t="s">
         <v>8</v>
       </c>
@@ -3769,316 +3805,595 @@
       <c r="AC25" s="19"/>
     </row>
     <row r="26" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="33"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
     </row>
     <row r="27" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="33"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="26"/>
     </row>
     <row r="28" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33"/>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="33"/>
-      <c r="AC28" s="33"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="26"/>
     </row>
     <row r="29" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="33"/>
-      <c r="AB29" s="33"/>
-      <c r="AC29" s="33"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="26"/>
     </row>
     <row r="30" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="32"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="32"/>
-      <c r="AB30" s="32"/>
-      <c r="AC30" s="32"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="25"/>
+      <c r="AC30" s="25"/>
     </row>
     <row r="31" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="32"/>
-      <c r="AA31" s="32"/>
-      <c r="AB31" s="32"/>
-      <c r="AC31" s="32"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="25"/>
+      <c r="AC31" s="25"/>
     </row>
     <row r="32" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="32"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="32"/>
-      <c r="Y32" s="32"/>
-      <c r="Z32" s="32"/>
-      <c r="AA32" s="32"/>
-      <c r="AB32" s="32"/>
-      <c r="AC32" s="32"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="25"/>
+      <c r="AC32" s="25"/>
     </row>
     <row r="33" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="32"/>
-      <c r="AC33" s="32"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="25"/>
+      <c r="AC33" s="25"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="22"/>
+      <c r="AC36" s="22"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="22"/>
+      <c r="AB37" s="22"/>
+      <c r="AC37" s="22"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8"/>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8"/>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8"/>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8"/>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="8"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="26"/>
-      <c r="Q45" s="26"/>
-      <c r="R45" s="26"/>
-      <c r="S45" s="26"/>
-      <c r="T45" s="26"/>
-      <c r="U45" s="26"/>
-      <c r="V45" s="26"/>
-      <c r="W45" s="26"/>
-      <c r="X45" s="26"/>
-      <c r="Y45" s="26"/>
-      <c r="Z45" s="26"/>
-      <c r="AA45" s="26"/>
-      <c r="AB45" s="26"/>
-      <c r="AC45" s="26"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="26"/>
-      <c r="Q46" s="26"/>
-      <c r="R46" s="26"/>
-      <c r="S46" s="26"/>
-      <c r="T46" s="26"/>
-      <c r="U46" s="26"/>
-      <c r="V46" s="26"/>
-      <c r="W46" s="26"/>
-      <c r="X46" s="26"/>
-      <c r="Y46" s="26"/>
-      <c r="Z46" s="26"/>
-      <c r="AA46" s="26"/>
-      <c r="AB46" s="26"/>
-      <c r="AC46" s="26"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
@@ -5197,66 +5512,66 @@
       <c r="AC82" s="8"/>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8"/>
-      <c r="N83" s="8"/>
-      <c r="O83" s="8"/>
-      <c r="P83" s="8"/>
-      <c r="Q83" s="8"/>
-      <c r="R83" s="8"/>
-      <c r="S83" s="8"/>
-      <c r="T83" s="8"/>
-      <c r="U83" s="8"/>
-      <c r="V83" s="8"/>
-      <c r="W83" s="8"/>
-      <c r="X83" s="8"/>
-      <c r="Y83" s="8"/>
-      <c r="Z83" s="8"/>
-      <c r="AA83" s="8"/>
-      <c r="AB83" s="8"/>
-      <c r="AC83" s="8"/>
+      <c r="A83" s="22"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="22"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="22"/>
+      <c r="O83" s="22"/>
+      <c r="P83" s="22"/>
+      <c r="Q83" s="22"/>
+      <c r="R83" s="22"/>
+      <c r="S83" s="22"/>
+      <c r="T83" s="22"/>
+      <c r="U83" s="22"/>
+      <c r="V83" s="22"/>
+      <c r="W83" s="22"/>
+      <c r="X83" s="22"/>
+      <c r="Y83" s="22"/>
+      <c r="Z83" s="22"/>
+      <c r="AA83" s="22"/>
+      <c r="AB83" s="22"/>
+      <c r="AC83" s="22"/>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
-      <c r="O84" s="8"/>
-      <c r="P84" s="8"/>
-      <c r="Q84" s="8"/>
-      <c r="R84" s="8"/>
-      <c r="S84" s="8"/>
-      <c r="T84" s="8"/>
-      <c r="U84" s="8"/>
-      <c r="V84" s="8"/>
-      <c r="W84" s="8"/>
-      <c r="X84" s="8"/>
-      <c r="Y84" s="8"/>
-      <c r="Z84" s="8"/>
-      <c r="AA84" s="8"/>
-      <c r="AB84" s="8"/>
-      <c r="AC84" s="8"/>
+      <c r="A84" s="22"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="22"/>
+      <c r="O84" s="22"/>
+      <c r="P84" s="22"/>
+      <c r="Q84" s="22"/>
+      <c r="R84" s="22"/>
+      <c r="S84" s="22"/>
+      <c r="T84" s="22"/>
+      <c r="U84" s="22"/>
+      <c r="V84" s="22"/>
+      <c r="W84" s="22"/>
+      <c r="X84" s="22"/>
+      <c r="Y84" s="22"/>
+      <c r="Z84" s="22"/>
+      <c r="AA84" s="22"/>
+      <c r="AB84" s="22"/>
+      <c r="AC84" s="22"/>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
@@ -5476,66 +5791,66 @@
       <c r="AC91" s="8"/>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A92" s="26"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="26"/>
-      <c r="I92" s="26"/>
-      <c r="J92" s="26"/>
-      <c r="K92" s="26"/>
-      <c r="L92" s="26"/>
-      <c r="M92" s="26"/>
-      <c r="N92" s="26"/>
-      <c r="O92" s="26"/>
-      <c r="P92" s="26"/>
-      <c r="Q92" s="26"/>
-      <c r="R92" s="26"/>
-      <c r="S92" s="26"/>
-      <c r="T92" s="26"/>
-      <c r="U92" s="26"/>
-      <c r="V92" s="26"/>
-      <c r="W92" s="26"/>
-      <c r="X92" s="26"/>
-      <c r="Y92" s="26"/>
-      <c r="Z92" s="26"/>
-      <c r="AA92" s="26"/>
-      <c r="AB92" s="26"/>
-      <c r="AC92" s="26"/>
+      <c r="A92" s="5"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="8"/>
+      <c r="P92" s="8"/>
+      <c r="Q92" s="8"/>
+      <c r="R92" s="8"/>
+      <c r="S92" s="8"/>
+      <c r="T92" s="8"/>
+      <c r="U92" s="8"/>
+      <c r="V92" s="8"/>
+      <c r="W92" s="8"/>
+      <c r="X92" s="8"/>
+      <c r="Y92" s="8"/>
+      <c r="Z92" s="8"/>
+      <c r="AA92" s="8"/>
+      <c r="AB92" s="8"/>
+      <c r="AC92" s="8"/>
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A93" s="26"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="26"/>
-      <c r="J93" s="26"/>
-      <c r="K93" s="26"/>
-      <c r="L93" s="26"/>
-      <c r="M93" s="26"/>
-      <c r="N93" s="26"/>
-      <c r="O93" s="26"/>
-      <c r="P93" s="26"/>
-      <c r="Q93" s="26"/>
-      <c r="R93" s="26"/>
-      <c r="S93" s="26"/>
-      <c r="T93" s="26"/>
-      <c r="U93" s="26"/>
-      <c r="V93" s="26"/>
-      <c r="W93" s="26"/>
-      <c r="X93" s="26"/>
-      <c r="Y93" s="26"/>
-      <c r="Z93" s="26"/>
-      <c r="AA93" s="26"/>
-      <c r="AB93" s="26"/>
-      <c r="AC93" s="26"/>
+      <c r="A93" s="5"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8"/>
+      <c r="O93" s="8"/>
+      <c r="P93" s="8"/>
+      <c r="Q93" s="8"/>
+      <c r="R93" s="8"/>
+      <c r="S93" s="8"/>
+      <c r="T93" s="8"/>
+      <c r="U93" s="8"/>
+      <c r="V93" s="8"/>
+      <c r="W93" s="8"/>
+      <c r="X93" s="8"/>
+      <c r="Y93" s="8"/>
+      <c r="Z93" s="8"/>
+      <c r="AA93" s="8"/>
+      <c r="AB93" s="8"/>
+      <c r="AC93" s="8"/>
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
@@ -6685,20 +7000,20 @@
       <c r="AC130" s="8"/>
     </row>
     <row r="131" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A131" s="5"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="8"/>
-      <c r="I131" s="8"/>
-      <c r="J131" s="8"/>
-      <c r="K131" s="8"/>
-      <c r="L131" s="8"/>
-      <c r="M131" s="8"/>
-      <c r="N131" s="8"/>
+      <c r="A131" s="22"/>
+      <c r="B131" s="22"/>
+      <c r="C131" s="22"/>
+      <c r="D131" s="22"/>
+      <c r="E131" s="22"/>
+      <c r="F131" s="22"/>
+      <c r="G131" s="22"/>
+      <c r="H131" s="22"/>
+      <c r="I131" s="22"/>
+      <c r="J131" s="22"/>
+      <c r="K131" s="22"/>
+      <c r="L131" s="22"/>
+      <c r="M131" s="22"/>
+      <c r="N131" s="22"/>
       <c r="O131" s="8"/>
       <c r="P131" s="8"/>
       <c r="Q131" s="8"/>
@@ -6716,20 +7031,20 @@
       <c r="AC131" s="8"/>
     </row>
     <row r="132" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A132" s="5"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
-      <c r="H132" s="8"/>
-      <c r="I132" s="8"/>
-      <c r="J132" s="8"/>
-      <c r="K132" s="8"/>
-      <c r="L132" s="8"/>
-      <c r="M132" s="8"/>
-      <c r="N132" s="8"/>
+      <c r="A132" s="22"/>
+      <c r="B132" s="22"/>
+      <c r="C132" s="22"/>
+      <c r="D132" s="22"/>
+      <c r="E132" s="22"/>
+      <c r="F132" s="22"/>
+      <c r="G132" s="22"/>
+      <c r="H132" s="22"/>
+      <c r="I132" s="22"/>
+      <c r="J132" s="22"/>
+      <c r="K132" s="22"/>
+      <c r="L132" s="22"/>
+      <c r="M132" s="22"/>
+      <c r="N132" s="22"/>
       <c r="O132" s="8"/>
       <c r="P132" s="8"/>
       <c r="Q132" s="8"/>
@@ -6746,324 +7061,12 @@
       <c r="AB132" s="8"/>
       <c r="AC132" s="8"/>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A133" s="5"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="8"/>
-      <c r="I133" s="8"/>
-      <c r="J133" s="8"/>
-      <c r="K133" s="8"/>
-      <c r="L133" s="8"/>
-      <c r="M133" s="8"/>
-      <c r="N133" s="8"/>
-      <c r="O133" s="8"/>
-      <c r="P133" s="8"/>
-      <c r="Q133" s="8"/>
-      <c r="R133" s="8"/>
-      <c r="S133" s="8"/>
-      <c r="T133" s="8"/>
-      <c r="U133" s="8"/>
-      <c r="V133" s="8"/>
-      <c r="W133" s="8"/>
-      <c r="X133" s="8"/>
-      <c r="Y133" s="8"/>
-      <c r="Z133" s="8"/>
-      <c r="AA133" s="8"/>
-      <c r="AB133" s="8"/>
-      <c r="AC133" s="8"/>
-    </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A134" s="5"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="8"/>
-      <c r="I134" s="8"/>
-      <c r="J134" s="8"/>
-      <c r="K134" s="8"/>
-      <c r="L134" s="8"/>
-      <c r="M134" s="8"/>
-      <c r="N134" s="8"/>
-      <c r="O134" s="8"/>
-      <c r="P134" s="8"/>
-      <c r="Q134" s="8"/>
-      <c r="R134" s="8"/>
-      <c r="S134" s="8"/>
-      <c r="T134" s="8"/>
-      <c r="U134" s="8"/>
-      <c r="V134" s="8"/>
-      <c r="W134" s="8"/>
-      <c r="X134" s="8"/>
-      <c r="Y134" s="8"/>
-      <c r="Z134" s="8"/>
-      <c r="AA134" s="8"/>
-      <c r="AB134" s="8"/>
-      <c r="AC134" s="8"/>
-    </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A135" s="5"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="8"/>
-      <c r="H135" s="8"/>
-      <c r="I135" s="8"/>
-      <c r="J135" s="8"/>
-      <c r="K135" s="8"/>
-      <c r="L135" s="8"/>
-      <c r="M135" s="8"/>
-      <c r="N135" s="8"/>
-      <c r="O135" s="8"/>
-      <c r="P135" s="8"/>
-      <c r="Q135" s="8"/>
-      <c r="R135" s="8"/>
-      <c r="S135" s="8"/>
-      <c r="T135" s="8"/>
-      <c r="U135" s="8"/>
-      <c r="V135" s="8"/>
-      <c r="W135" s="8"/>
-      <c r="X135" s="8"/>
-      <c r="Y135" s="8"/>
-      <c r="Z135" s="8"/>
-      <c r="AA135" s="8"/>
-      <c r="AB135" s="8"/>
-      <c r="AC135" s="8"/>
-    </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A136" s="5"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
-      <c r="H136" s="8"/>
-      <c r="I136" s="8"/>
-      <c r="J136" s="8"/>
-      <c r="K136" s="8"/>
-      <c r="L136" s="8"/>
-      <c r="M136" s="8"/>
-      <c r="N136" s="8"/>
-      <c r="O136" s="8"/>
-      <c r="P136" s="8"/>
-      <c r="Q136" s="8"/>
-      <c r="R136" s="8"/>
-      <c r="S136" s="8"/>
-      <c r="T136" s="8"/>
-      <c r="U136" s="8"/>
-      <c r="V136" s="8"/>
-      <c r="W136" s="8"/>
-      <c r="X136" s="8"/>
-      <c r="Y136" s="8"/>
-      <c r="Z136" s="8"/>
-      <c r="AA136" s="8"/>
-      <c r="AB136" s="8"/>
-      <c r="AC136" s="8"/>
-    </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A137" s="5"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="8"/>
-      <c r="H137" s="8"/>
-      <c r="I137" s="8"/>
-      <c r="J137" s="8"/>
-      <c r="K137" s="8"/>
-      <c r="L137" s="8"/>
-      <c r="M137" s="8"/>
-      <c r="N137" s="8"/>
-      <c r="O137" s="8"/>
-      <c r="P137" s="8"/>
-      <c r="Q137" s="8"/>
-      <c r="R137" s="8"/>
-      <c r="S137" s="8"/>
-      <c r="T137" s="8"/>
-      <c r="U137" s="8"/>
-      <c r="V137" s="8"/>
-      <c r="W137" s="8"/>
-      <c r="X137" s="8"/>
-      <c r="Y137" s="8"/>
-      <c r="Z137" s="8"/>
-      <c r="AA137" s="8"/>
-      <c r="AB137" s="8"/>
-      <c r="AC137" s="8"/>
-    </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A138" s="5"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="8"/>
-      <c r="D138" s="8"/>
-      <c r="E138" s="8"/>
-      <c r="F138" s="8"/>
-      <c r="G138" s="8"/>
-      <c r="H138" s="8"/>
-      <c r="I138" s="8"/>
-      <c r="J138" s="8"/>
-      <c r="K138" s="8"/>
-      <c r="L138" s="8"/>
-      <c r="M138" s="8"/>
-      <c r="N138" s="8"/>
-      <c r="O138" s="8"/>
-      <c r="P138" s="8"/>
-      <c r="Q138" s="8"/>
-      <c r="R138" s="8"/>
-      <c r="S138" s="8"/>
-      <c r="T138" s="8"/>
-      <c r="U138" s="8"/>
-      <c r="V138" s="8"/>
-      <c r="W138" s="8"/>
-      <c r="X138" s="8"/>
-      <c r="Y138" s="8"/>
-      <c r="Z138" s="8"/>
-      <c r="AA138" s="8"/>
-      <c r="AB138" s="8"/>
-      <c r="AC138" s="8"/>
-    </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A139" s="5"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="8"/>
-      <c r="J139" s="8"/>
-      <c r="K139" s="8"/>
-      <c r="L139" s="8"/>
-      <c r="M139" s="8"/>
-      <c r="N139" s="8"/>
-      <c r="O139" s="8"/>
-      <c r="P139" s="8"/>
-      <c r="Q139" s="8"/>
-      <c r="R139" s="8"/>
-      <c r="S139" s="8"/>
-      <c r="T139" s="8"/>
-      <c r="U139" s="8"/>
-      <c r="V139" s="8"/>
-      <c r="W139" s="8"/>
-      <c r="X139" s="8"/>
-      <c r="Y139" s="8"/>
-      <c r="Z139" s="8"/>
-      <c r="AA139" s="8"/>
-      <c r="AB139" s="8"/>
-      <c r="AC139" s="8"/>
-    </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A140" s="26"/>
-      <c r="B140" s="26"/>
-      <c r="C140" s="26"/>
-      <c r="D140" s="26"/>
-      <c r="E140" s="26"/>
-      <c r="F140" s="26"/>
-      <c r="G140" s="26"/>
-      <c r="H140" s="26"/>
-      <c r="I140" s="26"/>
-      <c r="J140" s="26"/>
-      <c r="K140" s="26"/>
-      <c r="L140" s="26"/>
-      <c r="M140" s="26"/>
-      <c r="N140" s="26"/>
-      <c r="O140" s="8"/>
-      <c r="P140" s="8"/>
-      <c r="Q140" s="8"/>
-      <c r="R140" s="8"/>
-      <c r="S140" s="8"/>
-      <c r="T140" s="8"/>
-      <c r="U140" s="8"/>
-      <c r="V140" s="8"/>
-      <c r="W140" s="8"/>
-      <c r="X140" s="8"/>
-      <c r="Y140" s="8"/>
-      <c r="Z140" s="8"/>
-      <c r="AA140" s="8"/>
-      <c r="AB140" s="8"/>
-      <c r="AC140" s="8"/>
-    </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A141" s="26"/>
-      <c r="B141" s="26"/>
-      <c r="C141" s="26"/>
-      <c r="D141" s="26"/>
-      <c r="E141" s="26"/>
-      <c r="F141" s="26"/>
-      <c r="G141" s="26"/>
-      <c r="H141" s="26"/>
-      <c r="I141" s="26"/>
-      <c r="J141" s="26"/>
-      <c r="K141" s="26"/>
-      <c r="L141" s="26"/>
-      <c r="M141" s="26"/>
-      <c r="N141" s="26"/>
-      <c r="O141" s="8"/>
-      <c r="P141" s="8"/>
-      <c r="Q141" s="8"/>
-      <c r="R141" s="8"/>
-      <c r="S141" s="8"/>
-      <c r="T141" s="8"/>
-      <c r="U141" s="8"/>
-      <c r="V141" s="8"/>
-      <c r="W141" s="8"/>
-      <c r="X141" s="8"/>
-      <c r="Y141" s="8"/>
-      <c r="Z141" s="8"/>
-      <c r="AA141" s="8"/>
-      <c r="AB141" s="8"/>
-      <c r="AC141" s="8"/>
-    </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="A140:K140"/>
-    <mergeCell ref="L140:N140"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="B26:AC33"/>
-    <mergeCell ref="A45:X45"/>
-    <mergeCell ref="Y45:AC45"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="Y46:AC46"/>
-    <mergeCell ref="A92:X92"/>
-    <mergeCell ref="Y92:AC92"/>
-    <mergeCell ref="A93:X93"/>
-    <mergeCell ref="Y93:AC93"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A141:K141"/>
-    <mergeCell ref="L141:N141"/>
-    <mergeCell ref="A46:X46"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
@@ -7080,10 +7083,43 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="A132:K132"/>
+    <mergeCell ref="L132:N132"/>
+    <mergeCell ref="A37:X37"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="Y83:AC83"/>
+    <mergeCell ref="A84:X84"/>
+    <mergeCell ref="Y84:AC84"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="A131:K131"/>
+    <mergeCell ref="L131:N131"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="B26:AC33"/>
+    <mergeCell ref="A36:X36"/>
+    <mergeCell ref="Y36:AC36"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="Y37:AC37"/>
+    <mergeCell ref="A83:X83"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/report_template/epa_compare.xlsx
+++ b/report_template/epa_compare.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>測站名稱：麥寮環境監測中心</t>
   </si>
@@ -96,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自動檢核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>人工註記</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,7 +164,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,12 +204,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,7 +263,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -319,9 +309,6 @@
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -334,29 +321,23 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -367,13 +348,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2880,8 +2867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="AD34" sqref="AD34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2892,82 +2879,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
     </row>
     <row r="2" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
     </row>
     <row r="3" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>16</v>
@@ -2984,108 +2971,106 @@
       <c r="N3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3"/>
     </row>
     <row r="4" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="27">
+      <c r="B4" s="27"/>
+      <c r="C4" s="19">
         <v>0</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="19">
         <v>1</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="19">
         <v>2</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="19">
         <v>3</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="19">
         <v>4</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="19">
         <v>5</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="19">
         <v>6</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="19">
         <v>7</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="19">
         <v>8</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="19">
         <v>9</v>
       </c>
-      <c r="M4" s="27">
+      <c r="M4" s="19">
         <v>10</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="19">
         <v>11</v>
       </c>
-      <c r="O4" s="27">
+      <c r="O4" s="19">
         <v>12</v>
       </c>
-      <c r="P4" s="27">
+      <c r="P4" s="19">
         <v>13</v>
       </c>
-      <c r="Q4" s="27">
+      <c r="Q4" s="19">
         <v>14</v>
       </c>
-      <c r="R4" s="27">
+      <c r="R4" s="19">
         <v>15</v>
       </c>
-      <c r="S4" s="27">
+      <c r="S4" s="19">
         <v>16</v>
       </c>
-      <c r="T4" s="27">
+      <c r="T4" s="19">
         <v>17</v>
       </c>
-      <c r="U4" s="27">
+      <c r="U4" s="19">
         <v>18</v>
       </c>
-      <c r="V4" s="27">
+      <c r="V4" s="19">
         <v>19</v>
       </c>
-      <c r="W4" s="27">
+      <c r="W4" s="19">
         <v>20</v>
       </c>
-      <c r="X4" s="27">
+      <c r="X4" s="19">
         <v>21</v>
       </c>
-      <c r="Y4" s="27">
+      <c r="Y4" s="19">
         <v>22</v>
       </c>
-      <c r="Z4" s="27">
+      <c r="Z4" s="19">
         <v>23</v>
       </c>
-      <c r="AA4" s="20" t="s">
+      <c r="AA4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="20" t="s">
+      <c r="AB4" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="AC4" s="27" t="s">
+      <c r="AC4" s="19" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3096,36 +3081,36 @@
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="27"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="19"/>
     </row>
     <row r="6" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -3155,12 +3140,12 @@
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="19"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="18"/>
     </row>
     <row r="7" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
@@ -3188,13 +3173,13 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="19"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="18"/>
     </row>
     <row r="8" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>30</v>
+      <c r="A8" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>7</v>
@@ -3223,12 +3208,12 @@
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="19"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="18"/>
     </row>
     <row r="9" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
@@ -3256,13 +3241,13 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="19"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="18"/>
     </row>
     <row r="10" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>25</v>
+      <c r="A10" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>7</v>
@@ -3291,12 +3276,12 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="19"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="18"/>
     </row>
     <row r="11" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
@@ -3324,16 +3309,16 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="19"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="18"/>
     </row>
     <row r="12" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>26</v>
+      <c r="A12" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -3359,14 +3344,14 @@
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="19"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="18"/>
     </row>
     <row r="13" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -3392,12 +3377,12 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18"/>
-      <c r="AC13" s="19"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="18"/>
     </row>
     <row r="14" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3427,12 +3412,12 @@
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="19"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="18"/>
     </row>
     <row r="15" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
@@ -3460,12 +3445,12 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="19"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="18"/>
     </row>
     <row r="16" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="24" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3495,12 +3480,12 @@
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="19"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="18"/>
     </row>
     <row r="17" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="4" t="s">
         <v>8</v>
       </c>
@@ -3528,12 +3513,12 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="19"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="18"/>
     </row>
     <row r="18" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -3563,12 +3548,12 @@
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
-      <c r="AA18" s="18"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="19"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="18"/>
     </row>
     <row r="19" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="4" t="s">
         <v>8</v>
       </c>
@@ -3596,12 +3581,12 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="19"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="18"/>
     </row>
     <row r="20" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="24" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -3631,12 +3616,12 @@
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="19"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="18"/>
     </row>
     <row r="21" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
@@ -3664,12 +3649,12 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="19"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="18"/>
     </row>
     <row r="22" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="24" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -3699,12 +3684,12 @@
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
-      <c r="AA22" s="18"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="19"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="18"/>
     </row>
     <row r="23" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="4" t="s">
         <v>8</v>
       </c>
@@ -3732,12 +3717,12 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="19"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="18"/>
     </row>
     <row r="24" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -3767,12 +3752,12 @@
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
-      <c r="AA24" s="18"/>
-      <c r="AB24" s="18"/>
-      <c r="AC24" s="19"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="18"/>
     </row>
     <row r="25" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="4" t="s">
         <v>8</v>
       </c>
@@ -3800,321 +3785,321 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
-      <c r="AA25" s="18"/>
-      <c r="AB25" s="18"/>
-      <c r="AC25" s="19"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="18"/>
     </row>
     <row r="26" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="26"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="32"/>
+      <c r="AC26" s="32"/>
     </row>
     <row r="27" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="26"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="32"/>
+      <c r="AC27" s="32"/>
     </row>
     <row r="28" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="26"/>
-      <c r="AA28" s="26"/>
-      <c r="AB28" s="26"/>
-      <c r="AC28" s="26"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="32"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="32"/>
+      <c r="AC28" s="32"/>
     </row>
     <row r="29" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="26"/>
-      <c r="W29" s="26"/>
-      <c r="X29" s="26"/>
-      <c r="Y29" s="26"/>
-      <c r="Z29" s="26"/>
-      <c r="AA29" s="26"/>
-      <c r="AB29" s="26"/>
-      <c r="AC29" s="26"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="32"/>
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="32"/>
+      <c r="AC29" s="32"/>
     </row>
     <row r="30" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="25"/>
-      <c r="Z30" s="25"/>
-      <c r="AA30" s="25"/>
-      <c r="AB30" s="25"/>
-      <c r="AC30" s="25"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="31"/>
     </row>
     <row r="31" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="25"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="25"/>
-      <c r="X31" s="25"/>
-      <c r="Y31" s="25"/>
-      <c r="Z31" s="25"/>
-      <c r="AA31" s="25"/>
-      <c r="AB31" s="25"/>
-      <c r="AC31" s="25"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="31"/>
+      <c r="AB31" s="31"/>
+      <c r="AC31" s="31"/>
     </row>
     <row r="32" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="25"/>
-      <c r="X32" s="25"/>
-      <c r="Y32" s="25"/>
-      <c r="Z32" s="25"/>
-      <c r="AA32" s="25"/>
-      <c r="AB32" s="25"/>
-      <c r="AC32" s="25"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="31"/>
+      <c r="AB32" s="31"/>
+      <c r="AC32" s="31"/>
     </row>
     <row r="33" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="25"/>
-      <c r="V33" s="25"/>
-      <c r="W33" s="25"/>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="25"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="25"/>
-      <c r="AB33" s="25"/>
-      <c r="AC33" s="25"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31"/>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="31"/>
+      <c r="AA33" s="31"/>
+      <c r="AB33" s="31"/>
+      <c r="AC33" s="31"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="22"/>
-      <c r="AA36" s="22"/>
-      <c r="AB36" s="22"/>
-      <c r="AC36" s="22"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="23"/>
+      <c r="AB36" s="23"/>
+      <c r="AC36" s="23"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="22"/>
-      <c r="Y37" s="22"/>
-      <c r="Z37" s="22"/>
-      <c r="AA37" s="22"/>
-      <c r="AB37" s="22"/>
-      <c r="AC37" s="22"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="23"/>
+      <c r="W37" s="23"/>
+      <c r="X37" s="23"/>
+      <c r="Y37" s="23"/>
+      <c r="Z37" s="23"/>
+      <c r="AA37" s="23"/>
+      <c r="AB37" s="23"/>
+      <c r="AC37" s="23"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
@@ -5512,66 +5497,66 @@
       <c r="AC82" s="8"/>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A83" s="22"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
-      <c r="J83" s="22"/>
-      <c r="K83" s="22"/>
-      <c r="L83" s="22"/>
-      <c r="M83" s="22"/>
-      <c r="N83" s="22"/>
-      <c r="O83" s="22"/>
-      <c r="P83" s="22"/>
-      <c r="Q83" s="22"/>
-      <c r="R83" s="22"/>
-      <c r="S83" s="22"/>
-      <c r="T83" s="22"/>
-      <c r="U83" s="22"/>
-      <c r="V83" s="22"/>
-      <c r="W83" s="22"/>
-      <c r="X83" s="22"/>
-      <c r="Y83" s="22"/>
-      <c r="Z83" s="22"/>
-      <c r="AA83" s="22"/>
-      <c r="AB83" s="22"/>
-      <c r="AC83" s="22"/>
+      <c r="A83" s="23"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="23"/>
+      <c r="K83" s="23"/>
+      <c r="L83" s="23"/>
+      <c r="M83" s="23"/>
+      <c r="N83" s="23"/>
+      <c r="O83" s="23"/>
+      <c r="P83" s="23"/>
+      <c r="Q83" s="23"/>
+      <c r="R83" s="23"/>
+      <c r="S83" s="23"/>
+      <c r="T83" s="23"/>
+      <c r="U83" s="23"/>
+      <c r="V83" s="23"/>
+      <c r="W83" s="23"/>
+      <c r="X83" s="23"/>
+      <c r="Y83" s="23"/>
+      <c r="Z83" s="23"/>
+      <c r="AA83" s="23"/>
+      <c r="AB83" s="23"/>
+      <c r="AC83" s="23"/>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A84" s="22"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="22"/>
-      <c r="K84" s="22"/>
-      <c r="L84" s="22"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="22"/>
-      <c r="O84" s="22"/>
-      <c r="P84" s="22"/>
-      <c r="Q84" s="22"/>
-      <c r="R84" s="22"/>
-      <c r="S84" s="22"/>
-      <c r="T84" s="22"/>
-      <c r="U84" s="22"/>
-      <c r="V84" s="22"/>
-      <c r="W84" s="22"/>
-      <c r="X84" s="22"/>
-      <c r="Y84" s="22"/>
-      <c r="Z84" s="22"/>
-      <c r="AA84" s="22"/>
-      <c r="AB84" s="22"/>
-      <c r="AC84" s="22"/>
+      <c r="A84" s="23"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="23"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="23"/>
+      <c r="M84" s="23"/>
+      <c r="N84" s="23"/>
+      <c r="O84" s="23"/>
+      <c r="P84" s="23"/>
+      <c r="Q84" s="23"/>
+      <c r="R84" s="23"/>
+      <c r="S84" s="23"/>
+      <c r="T84" s="23"/>
+      <c r="U84" s="23"/>
+      <c r="V84" s="23"/>
+      <c r="W84" s="23"/>
+      <c r="X84" s="23"/>
+      <c r="Y84" s="23"/>
+      <c r="Z84" s="23"/>
+      <c r="AA84" s="23"/>
+      <c r="AB84" s="23"/>
+      <c r="AC84" s="23"/>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
@@ -7000,20 +6985,20 @@
       <c r="AC130" s="8"/>
     </row>
     <row r="131" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A131" s="22"/>
-      <c r="B131" s="22"/>
-      <c r="C131" s="22"/>
-      <c r="D131" s="22"/>
-      <c r="E131" s="22"/>
-      <c r="F131" s="22"/>
-      <c r="G131" s="22"/>
-      <c r="H131" s="22"/>
-      <c r="I131" s="22"/>
-      <c r="J131" s="22"/>
-      <c r="K131" s="22"/>
-      <c r="L131" s="22"/>
-      <c r="M131" s="22"/>
-      <c r="N131" s="22"/>
+      <c r="A131" s="23"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="23"/>
+      <c r="D131" s="23"/>
+      <c r="E131" s="23"/>
+      <c r="F131" s="23"/>
+      <c r="G131" s="23"/>
+      <c r="H131" s="23"/>
+      <c r="I131" s="23"/>
+      <c r="J131" s="23"/>
+      <c r="K131" s="23"/>
+      <c r="L131" s="23"/>
+      <c r="M131" s="23"/>
+      <c r="N131" s="23"/>
       <c r="O131" s="8"/>
       <c r="P131" s="8"/>
       <c r="Q131" s="8"/>
@@ -7031,20 +7016,20 @@
       <c r="AC131" s="8"/>
     </row>
     <row r="132" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A132" s="22"/>
-      <c r="B132" s="22"/>
-      <c r="C132" s="22"/>
-      <c r="D132" s="22"/>
-      <c r="E132" s="22"/>
-      <c r="F132" s="22"/>
-      <c r="G132" s="22"/>
-      <c r="H132" s="22"/>
-      <c r="I132" s="22"/>
-      <c r="J132" s="22"/>
-      <c r="K132" s="22"/>
-      <c r="L132" s="22"/>
-      <c r="M132" s="22"/>
-      <c r="N132" s="22"/>
+      <c r="A132" s="23"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="23"/>
+      <c r="D132" s="23"/>
+      <c r="E132" s="23"/>
+      <c r="F132" s="23"/>
+      <c r="G132" s="23"/>
+      <c r="H132" s="23"/>
+      <c r="I132" s="23"/>
+      <c r="J132" s="23"/>
+      <c r="K132" s="23"/>
+      <c r="L132" s="23"/>
+      <c r="M132" s="23"/>
+      <c r="N132" s="23"/>
       <c r="O132" s="8"/>
       <c r="P132" s="8"/>
       <c r="Q132" s="8"/>
@@ -7063,31 +7048,22 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="A2:X2"/>
-    <mergeCell ref="Y2:AC2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="Y3:AC3"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="A132:K132"/>
-    <mergeCell ref="L132:N132"/>
-    <mergeCell ref="A37:X37"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="A131:K131"/>
+    <mergeCell ref="L131:N131"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="B26:AC33"/>
+    <mergeCell ref="A36:X36"/>
+    <mergeCell ref="Y36:AC36"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="Y37:AC37"/>
+    <mergeCell ref="A83:X83"/>
     <mergeCell ref="Y83:AC83"/>
     <mergeCell ref="A84:X84"/>
     <mergeCell ref="Y84:AC84"/>
@@ -7104,22 +7080,31 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="A131:K131"/>
-    <mergeCell ref="L131:N131"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="B26:AC33"/>
-    <mergeCell ref="A36:X36"/>
-    <mergeCell ref="Y36:AC36"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="Y37:AC37"/>
-    <mergeCell ref="A83:X83"/>
+    <mergeCell ref="A132:K132"/>
+    <mergeCell ref="L132:N132"/>
+    <mergeCell ref="A37:X37"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/report_template/epa_compare.xlsx
+++ b/report_template/epa_compare.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\AQM\report_template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24105" windowHeight="8100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="EPA測站比較表" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
@@ -54,12 +49,6 @@
   </si>
   <si>
     <t>一氧化碳</t>
-  </si>
-  <si>
-    <t>周界臭氧</t>
-  </si>
-  <si>
-    <t>周界PM10</t>
   </si>
   <si>
     <t>碳氫化合物</t>
@@ -123,42 +112,49 @@
     <t>風向(方位)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>臭氧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="##0.00"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
-      <family val="2"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="新細明體"/>
-      <family val="2"/>
+      <family val="1"/>
       <charset val="136"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
@@ -173,42 +169,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
+        <fgColor indexed="11"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -226,6 +222,15 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -263,7 +268,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -285,7 +290,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -300,29 +305,68 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -333,66 +377,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -414,15 +410,27 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.0673632479578506E-2"/>
+          <c:y val="0.19148936170212766"/>
+          <c:w val="0.88989693590672048"/>
+          <c:h val="0.67446808510638301"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -430,12 +438,9 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$6:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>風向</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FPG</c:v>
+                  <c:v>風向 FPG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -449,12 +454,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0B4A-47AC-96AC-086680AAB846}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -463,12 +462,9 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$7:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>風向</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>EPA</c:v>
+                  <c:v>風向 EPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -482,32 +478,16 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0B4A-47AC-96AC-086680AAB846}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="444020272"/>
-        <c:axId val="444020664"/>
+        <c:axId val="70992640"/>
+        <c:axId val="70995328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="444020272"/>
+        <c:axId val="70992640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -525,27 +505,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444020664"/>
+        <c:crossAx val="70995328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444020664"/>
+        <c:axId val="70995328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="360"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -564,14 +545,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444020272"/>
+        <c:crossAx val="70992640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="90"/>
@@ -579,34 +562,31 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13860112393307"/>
+          <c:y val="0.10851063829787234"/>
+          <c:w val="0.72409372222977697"/>
+          <c:h val="5.106382978723404E-2"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -632,15 +612,27 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6900239771096496E-2"/>
+          <c:y val="0.12340425531914893"/>
+          <c:w val="0.77042899140345256"/>
+          <c:h val="0.74255319148936172"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -648,12 +640,9 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$10:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>風速</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FPG</c:v>
+                  <c:v>風速 FPG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -667,12 +656,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-28BB-4C23-BB1B-938CF75ACDBD}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -681,12 +664,9 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$11:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>風速</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>EPA</c:v>
+                  <c:v>風速 EPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -700,32 +680,16 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-28BB-4C23-BB1B-938CF75ACDBD}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="444021840"/>
-        <c:axId val="444022624"/>
+        <c:axId val="71024640"/>
+        <c:axId val="71026944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="444021840"/>
+        <c:axId val="71024640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -743,25 +707,26 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444022624"/>
+        <c:crossAx val="71026944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444022624"/>
+        <c:axId val="71026944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -780,48 +745,47 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444021840"/>
+        <c:crossAx val="71024640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1413750169410376"/>
+          <c:y val="0.10851063829787234"/>
+          <c:w val="0.72243930675374257"/>
+          <c:h val="5.106382978723404E-2"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -843,15 +807,27 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7239694264341056E-2"/>
+          <c:y val="0.12340425531914893"/>
+          <c:w val="0.72135508391708869"/>
+          <c:h val="0.74255319148936172"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -859,12 +835,9 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$12:$B$12</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>二氧化硫</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FPG</c:v>
+                  <c:v>二氧化硫 FPG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -878,12 +851,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E3EB-49BC-BDEF-213115C223CE}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -892,12 +859,9 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$13:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>二氧化硫</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>EPA</c:v>
+                  <c:v>二氧化硫 EPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -911,32 +875,16 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E3EB-49BC-BDEF-213115C223CE}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="444024192"/>
-        <c:axId val="444026544"/>
+        <c:axId val="71084672"/>
+        <c:axId val="71095424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="444024192"/>
+        <c:axId val="71084672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -954,25 +902,26 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444026544"/>
+        <c:crossAx val="71095424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444026544"/>
+        <c:axId val="71095424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -991,48 +940,47 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444024192"/>
+        <c:crossAx val="71084672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1406251788141617"/>
+          <c:y val="0.10851063829787234"/>
+          <c:w val="0.71224048899394865"/>
+          <c:h val="5.106382978723404E-2"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1054,15 +1002,27 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7012987012987014E-2"/>
+          <c:y val="0.12366750615037204"/>
+          <c:w val="0.73636363636363633"/>
+          <c:h val="0.7420050369022323"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1070,12 +1030,9 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$14:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>二氧化氮</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FPG</c:v>
+                  <c:v>二氧化氮 FPG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1089,12 +1046,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7DAC-4366-982D-EBB5F4F9DE87}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1103,12 +1054,9 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$15:$B$15</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>二氧化氮</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>EPA</c:v>
+                  <c:v>二氧化氮 EPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1122,32 +1070,16 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7DAC-4366-982D-EBB5F4F9DE87}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="445684256"/>
-        <c:axId val="445693664"/>
+        <c:axId val="71788032"/>
+        <c:axId val="71794688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="445684256"/>
+        <c:axId val="71788032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1165,25 +1097,26 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445693664"/>
+        <c:crossAx val="71794688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="445693664"/>
+        <c:axId val="71794688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1202,48 +1135,47 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445684256"/>
+        <c:crossAx val="71788032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13896103896103895"/>
+          <c:y val="0.10874211747705127"/>
+          <c:w val="0.72597402597402594"/>
+          <c:h val="5.1172761165671189E-2"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1265,15 +1197,27 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6900239771096496E-2"/>
+          <c:y val="0.12288148305238167"/>
+          <c:w val="0.72114228824969628"/>
+          <c:h val="0.74364483709286144"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1281,12 +1225,9 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$16:$B$16</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>一氧化碳</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FPG</c:v>
+                  <c:v>一氧化碳 FPG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1300,12 +1241,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CEE1-4E75-985A-9E8BE5B90F82}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1314,12 +1249,9 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$17:$B$17</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>一氧化碳</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>EPA</c:v>
+                  <c:v>一氧化碳 EPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1333,32 +1265,16 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CEE1-4E75-985A-9E8BE5B90F82}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="445683864"/>
-        <c:axId val="445691312"/>
+        <c:axId val="71811456"/>
+        <c:axId val="71813760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="445683864"/>
+        <c:axId val="71811456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1376,25 +1292,26 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445691312"/>
+        <c:crossAx val="71813760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="445691312"/>
+        <c:axId val="71813760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1413,48 +1330,47 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445683864"/>
+        <c:crossAx val="71811456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14267203544508381"/>
+          <c:y val="0.10805095923571491"/>
+          <c:w val="0.70946912171328036"/>
+          <c:h val="5.0847510228571723E-2"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1463,32 +1379,59 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="r">
-              <a:defRPr/>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="新細明體"/>
+                <a:ea typeface="新細明體"/>
+                <a:cs typeface="新細明體"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
-                <a:latin typeface="Arial"/>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="新細明體"/>
+                <a:ea typeface="新細明體"/>
               </a:rPr>
-              <a:t>周界臭氧趨勢差異比對圖</a:t>
+              <a:t>臭氧趨勢差異比對圖</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000">
-                <a:latin typeface="Arial"/>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="新細明體"/>
+                <a:ea typeface="新細明體"/>
               </a:rPr>
               <a:t> </a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7353324641460228E-2"/>
+          <c:y val="0.12288148305238167"/>
+          <c:w val="0.76923076923076927"/>
+          <c:h val="0.74364483709286144"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1496,12 +1439,9 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$18:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>周界臭氧</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FPG</c:v>
+                  <c:v>臭氧 FPG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1515,12 +1455,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-801C-4EDD-9B59-73CDD074BF60}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1529,12 +1463,9 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$19:$B$19</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>周界臭氧</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>EPA</c:v>
+                  <c:v>臭氧 EPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1548,32 +1479,16 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-801C-4EDD-9B59-73CDD074BF60}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="445692096"/>
-        <c:axId val="445692488"/>
+        <c:axId val="72158208"/>
+        <c:axId val="72164864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="445692096"/>
+        <c:axId val="72158208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1591,25 +1506,26 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445692488"/>
+        <c:crossAx val="72164864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="445692488"/>
+        <c:axId val="72164864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1628,48 +1544,47 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445692096"/>
+        <c:crossAx val="72158208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13820078226857888"/>
+          <c:y val="0.10805095923571491"/>
+          <c:w val="0.72620599739243807"/>
+          <c:h val="5.0847510228571723E-2"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1678,40 +1593,59 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800">
-                <a:latin typeface="Arial"/>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="新細明體"/>
+                <a:ea typeface="新細明體"/>
+                <a:cs typeface="新細明體"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>周界</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="en-US" sz="1800">
-                <a:latin typeface="Arial"/>
+                <a:cs typeface="Arial"/>
               </a:rPr>
               <a:t>PM10</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
-                <a:latin typeface="Arial"/>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="新細明體"/>
+                <a:ea typeface="新細明體"/>
               </a:rPr>
               <a:t>趨勢差異比對圖</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6675291073738683E-2"/>
+          <c:y val="0.12366750615037204"/>
+          <c:w val="0.75161707632600261"/>
+          <c:h val="0.7420050369022323"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1719,12 +1653,9 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$20:$B$20</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>周界PM10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FPG</c:v>
+                  <c:v>PM10 FPG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1738,12 +1669,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-586F-4B0D-BB27-2330553522A5}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1752,12 +1677,9 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$21:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>周界PM10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>EPA</c:v>
+                  <c:v>PM10 EPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1771,32 +1693,16 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-586F-4B0D-BB27-2330553522A5}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="445687784"/>
-        <c:axId val="445689744"/>
+        <c:axId val="72189824"/>
+        <c:axId val="72212864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="445687784"/>
+        <c:axId val="72189824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1814,25 +1720,26 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445689744"/>
+        <c:crossAx val="72212864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="445689744"/>
+        <c:axId val="72212864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1851,48 +1758,47 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445687784"/>
+        <c:crossAx val="72189824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1371280724450194"/>
+          <c:y val="0.10874211747705127"/>
+          <c:w val="0.71280724450194044"/>
+          <c:h val="5.1172761165671189E-2"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1914,15 +1820,27 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7467418679765707E-2"/>
+          <c:y val="0.19189785437126697"/>
+          <c:w val="0.89295096085014536"/>
+          <c:h val="0.67377468868133727"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1930,12 +1848,9 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$22:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>碳氫化合物</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FPG</c:v>
+                  <c:v>碳氫化合物 FPG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1949,12 +1864,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F739-40BE-B717-18A94BD51A9B}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1963,12 +1872,9 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$23:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>碳氫化合物</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>EPA</c:v>
+                  <c:v>碳氫化合物 EPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1982,32 +1888,16 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F739-40BE-B717-18A94BD51A9B}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="445688568"/>
-        <c:axId val="445693272"/>
+        <c:axId val="72258304"/>
+        <c:axId val="72260608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="445688568"/>
+        <c:axId val="72258304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2025,25 +1915,26 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445693272"/>
+        <c:crossAx val="72260608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="445693272"/>
+        <c:axId val="72260608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2062,48 +1953,47 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445688568"/>
+        <c:crossAx val="72258304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13446483767187861"/>
+          <c:y val="0.10874211747705127"/>
+          <c:w val="0.73237644596042628"/>
+          <c:h val="5.1172761165671189E-2"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2125,15 +2015,27 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.678761965902515E-2"/>
+          <c:y val="0.1231425058521303"/>
+          <c:w val="0.73963777351199045"/>
+          <c:h val="0.74310132841802767"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2141,12 +2043,9 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$24:$B$24</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>非甲烷</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FPG</c:v>
+                  <c:v>非甲烷 FPG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2160,12 +2059,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F726-4F7F-BFCD-5266E0505B44}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2174,12 +2067,9 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$25:$B$25</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>非甲烷</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>EPA</c:v>
+                  <c:v>非甲烷 EPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2193,32 +2083,16 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1616-4020-BF94-B9291E189483}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="445686216"/>
-        <c:axId val="445688960"/>
+        <c:axId val="73337856"/>
+        <c:axId val="73344512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="445686216"/>
+        <c:axId val="73337856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2236,26 +2110,26 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445688960"/>
+        <c:crossAx val="73344512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="445688960"/>
+        <c:axId val="73344512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2274,30 +2148,39 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445686216"/>
+        <c:crossAx val="73337856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1437824743604745"/>
+          <c:y val="0.10828047928376974"/>
+          <c:w val="0.70984500855441457"/>
+          <c:h val="5.095551966295047E-2"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2310,18 +2193,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>434975</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="1025" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2337,21 +2222,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>434975</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="1026" name="圖表 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2370,18 +2257,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>434975</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="1027" name="圖表 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2397,21 +2286,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>434975</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="圖表 4"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="1028" name="圖表 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2430,18 +2321,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>434975</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="圖表 5"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="1029" name="圖表 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2457,21 +2350,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>434975</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="圖表 6"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="1030" name="圖表 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2490,18 +2385,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>434975</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="圖表 7"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="1031" name="圖表 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2517,21 +2414,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>434975</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="圖表 8"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="1032" name="圖表 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2550,18 +2449,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>434975</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>153</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="圖表 9"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="1033" name="圖表 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2579,7 +2480,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2621,7 +2522,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2653,10 +2554,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2688,7 +2588,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2864,112 +2763,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection sqref="A1:AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6.625" style="6" customWidth="1"/>
     <col min="2" max="2" width="6.875" style="3" customWidth="1"/>
     <col min="3" max="29" width="6.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-    </row>
-    <row r="2" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+    <row r="1" spans="1:29" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+    </row>
+    <row r="2" spans="1:29" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-    </row>
-    <row r="3" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+    </row>
+    <row r="3" spans="1:29" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
       <c r="I3" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="M3" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
@@ -2980,136 +2879,136 @@
       <c r="U3" s="16"/>
       <c r="V3" s="16"/>
       <c r="W3" s="16"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3"/>
-    </row>
-    <row r="4" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="X3" s="19"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+    </row>
+    <row r="4" spans="1:29" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="19">
+      <c r="B4" s="30"/>
+      <c r="C4" s="23">
         <v>0</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="23">
         <v>1</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="23">
         <v>2</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="23">
         <v>3</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="23">
         <v>4</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="23">
         <v>5</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="23">
         <v>6</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="23">
         <v>7</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="23">
         <v>8</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="23">
         <v>9</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="23">
         <v>10</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="23">
         <v>11</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="23">
         <v>12</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="23">
         <v>13</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="23">
         <v>14</v>
       </c>
-      <c r="R4" s="19">
+      <c r="R4" s="23">
         <v>15</v>
       </c>
-      <c r="S4" s="19">
+      <c r="S4" s="23">
         <v>16</v>
       </c>
-      <c r="T4" s="19">
+      <c r="T4" s="23">
         <v>17</v>
       </c>
-      <c r="U4" s="19">
+      <c r="U4" s="23">
         <v>18</v>
       </c>
-      <c r="V4" s="19">
+      <c r="V4" s="23">
         <v>19</v>
       </c>
-      <c r="W4" s="19">
+      <c r="W4" s="23">
         <v>20</v>
       </c>
-      <c r="X4" s="19">
+      <c r="X4" s="23">
         <v>21</v>
       </c>
-      <c r="Y4" s="19">
+      <c r="Y4" s="23">
         <v>22</v>
       </c>
-      <c r="Z4" s="19">
+      <c r="Z4" s="23">
         <v>23</v>
       </c>
-      <c r="AA4" s="28" t="s">
-        <v>20</v>
+      <c r="AA4" s="21" t="s">
+        <v>18</v>
       </c>
-      <c r="AB4" s="28" t="s">
-        <v>21</v>
+      <c r="AB4" s="21" t="s">
+        <v>19</v>
       </c>
-      <c r="AC4" s="19" t="s">
+      <c r="AC4" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="19"/>
-    </row>
-    <row r="6" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="23"/>
+    </row>
+    <row r="6" spans="1:29" ht="24.95" customHeight="1">
       <c r="A6" s="24" t="s">
         <v>6</v>
       </c>
@@ -3144,10 +3043,10 @@
       <c r="AB6" s="17"/>
       <c r="AC6" s="18"/>
     </row>
-    <row r="7" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="24.95" customHeight="1">
       <c r="A7" s="24"/>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -3177,9 +3076,9 @@
       <c r="AB7" s="17"/>
       <c r="AC7" s="18"/>
     </row>
-    <row r="8" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="24.95" customHeight="1">
       <c r="A8" s="24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>7</v>
@@ -3212,10 +3111,10 @@
       <c r="AB8" s="17"/>
       <c r="AC8" s="18"/>
     </row>
-    <row r="9" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="24.95" customHeight="1">
       <c r="A9" s="24"/>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -3245,9 +3144,9 @@
       <c r="AB9" s="17"/>
       <c r="AC9" s="18"/>
     </row>
-    <row r="10" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="24.95" customHeight="1">
       <c r="A10" s="24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>7</v>
@@ -3280,10 +3179,10 @@
       <c r="AB10" s="17"/>
       <c r="AC10" s="18"/>
     </row>
-    <row r="11" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="24.95" customHeight="1">
       <c r="A11" s="24"/>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -3313,12 +3212,12 @@
       <c r="AB11" s="17"/>
       <c r="AC11" s="18"/>
     </row>
-    <row r="12" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="24.95" customHeight="1">
       <c r="A12" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -3348,10 +3247,10 @@
       <c r="AB12" s="17"/>
       <c r="AC12" s="18"/>
     </row>
-    <row r="13" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="24.95" customHeight="1">
       <c r="A13" s="26"/>
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -3381,7 +3280,7 @@
       <c r="AB13" s="17"/>
       <c r="AC13" s="18"/>
     </row>
-    <row r="14" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="24.95" customHeight="1">
       <c r="A14" s="24" t="s">
         <v>9</v>
       </c>
@@ -3416,7 +3315,7 @@
       <c r="AB14" s="17"/>
       <c r="AC14" s="18"/>
     </row>
-    <row r="15" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="24.95" customHeight="1">
       <c r="A15" s="24"/>
       <c r="B15" s="4" t="s">
         <v>8</v>
@@ -3449,7 +3348,7 @@
       <c r="AB15" s="17"/>
       <c r="AC15" s="18"/>
     </row>
-    <row r="16" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="24.95" customHeight="1">
       <c r="A16" s="24" t="s">
         <v>10</v>
       </c>
@@ -3484,7 +3383,7 @@
       <c r="AB16" s="17"/>
       <c r="AC16" s="18"/>
     </row>
-    <row r="17" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="24.95" customHeight="1">
       <c r="A17" s="24"/>
       <c r="B17" s="4" t="s">
         <v>8</v>
@@ -3517,9 +3416,9 @@
       <c r="AB17" s="17"/>
       <c r="AC17" s="18"/>
     </row>
-    <row r="18" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="24.95" customHeight="1">
       <c r="A18" s="24" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>7</v>
@@ -3552,7 +3451,7 @@
       <c r="AB18" s="17"/>
       <c r="AC18" s="18"/>
     </row>
-    <row r="19" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="24.95" customHeight="1">
       <c r="A19" s="24"/>
       <c r="B19" s="4" t="s">
         <v>8</v>
@@ -3585,9 +3484,9 @@
       <c r="AB19" s="17"/>
       <c r="AC19" s="18"/>
     </row>
-    <row r="20" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="24.95" customHeight="1">
       <c r="A20" s="24" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>7</v>
@@ -3620,7 +3519,7 @@
       <c r="AB20" s="17"/>
       <c r="AC20" s="18"/>
     </row>
-    <row r="21" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="24.95" customHeight="1">
       <c r="A21" s="24"/>
       <c r="B21" s="4" t="s">
         <v>8</v>
@@ -3653,9 +3552,9 @@
       <c r="AB21" s="17"/>
       <c r="AC21" s="18"/>
     </row>
-    <row r="22" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="24.95" customHeight="1">
       <c r="A22" s="24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>7</v>
@@ -3688,7 +3587,7 @@
       <c r="AB22" s="17"/>
       <c r="AC22" s="18"/>
     </row>
-    <row r="23" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="24.95" customHeight="1">
       <c r="A23" s="24"/>
       <c r="B23" s="4" t="s">
         <v>8</v>
@@ -3721,9 +3620,9 @@
       <c r="AB23" s="17"/>
       <c r="AC23" s="18"/>
     </row>
-    <row r="24" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="24.95" customHeight="1">
       <c r="A24" s="24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>7</v>
@@ -3756,7 +3655,7 @@
       <c r="AB24" s="17"/>
       <c r="AC24" s="18"/>
     </row>
-    <row r="25" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="24.95" customHeight="1">
       <c r="A25" s="24"/>
       <c r="B25" s="4" t="s">
         <v>8</v>
@@ -3789,319 +3688,319 @@
       <c r="AB25" s="17"/>
       <c r="AC25" s="18"/>
     </row>
-    <row r="26" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-    </row>
-    <row r="27" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="32"/>
-    </row>
-    <row r="28" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="32"/>
-    </row>
-    <row r="29" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="32"/>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="32"/>
-      <c r="AC29" s="32"/>
-    </row>
-    <row r="30" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="31"/>
-    </row>
-    <row r="31" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="31"/>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="31"/>
-      <c r="AA31" s="31"/>
-      <c r="AB31" s="31"/>
-      <c r="AC31" s="31"/>
-    </row>
-    <row r="32" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="31"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="31"/>
-      <c r="AA32" s="31"/>
-      <c r="AB32" s="31"/>
-      <c r="AC32" s="31"/>
-    </row>
-    <row r="33" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="31"/>
-      <c r="Z33" s="31"/>
-      <c r="AA33" s="31"/>
-      <c r="AB33" s="31"/>
-      <c r="AC33" s="31"/>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="23"/>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="23"/>
-      <c r="Z36" s="23"/>
-      <c r="AA36" s="23"/>
-      <c r="AB36" s="23"/>
-      <c r="AC36" s="23"/>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="23"/>
-      <c r="U37" s="23"/>
-      <c r="V37" s="23"/>
-      <c r="W37" s="23"/>
-      <c r="X37" s="23"/>
-      <c r="Y37" s="23"/>
-      <c r="Z37" s="23"/>
-      <c r="AA37" s="23"/>
-      <c r="AB37" s="23"/>
-      <c r="AC37" s="23"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+    </row>
+    <row r="27" spans="1:29" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="27"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+    </row>
+    <row r="28" spans="1:29" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="27"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+    </row>
+    <row r="29" spans="1:29" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="27"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
+    </row>
+    <row r="30" spans="1:29" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
+      <c r="AA30" s="28"/>
+      <c r="AB30" s="28"/>
+      <c r="AC30" s="28"/>
+    </row>
+    <row r="31" spans="1:29" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="28"/>
+      <c r="AC31" s="28"/>
+    </row>
+    <row r="32" spans="1:29" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+    </row>
+    <row r="33" spans="1:29" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="27"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
+    </row>
+    <row r="36" spans="1:29">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="20"/>
+      <c r="AA36" s="20"/>
+      <c r="AB36" s="20"/>
+      <c r="AC36" s="20"/>
+    </row>
+    <row r="37" spans="1:29">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="20"/>
+      <c r="AA37" s="20"/>
+      <c r="AB37" s="20"/>
+      <c r="AC37" s="20"/>
+    </row>
+    <row r="38" spans="1:29">
       <c r="A38" s="5"/>
       <c r="B38" s="2"/>
       <c r="C38" s="8"/>
@@ -4132,7 +4031,7 @@
       <c r="AB38" s="8"/>
       <c r="AC38" s="8"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29">
       <c r="A39" s="5"/>
       <c r="B39" s="2"/>
       <c r="C39" s="8"/>
@@ -4163,7 +4062,7 @@
       <c r="AB39" s="8"/>
       <c r="AC39" s="8"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29">
       <c r="A40" s="5"/>
       <c r="B40" s="2"/>
       <c r="C40" s="8"/>
@@ -4194,7 +4093,7 @@
       <c r="AB40" s="8"/>
       <c r="AC40" s="8"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29">
       <c r="A41" s="5"/>
       <c r="B41" s="2"/>
       <c r="C41" s="8"/>
@@ -4225,7 +4124,7 @@
       <c r="AB41" s="8"/>
       <c r="AC41" s="8"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29">
       <c r="A42" s="5"/>
       <c r="B42" s="2"/>
       <c r="C42" s="8"/>
@@ -4256,7 +4155,7 @@
       <c r="AB42" s="8"/>
       <c r="AC42" s="8"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29">
       <c r="A43" s="5"/>
       <c r="B43" s="2"/>
       <c r="C43" s="8"/>
@@ -4287,7 +4186,7 @@
       <c r="AB43" s="8"/>
       <c r="AC43" s="8"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29">
       <c r="A44" s="5"/>
       <c r="B44" s="2"/>
       <c r="C44" s="8"/>
@@ -4318,7 +4217,7 @@
       <c r="AB44" s="8"/>
       <c r="AC44" s="8"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29">
       <c r="A45" s="5"/>
       <c r="B45" s="2"/>
       <c r="C45" s="8"/>
@@ -4349,7 +4248,7 @@
       <c r="AB45" s="8"/>
       <c r="AC45" s="8"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29">
       <c r="A46" s="5"/>
       <c r="B46" s="2"/>
       <c r="C46" s="8"/>
@@ -4380,7 +4279,7 @@
       <c r="AB46" s="8"/>
       <c r="AC46" s="8"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29">
       <c r="A47" s="5"/>
       <c r="B47" s="2"/>
       <c r="C47" s="8"/>
@@ -4411,7 +4310,7 @@
       <c r="AB47" s="8"/>
       <c r="AC47" s="8"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29">
       <c r="A48" s="5"/>
       <c r="B48" s="2"/>
       <c r="C48" s="8"/>
@@ -4442,7 +4341,7 @@
       <c r="AB48" s="8"/>
       <c r="AC48" s="8"/>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29">
       <c r="A49" s="5"/>
       <c r="B49" s="2"/>
       <c r="C49" s="8"/>
@@ -4473,7 +4372,7 @@
       <c r="AB49" s="8"/>
       <c r="AC49" s="8"/>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29">
       <c r="A50" s="5"/>
       <c r="B50" s="2"/>
       <c r="C50" s="8"/>
@@ -4504,7 +4403,7 @@
       <c r="AB50" s="8"/>
       <c r="AC50" s="8"/>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29">
       <c r="A51" s="5"/>
       <c r="B51" s="2"/>
       <c r="C51" s="8"/>
@@ -4535,7 +4434,7 @@
       <c r="AB51" s="8"/>
       <c r="AC51" s="8"/>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29">
       <c r="A52" s="5"/>
       <c r="B52" s="2"/>
       <c r="C52" s="8"/>
@@ -4566,7 +4465,7 @@
       <c r="AB52" s="8"/>
       <c r="AC52" s="8"/>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29">
       <c r="A53" s="5"/>
       <c r="B53" s="2"/>
       <c r="C53" s="8"/>
@@ -4597,7 +4496,7 @@
       <c r="AB53" s="8"/>
       <c r="AC53" s="8"/>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29">
       <c r="A54" s="5"/>
       <c r="B54" s="2"/>
       <c r="C54" s="8"/>
@@ -4628,7 +4527,7 @@
       <c r="AB54" s="8"/>
       <c r="AC54" s="8"/>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29">
       <c r="A55" s="5"/>
       <c r="B55" s="2"/>
       <c r="C55" s="8"/>
@@ -4659,7 +4558,7 @@
       <c r="AB55" s="8"/>
       <c r="AC55" s="8"/>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29">
       <c r="A56" s="5"/>
       <c r="B56" s="2"/>
       <c r="C56" s="8"/>
@@ -4690,7 +4589,7 @@
       <c r="AB56" s="8"/>
       <c r="AC56" s="8"/>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29">
       <c r="A57" s="5"/>
       <c r="B57" s="2"/>
       <c r="C57" s="8"/>
@@ -4721,7 +4620,7 @@
       <c r="AB57" s="8"/>
       <c r="AC57" s="8"/>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29">
       <c r="A58" s="5"/>
       <c r="B58" s="2"/>
       <c r="C58" s="8"/>
@@ -4752,7 +4651,7 @@
       <c r="AB58" s="8"/>
       <c r="AC58" s="8"/>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29">
       <c r="A59" s="5"/>
       <c r="B59" s="2"/>
       <c r="C59" s="8"/>
@@ -4783,7 +4682,7 @@
       <c r="AB59" s="8"/>
       <c r="AC59" s="8"/>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29">
       <c r="A60" s="5"/>
       <c r="B60" s="2"/>
       <c r="C60" s="8"/>
@@ -4814,7 +4713,7 @@
       <c r="AB60" s="8"/>
       <c r="AC60" s="8"/>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29">
       <c r="A61" s="5"/>
       <c r="B61" s="2"/>
       <c r="C61" s="8"/>
@@ -4845,7 +4744,7 @@
       <c r="AB61" s="8"/>
       <c r="AC61" s="8"/>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29">
       <c r="A62" s="5"/>
       <c r="B62" s="2"/>
       <c r="C62" s="8"/>
@@ -4876,7 +4775,7 @@
       <c r="AB62" s="8"/>
       <c r="AC62" s="8"/>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29">
       <c r="A63" s="5"/>
       <c r="B63" s="2"/>
       <c r="C63" s="8"/>
@@ -4907,7 +4806,7 @@
       <c r="AB63" s="8"/>
       <c r="AC63" s="8"/>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29">
       <c r="A64" s="5"/>
       <c r="B64" s="2"/>
       <c r="C64" s="8"/>
@@ -4938,7 +4837,7 @@
       <c r="AB64" s="8"/>
       <c r="AC64" s="8"/>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29">
       <c r="A65" s="5"/>
       <c r="B65" s="2"/>
       <c r="C65" s="8"/>
@@ -4969,7 +4868,7 @@
       <c r="AB65" s="8"/>
       <c r="AC65" s="8"/>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29">
       <c r="A66" s="5"/>
       <c r="B66" s="2"/>
       <c r="C66" s="8"/>
@@ -5000,7 +4899,7 @@
       <c r="AB66" s="8"/>
       <c r="AC66" s="8"/>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29">
       <c r="A67" s="5"/>
       <c r="B67" s="2"/>
       <c r="C67" s="8"/>
@@ -5031,7 +4930,7 @@
       <c r="AB67" s="8"/>
       <c r="AC67" s="8"/>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29">
       <c r="A68" s="5"/>
       <c r="B68" s="2"/>
       <c r="C68" s="8"/>
@@ -5062,7 +4961,7 @@
       <c r="AB68" s="8"/>
       <c r="AC68" s="8"/>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29">
       <c r="A69" s="5"/>
       <c r="B69" s="2"/>
       <c r="C69" s="8"/>
@@ -5093,7 +4992,7 @@
       <c r="AB69" s="8"/>
       <c r="AC69" s="8"/>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29">
       <c r="A70" s="5"/>
       <c r="B70" s="2"/>
       <c r="C70" s="8"/>
@@ -5124,7 +5023,7 @@
       <c r="AB70" s="8"/>
       <c r="AC70" s="8"/>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29">
       <c r="A71" s="5"/>
       <c r="B71" s="2"/>
       <c r="C71" s="8"/>
@@ -5155,7 +5054,7 @@
       <c r="AB71" s="8"/>
       <c r="AC71" s="8"/>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29">
       <c r="A72" s="5"/>
       <c r="B72" s="2"/>
       <c r="C72" s="8"/>
@@ -5186,7 +5085,7 @@
       <c r="AB72" s="8"/>
       <c r="AC72" s="8"/>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29">
       <c r="A73" s="5"/>
       <c r="B73" s="2"/>
       <c r="C73" s="8"/>
@@ -5217,7 +5116,7 @@
       <c r="AB73" s="8"/>
       <c r="AC73" s="8"/>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29">
       <c r="A74" s="5"/>
       <c r="B74" s="2"/>
       <c r="C74" s="8"/>
@@ -5248,7 +5147,7 @@
       <c r="AB74" s="8"/>
       <c r="AC74" s="8"/>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29">
       <c r="A75" s="5"/>
       <c r="B75" s="2"/>
       <c r="C75" s="8"/>
@@ -5279,7 +5178,7 @@
       <c r="AB75" s="8"/>
       <c r="AC75" s="8"/>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29">
       <c r="A76" s="5"/>
       <c r="B76" s="2"/>
       <c r="C76" s="8"/>
@@ -5310,7 +5209,7 @@
       <c r="AB76" s="8"/>
       <c r="AC76" s="8"/>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29">
       <c r="A77" s="5"/>
       <c r="B77" s="2"/>
       <c r="C77" s="8"/>
@@ -5341,7 +5240,7 @@
       <c r="AB77" s="8"/>
       <c r="AC77" s="8"/>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29">
       <c r="A78" s="5"/>
       <c r="B78" s="2"/>
       <c r="C78" s="8"/>
@@ -5372,7 +5271,7 @@
       <c r="AB78" s="8"/>
       <c r="AC78" s="8"/>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29">
       <c r="A79" s="5"/>
       <c r="B79" s="2"/>
       <c r="C79" s="8"/>
@@ -5403,7 +5302,7 @@
       <c r="AB79" s="8"/>
       <c r="AC79" s="8"/>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29">
       <c r="A80" s="5"/>
       <c r="B80" s="2"/>
       <c r="C80" s="8"/>
@@ -5434,7 +5333,7 @@
       <c r="AB80" s="8"/>
       <c r="AC80" s="8"/>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29">
       <c r="A81" s="5"/>
       <c r="B81" s="2"/>
       <c r="C81" s="8"/>
@@ -5465,7 +5364,7 @@
       <c r="AB81" s="8"/>
       <c r="AC81" s="8"/>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29">
       <c r="A82" s="5"/>
       <c r="B82" s="2"/>
       <c r="C82" s="8"/>
@@ -5496,69 +5395,69 @@
       <c r="AB82" s="8"/>
       <c r="AC82" s="8"/>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A83" s="23"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="23"/>
-      <c r="I83" s="23"/>
-      <c r="J83" s="23"/>
-      <c r="K83" s="23"/>
-      <c r="L83" s="23"/>
-      <c r="M83" s="23"/>
-      <c r="N83" s="23"/>
-      <c r="O83" s="23"/>
-      <c r="P83" s="23"/>
-      <c r="Q83" s="23"/>
-      <c r="R83" s="23"/>
-      <c r="S83" s="23"/>
-      <c r="T83" s="23"/>
-      <c r="U83" s="23"/>
-      <c r="V83" s="23"/>
-      <c r="W83" s="23"/>
-      <c r="X83" s="23"/>
-      <c r="Y83" s="23"/>
-      <c r="Z83" s="23"/>
-      <c r="AA83" s="23"/>
-      <c r="AB83" s="23"/>
-      <c r="AC83" s="23"/>
-    </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A84" s="23"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="23"/>
-      <c r="J84" s="23"/>
-      <c r="K84" s="23"/>
-      <c r="L84" s="23"/>
-      <c r="M84" s="23"/>
-      <c r="N84" s="23"/>
-      <c r="O84" s="23"/>
-      <c r="P84" s="23"/>
-      <c r="Q84" s="23"/>
-      <c r="R84" s="23"/>
-      <c r="S84" s="23"/>
-      <c r="T84" s="23"/>
-      <c r="U84" s="23"/>
-      <c r="V84" s="23"/>
-      <c r="W84" s="23"/>
-      <c r="X84" s="23"/>
-      <c r="Y84" s="23"/>
-      <c r="Z84" s="23"/>
-      <c r="AA84" s="23"/>
-      <c r="AB84" s="23"/>
-      <c r="AC84" s="23"/>
-    </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29">
+      <c r="A83" s="20"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="20"/>
+      <c r="N83" s="20"/>
+      <c r="O83" s="20"/>
+      <c r="P83" s="20"/>
+      <c r="Q83" s="20"/>
+      <c r="R83" s="20"/>
+      <c r="S83" s="20"/>
+      <c r="T83" s="20"/>
+      <c r="U83" s="20"/>
+      <c r="V83" s="20"/>
+      <c r="W83" s="20"/>
+      <c r="X83" s="20"/>
+      <c r="Y83" s="20"/>
+      <c r="Z83" s="20"/>
+      <c r="AA83" s="20"/>
+      <c r="AB83" s="20"/>
+      <c r="AC83" s="20"/>
+    </row>
+    <row r="84" spans="1:29">
+      <c r="A84" s="20"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="20"/>
+      <c r="N84" s="20"/>
+      <c r="O84" s="20"/>
+      <c r="P84" s="20"/>
+      <c r="Q84" s="20"/>
+      <c r="R84" s="20"/>
+      <c r="S84" s="20"/>
+      <c r="T84" s="20"/>
+      <c r="U84" s="20"/>
+      <c r="V84" s="20"/>
+      <c r="W84" s="20"/>
+      <c r="X84" s="20"/>
+      <c r="Y84" s="20"/>
+      <c r="Z84" s="20"/>
+      <c r="AA84" s="20"/>
+      <c r="AB84" s="20"/>
+      <c r="AC84" s="20"/>
+    </row>
+    <row r="85" spans="1:29">
       <c r="A85" s="5"/>
       <c r="B85" s="2"/>
       <c r="C85" s="8"/>
@@ -5589,7 +5488,7 @@
       <c r="AB85" s="8"/>
       <c r="AC85" s="8"/>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29">
       <c r="A86" s="5"/>
       <c r="B86" s="2"/>
       <c r="C86" s="8"/>
@@ -5620,7 +5519,7 @@
       <c r="AB86" s="8"/>
       <c r="AC86" s="8"/>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29">
       <c r="A87" s="5"/>
       <c r="B87" s="2"/>
       <c r="C87" s="8"/>
@@ -5651,7 +5550,7 @@
       <c r="AB87" s="8"/>
       <c r="AC87" s="8"/>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29">
       <c r="A88" s="5"/>
       <c r="B88" s="2"/>
       <c r="C88" s="8"/>
@@ -5682,7 +5581,7 @@
       <c r="AB88" s="8"/>
       <c r="AC88" s="8"/>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29">
       <c r="A89" s="5"/>
       <c r="B89" s="2"/>
       <c r="C89" s="8"/>
@@ -5713,7 +5612,7 @@
       <c r="AB89" s="8"/>
       <c r="AC89" s="8"/>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29">
       <c r="A90" s="5"/>
       <c r="B90" s="2"/>
       <c r="C90" s="8"/>
@@ -5744,7 +5643,7 @@
       <c r="AB90" s="8"/>
       <c r="AC90" s="8"/>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29">
       <c r="A91" s="5"/>
       <c r="B91" s="2"/>
       <c r="C91" s="8"/>
@@ -5775,7 +5674,7 @@
       <c r="AB91" s="8"/>
       <c r="AC91" s="8"/>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29">
       <c r="A92" s="5"/>
       <c r="B92" s="2"/>
       <c r="C92" s="8"/>
@@ -5806,7 +5705,7 @@
       <c r="AB92" s="8"/>
       <c r="AC92" s="8"/>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29">
       <c r="A93" s="5"/>
       <c r="B93" s="2"/>
       <c r="C93" s="8"/>
@@ -5837,7 +5736,7 @@
       <c r="AB93" s="8"/>
       <c r="AC93" s="8"/>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29">
       <c r="A94" s="5"/>
       <c r="B94" s="2"/>
       <c r="C94" s="8"/>
@@ -5868,7 +5767,7 @@
       <c r="AB94" s="8"/>
       <c r="AC94" s="8"/>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29">
       <c r="A95" s="5"/>
       <c r="B95" s="2"/>
       <c r="C95" s="8"/>
@@ -5899,7 +5798,7 @@
       <c r="AB95" s="8"/>
       <c r="AC95" s="8"/>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29">
       <c r="A96" s="5"/>
       <c r="B96" s="2"/>
       <c r="C96" s="8"/>
@@ -5930,7 +5829,7 @@
       <c r="AB96" s="8"/>
       <c r="AC96" s="8"/>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:29">
       <c r="A97" s="5"/>
       <c r="B97" s="2"/>
       <c r="C97" s="8"/>
@@ -5961,7 +5860,7 @@
       <c r="AB97" s="8"/>
       <c r="AC97" s="8"/>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:29">
       <c r="A98" s="5"/>
       <c r="B98" s="2"/>
       <c r="C98" s="8"/>
@@ -5992,7 +5891,7 @@
       <c r="AB98" s="8"/>
       <c r="AC98" s="8"/>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:29">
       <c r="A99" s="5"/>
       <c r="B99" s="2"/>
       <c r="C99" s="8"/>
@@ -6023,7 +5922,7 @@
       <c r="AB99" s="8"/>
       <c r="AC99" s="8"/>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:29">
       <c r="A100" s="5"/>
       <c r="B100" s="2"/>
       <c r="C100" s="8"/>
@@ -6054,7 +5953,7 @@
       <c r="AB100" s="8"/>
       <c r="AC100" s="8"/>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:29">
       <c r="A101" s="5"/>
       <c r="B101" s="2"/>
       <c r="C101" s="8"/>
@@ -6085,7 +5984,7 @@
       <c r="AB101" s="8"/>
       <c r="AC101" s="8"/>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:29">
       <c r="A102" s="5"/>
       <c r="B102" s="2"/>
       <c r="C102" s="8"/>
@@ -6116,7 +6015,7 @@
       <c r="AB102" s="8"/>
       <c r="AC102" s="8"/>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:29">
       <c r="A103" s="5"/>
       <c r="B103" s="2"/>
       <c r="C103" s="8"/>
@@ -6147,7 +6046,7 @@
       <c r="AB103" s="8"/>
       <c r="AC103" s="8"/>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:29">
       <c r="A104" s="5"/>
       <c r="B104" s="2"/>
       <c r="C104" s="8"/>
@@ -6178,7 +6077,7 @@
       <c r="AB104" s="8"/>
       <c r="AC104" s="8"/>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:29">
       <c r="A105" s="5"/>
       <c r="B105" s="2"/>
       <c r="C105" s="8"/>
@@ -6209,7 +6108,7 @@
       <c r="AB105" s="8"/>
       <c r="AC105" s="8"/>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:29">
       <c r="A106" s="5"/>
       <c r="B106" s="2"/>
       <c r="C106" s="8"/>
@@ -6240,7 +6139,7 @@
       <c r="AB106" s="8"/>
       <c r="AC106" s="8"/>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:29">
       <c r="A107" s="5"/>
       <c r="B107" s="2"/>
       <c r="C107" s="8"/>
@@ -6271,7 +6170,7 @@
       <c r="AB107" s="8"/>
       <c r="AC107" s="8"/>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:29">
       <c r="A108" s="5"/>
       <c r="B108" s="2"/>
       <c r="C108" s="8"/>
@@ -6302,7 +6201,7 @@
       <c r="AB108" s="8"/>
       <c r="AC108" s="8"/>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:29">
       <c r="A109" s="5"/>
       <c r="B109" s="2"/>
       <c r="C109" s="8"/>
@@ -6333,7 +6232,7 @@
       <c r="AB109" s="8"/>
       <c r="AC109" s="8"/>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:29">
       <c r="A110" s="5"/>
       <c r="B110" s="2"/>
       <c r="C110" s="8"/>
@@ -6364,7 +6263,7 @@
       <c r="AB110" s="8"/>
       <c r="AC110" s="8"/>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:29">
       <c r="A111" s="5"/>
       <c r="B111" s="2"/>
       <c r="C111" s="8"/>
@@ -6395,7 +6294,7 @@
       <c r="AB111" s="8"/>
       <c r="AC111" s="8"/>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:29">
       <c r="A112" s="5"/>
       <c r="B112" s="2"/>
       <c r="C112" s="8"/>
@@ -6426,7 +6325,7 @@
       <c r="AB112" s="8"/>
       <c r="AC112" s="8"/>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:29">
       <c r="A113" s="5"/>
       <c r="B113" s="2"/>
       <c r="C113" s="8"/>
@@ -6457,7 +6356,7 @@
       <c r="AB113" s="8"/>
       <c r="AC113" s="8"/>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:29">
       <c r="A114" s="5"/>
       <c r="B114" s="2"/>
       <c r="C114" s="8"/>
@@ -6488,7 +6387,7 @@
       <c r="AB114" s="8"/>
       <c r="AC114" s="8"/>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:29">
       <c r="A115" s="5"/>
       <c r="B115" s="2"/>
       <c r="C115" s="8"/>
@@ -6519,7 +6418,7 @@
       <c r="AB115" s="8"/>
       <c r="AC115" s="8"/>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:29">
       <c r="A116" s="5"/>
       <c r="B116" s="2"/>
       <c r="C116" s="8"/>
@@ -6550,7 +6449,7 @@
       <c r="AB116" s="8"/>
       <c r="AC116" s="8"/>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:29">
       <c r="A117" s="5"/>
       <c r="B117" s="2"/>
       <c r="C117" s="8"/>
@@ -6581,7 +6480,7 @@
       <c r="AB117" s="8"/>
       <c r="AC117" s="8"/>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:29">
       <c r="A118" s="5"/>
       <c r="B118" s="2"/>
       <c r="C118" s="8"/>
@@ -6612,7 +6511,7 @@
       <c r="AB118" s="8"/>
       <c r="AC118" s="8"/>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:29">
       <c r="A119" s="5"/>
       <c r="B119" s="2"/>
       <c r="C119" s="8"/>
@@ -6643,7 +6542,7 @@
       <c r="AB119" s="8"/>
       <c r="AC119" s="8"/>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:29">
       <c r="A120" s="5"/>
       <c r="B120" s="2"/>
       <c r="C120" s="8"/>
@@ -6674,7 +6573,7 @@
       <c r="AB120" s="8"/>
       <c r="AC120" s="8"/>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:29">
       <c r="A121" s="5"/>
       <c r="B121" s="2"/>
       <c r="C121" s="8"/>
@@ -6705,7 +6604,7 @@
       <c r="AB121" s="8"/>
       <c r="AC121" s="8"/>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:29">
       <c r="A122" s="5"/>
       <c r="B122" s="2"/>
       <c r="C122" s="8"/>
@@ -6736,7 +6635,7 @@
       <c r="AB122" s="8"/>
       <c r="AC122" s="8"/>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:29">
       <c r="A123" s="5"/>
       <c r="B123" s="2"/>
       <c r="C123" s="8"/>
@@ -6767,7 +6666,7 @@
       <c r="AB123" s="8"/>
       <c r="AC123" s="8"/>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:29">
       <c r="A124" s="5"/>
       <c r="B124" s="2"/>
       <c r="C124" s="8"/>
@@ -6798,7 +6697,7 @@
       <c r="AB124" s="8"/>
       <c r="AC124" s="8"/>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:29">
       <c r="A125" s="5"/>
       <c r="B125" s="2"/>
       <c r="C125" s="8"/>
@@ -6829,7 +6728,7 @@
       <c r="AB125" s="8"/>
       <c r="AC125" s="8"/>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:29">
       <c r="A126" s="5"/>
       <c r="B126" s="2"/>
       <c r="C126" s="8"/>
@@ -6860,7 +6759,7 @@
       <c r="AB126" s="8"/>
       <c r="AC126" s="8"/>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:29">
       <c r="A127" s="5"/>
       <c r="B127" s="2"/>
       <c r="C127" s="8"/>
@@ -6891,7 +6790,7 @@
       <c r="AB127" s="8"/>
       <c r="AC127" s="8"/>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:29">
       <c r="A128" s="5"/>
       <c r="B128" s="2"/>
       <c r="C128" s="8"/>
@@ -6922,7 +6821,7 @@
       <c r="AB128" s="8"/>
       <c r="AC128" s="8"/>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:29">
       <c r="A129" s="5"/>
       <c r="B129" s="2"/>
       <c r="C129" s="8"/>
@@ -6953,7 +6852,7 @@
       <c r="AB129" s="8"/>
       <c r="AC129" s="8"/>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:29">
       <c r="A130" s="5"/>
       <c r="B130" s="2"/>
       <c r="C130" s="8"/>
@@ -6984,21 +6883,21 @@
       <c r="AB130" s="8"/>
       <c r="AC130" s="8"/>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A131" s="23"/>
-      <c r="B131" s="23"/>
-      <c r="C131" s="23"/>
-      <c r="D131" s="23"/>
-      <c r="E131" s="23"/>
-      <c r="F131" s="23"/>
-      <c r="G131" s="23"/>
-      <c r="H131" s="23"/>
-      <c r="I131" s="23"/>
-      <c r="J131" s="23"/>
-      <c r="K131" s="23"/>
-      <c r="L131" s="23"/>
-      <c r="M131" s="23"/>
-      <c r="N131" s="23"/>
+    <row r="131" spans="1:29">
+      <c r="A131" s="20"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="20"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="20"/>
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
+      <c r="J131" s="20"/>
+      <c r="K131" s="20"/>
+      <c r="L131" s="20"/>
+      <c r="M131" s="20"/>
+      <c r="N131" s="20"/>
       <c r="O131" s="8"/>
       <c r="P131" s="8"/>
       <c r="Q131" s="8"/>
@@ -7015,21 +6914,21 @@
       <c r="AB131" s="8"/>
       <c r="AC131" s="8"/>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A132" s="23"/>
-      <c r="B132" s="23"/>
-      <c r="C132" s="23"/>
-      <c r="D132" s="23"/>
-      <c r="E132" s="23"/>
-      <c r="F132" s="23"/>
-      <c r="G132" s="23"/>
-      <c r="H132" s="23"/>
-      <c r="I132" s="23"/>
-      <c r="J132" s="23"/>
-      <c r="K132" s="23"/>
-      <c r="L132" s="23"/>
-      <c r="M132" s="23"/>
-      <c r="N132" s="23"/>
+    <row r="132" spans="1:29">
+      <c r="A132" s="20"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="20"/>
+      <c r="H132" s="20"/>
+      <c r="I132" s="20"/>
+      <c r="J132" s="20"/>
+      <c r="K132" s="20"/>
+      <c r="L132" s="20"/>
+      <c r="M132" s="20"/>
+      <c r="N132" s="20"/>
       <c r="O132" s="8"/>
       <c r="P132" s="8"/>
       <c r="Q132" s="8"/>
@@ -7048,63 +6947,63 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="Y3:AC3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="A132:K132"/>
+    <mergeCell ref="L132:N132"/>
+    <mergeCell ref="A37:X37"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A131:K131"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A36:X36"/>
+    <mergeCell ref="A84:X84"/>
     <mergeCell ref="L131:N131"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="B26:AC33"/>
-    <mergeCell ref="A36:X36"/>
-    <mergeCell ref="Y36:AC36"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="AC4:AC5"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="Y37:AC37"/>
-    <mergeCell ref="A83:X83"/>
-    <mergeCell ref="Y83:AC83"/>
-    <mergeCell ref="A84:X84"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="Y84:AC84"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="Y37:AC37"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="B26:AC33"/>
+    <mergeCell ref="A83:X83"/>
+    <mergeCell ref="Y83:AC83"/>
+    <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A132:K132"/>
-    <mergeCell ref="L132:N132"/>
-    <mergeCell ref="A37:X37"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="A2:X2"/>
-    <mergeCell ref="Y2:AC2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="V4:V5"/>
     <mergeCell ref="P4:P5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="Y36:AC36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -7115,12 +7014,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7128,12 +7027,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/report_template/epa_compare.xlsx
+++ b/report_template/epa_compare.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\webApp\AQM\report_template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8100"/>
   </bookViews>
@@ -124,12 +129,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="##0.00"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -330,19 +335,37 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -359,36 +382,36 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -410,6 +433,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -417,6 +441,7 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -425,12 +450,13 @@
           <c:yMode val="edge"/>
           <c:x val="9.0673632479578506E-2"/>
           <c:y val="0.19148936170212766"/>
-          <c:w val="0.88989693590672048"/>
+          <c:w val="0.80448757309941521"/>
           <c:h val="0.67446808510638301"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -438,9 +464,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$6:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>風向 FPG</c:v>
+                  <c:v>風向</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FPG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -454,6 +483,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CECA-48B6-B574-6FCF2FA9D65F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -462,9 +497,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$7:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>風向 EPA</c:v>
+                  <c:v>風向</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -478,8 +516,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CECA-48B6-B574-6FCF2FA9D65F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="70992640"/>
         <c:axId val="70995328"/>
       </c:lineChart>
@@ -488,6 +541,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -505,6 +559,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -513,12 +568,15 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="70995328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="70995328"/>
@@ -527,6 +585,7 @@
           <c:max val="360"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -545,6 +604,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -553,6 +613,8 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="70992640"/>
         <c:crosses val="autoZero"/>
@@ -572,9 +634,11 @@
           <c:h val="5.106382978723404E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -585,8 +649,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -612,6 +686,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -619,6 +694,7 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -626,13 +702,14 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.6900239771096496E-2"/>
-          <c:y val="0.12340425531914893"/>
-          <c:w val="0.77042899140345256"/>
-          <c:h val="0.74255319148936172"/>
+          <c:y val="0.19395972222222221"/>
+          <c:w val="0.83727105263157897"/>
+          <c:h val="0.6719976851851851"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -640,9 +717,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$10:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>風速 FPG</c:v>
+                  <c:v>風速</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FPG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -656,6 +736,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACFE-4C55-8109-89DAF1C0F620}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -664,9 +750,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$11:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>風速 EPA</c:v>
+                  <c:v>風速</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -680,8 +769,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ACFE-4C55-8109-89DAF1C0F620}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="71024640"/>
         <c:axId val="71026944"/>
       </c:lineChart>
@@ -690,6 +794,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -707,6 +812,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -715,18 +821,22 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="71026944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="71026944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -745,6 +855,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -753,6 +864,8 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="71024640"/>
         <c:crosses val="autoZero"/>
@@ -771,9 +884,11 @@
           <c:h val="5.106382978723404E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -784,8 +899,18 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -807,6 +932,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -814,6 +940,7 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -821,13 +948,14 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.7239694264341056E-2"/>
-          <c:y val="0.12340425531914893"/>
-          <c:w val="0.72135508391708869"/>
-          <c:h val="0.74255319148936172"/>
+          <c:y val="0.20277916666666668"/>
+          <c:w val="0.81047792397660823"/>
+          <c:h val="0.66317824074074072"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -835,9 +963,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$12:$B$12</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>二氧化硫 FPG</c:v>
+                  <c:v>二氧化硫</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FPG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -851,6 +982,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E4A-4F90-AC87-FCB2E4E915D2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -859,9 +996,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$13:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>二氧化硫 EPA</c:v>
+                  <c:v>二氧化硫</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -875,8 +1015,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4E4A-4F90-AC87-FCB2E4E915D2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="71084672"/>
         <c:axId val="71095424"/>
       </c:lineChart>
@@ -885,6 +1040,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -902,6 +1058,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -910,18 +1067,22 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="71095424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="71095424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -940,6 +1101,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -948,6 +1110,8 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="71084672"/>
         <c:crosses val="autoZero"/>
@@ -966,9 +1130,11 @@
           <c:h val="5.106382978723404E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -979,8 +1145,18 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1002,6 +1178,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -1009,6 +1186,7 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1016,13 +1194,14 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.7012987012987014E-2"/>
-          <c:y val="0.12366750615037204"/>
-          <c:w val="0.73636363636363633"/>
-          <c:h val="0.7420050369022323"/>
+          <c:y val="0.20304259259259261"/>
+          <c:w val="0.8366267543859649"/>
+          <c:h val="0.66263009259259265"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1030,9 +1209,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$14:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>二氧化氮 FPG</c:v>
+                  <c:v>二氧化氮</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FPG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1046,6 +1228,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB2D-44D5-9585-5DCD4FD7A50C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1054,9 +1242,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$15:$B$15</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>二氧化氮 EPA</c:v>
+                  <c:v>二氧化氮</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1070,8 +1261,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CB2D-44D5-9585-5DCD4FD7A50C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="71788032"/>
         <c:axId val="71794688"/>
       </c:lineChart>
@@ -1080,6 +1286,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1097,6 +1304,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -1105,18 +1313,22 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="71794688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="71794688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1135,6 +1347,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -1143,6 +1356,8 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="71788032"/>
         <c:crosses val="autoZero"/>
@@ -1161,9 +1376,11 @@
           <c:h val="5.1172761165671189E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1174,8 +1391,18 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1197,6 +1424,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -1204,6 +1432,7 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1211,13 +1440,14 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.6900239771096496E-2"/>
-          <c:y val="0.12288148305238167"/>
-          <c:w val="0.72114228824969628"/>
-          <c:h val="0.74364483709286144"/>
+          <c:y val="0.23165462962962963"/>
+          <c:w val="0.81397850877192979"/>
+          <c:h val="0.63487175925925921"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1225,9 +1455,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$16:$B$16</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>一氧化碳 FPG</c:v>
+                  <c:v>一氧化碳</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FPG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1241,6 +1474,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B27-4E08-B23E-47EB69E7EB31}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1249,9 +1488,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$17:$B$17</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>一氧化碳 EPA</c:v>
+                  <c:v>一氧化碳</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1265,8 +1507,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3B27-4E08-B23E-47EB69E7EB31}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="71811456"/>
         <c:axId val="71813760"/>
       </c:lineChart>
@@ -1275,6 +1532,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1292,6 +1550,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -1300,18 +1559,22 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="71813760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="71813760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1330,6 +1593,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -1338,6 +1602,8 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="71811456"/>
         <c:crosses val="autoZero"/>
@@ -1356,9 +1622,11 @@
           <c:h val="5.0847510228571723E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1369,8 +1637,18 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1411,6 +1689,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -1418,6 +1697,7 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1425,13 +1705,14 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.7353324641460228E-2"/>
-          <c:y val="0.12288148305238167"/>
-          <c:w val="0.76923076923076927"/>
-          <c:h val="0.74364483709286144"/>
+          <c:y val="0.22283518518518519"/>
+          <c:w val="0.83607280701754383"/>
+          <c:h val="0.6436912037037037"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1439,9 +1720,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$18:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>臭氧 FPG</c:v>
+                  <c:v>臭氧</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FPG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1455,6 +1739,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-90DB-421F-B09F-49BCE72A1658}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1463,9 +1753,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$19:$B$19</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>臭氧 EPA</c:v>
+                  <c:v>臭氧</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1479,8 +1772,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-90DB-421F-B09F-49BCE72A1658}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="72158208"/>
         <c:axId val="72164864"/>
       </c:lineChart>
@@ -1489,6 +1797,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1506,6 +1815,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -1514,18 +1824,22 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="72164864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="72164864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1544,6 +1858,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -1552,6 +1867,8 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="72158208"/>
         <c:crosses val="autoZero"/>
@@ -1570,9 +1887,11 @@
           <c:h val="5.0847510228571723E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1583,8 +1902,18 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1625,6 +1954,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -1632,6 +1962,7 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1639,13 +1970,14 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.6675291073738683E-2"/>
-          <c:y val="0.12366750615037204"/>
-          <c:w val="0.75161707632600261"/>
-          <c:h val="0.7420050369022323"/>
+          <c:y val="0.22068148148148151"/>
+          <c:w val="0.81103230994152042"/>
+          <c:h val="0.64499120370370366"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1653,9 +1985,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$20:$B$20</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>PM10 FPG</c:v>
+                  <c:v>PM10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FPG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1669,6 +2004,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2D80-4FEC-A121-ECD769700331}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1677,9 +2018,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$21:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>PM10 EPA</c:v>
+                  <c:v>PM10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1693,8 +2037,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2D80-4FEC-A121-ECD769700331}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="72189824"/>
         <c:axId val="72212864"/>
       </c:lineChart>
@@ -1703,6 +2062,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1720,6 +2080,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -1728,18 +2089,22 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="72212864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="72212864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1758,6 +2123,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -1766,6 +2132,8 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="72189824"/>
         <c:crosses val="autoZero"/>
@@ -1784,9 +2152,11 @@
           <c:h val="5.1172761165671189E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1797,8 +2167,18 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1820,6 +2200,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -1827,6 +2208,7 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1835,12 +2217,13 @@
           <c:yMode val="edge"/>
           <c:x val="8.7467418679765707E-2"/>
           <c:y val="0.19189785437126697"/>
-          <c:w val="0.89295096085014536"/>
+          <c:w val="0.84281944444444445"/>
           <c:h val="0.67377468868133727"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1848,9 +2231,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$22:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>碳氫化合物 FPG</c:v>
+                  <c:v>碳氫化合物</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FPG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1864,6 +2250,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-477F-41E5-97DF-0BD820CC9A7D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1872,9 +2264,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$23:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>碳氫化合物 EPA</c:v>
+                  <c:v>碳氫化合物</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1888,8 +2283,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-477F-41E5-97DF-0BD820CC9A7D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="72258304"/>
         <c:axId val="72260608"/>
       </c:lineChart>
@@ -1898,6 +2308,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1915,6 +2326,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -1923,18 +2335,22 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="72260608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="72260608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1953,6 +2369,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -1961,6 +2378,8 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="72258304"/>
         <c:crosses val="autoZero"/>
@@ -1979,9 +2398,11 @@
           <c:h val="5.1172761165671189E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1992,8 +2413,18 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2015,6 +2446,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -2022,6 +2454,7 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -2030,12 +2463,13 @@
           <c:yMode val="edge"/>
           <c:x val="8.678761965902515E-2"/>
           <c:y val="0.1231425058521303"/>
-          <c:w val="0.73963777351199045"/>
+          <c:w val="0.80418364716858526"/>
           <c:h val="0.74310132841802767"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2043,9 +2477,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$24:$B$24</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>非甲烷 FPG</c:v>
+                  <c:v>非甲烷</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FPG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2059,6 +2496,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0646-4080-9FF0-F37FE9E3F91A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2067,9 +2510,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$25:$B$25</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>非甲烷 EPA</c:v>
+                  <c:v>非甲烷</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2083,8 +2529,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0646-4080-9FF0-F37FE9E3F91A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="73337856"/>
         <c:axId val="73344512"/>
       </c:lineChart>
@@ -2093,6 +2554,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2110,6 +2572,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -2118,18 +2581,22 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="73344512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="73344512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2148,6 +2615,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -2156,6 +2624,8 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="73337856"/>
         <c:crosses val="autoZero"/>
@@ -2174,9 +2644,11 @@
           <c:h val="5.095551966295047E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2197,9 +2669,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>220125</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>28987</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2228,10 +2700,10 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>467775</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>28987</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2261,9 +2733,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>220125</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>143288</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2293,9 +2765,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>467775</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>152813</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2325,9 +2797,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>220125</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>28988</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2356,10 +2828,10 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>24862</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>28988</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2389,9 +2861,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>220125</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>162337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2421,9 +2893,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>43912</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>171862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2453,9 +2925,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>220125</xdr:colOff>
       <xdr:row>153</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>133762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2480,7 +2952,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2522,7 +2994,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2554,9 +3026,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2588,6 +3078,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2763,95 +3271,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AC1"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="AB138" sqref="AB138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="3" customWidth="1"/>
-    <col min="3" max="29" width="6.625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="6.59765625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.86328125" style="3" customWidth="1"/>
+    <col min="3" max="29" width="6.59765625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-    </row>
-    <row r="2" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="34" t="s">
+    <row r="1" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+    </row>
+    <row r="2" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-    </row>
-    <row r="3" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+    </row>
+    <row r="3" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="10" t="s">
         <v>26</v>
       </c>
@@ -2880,136 +3388,136 @@
       <c r="V3" s="16"/>
       <c r="W3" s="16"/>
       <c r="X3" s="19"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-    </row>
-    <row r="4" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="30" t="s">
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+    </row>
+    <row r="4" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="23">
+      <c r="B4" s="28"/>
+      <c r="C4" s="25">
         <v>0</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="25">
         <v>1</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="25">
         <v>2</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="25">
         <v>3</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="25">
         <v>4</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="25">
         <v>5</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="25">
         <v>6</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="25">
         <v>7</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="25">
         <v>8</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="25">
         <v>9</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="25">
         <v>10</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="25">
         <v>11</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="25">
         <v>12</v>
       </c>
-      <c r="P4" s="23">
+      <c r="P4" s="25">
         <v>13</v>
       </c>
-      <c r="Q4" s="23">
+      <c r="Q4" s="25">
         <v>14</v>
       </c>
-      <c r="R4" s="23">
+      <c r="R4" s="25">
         <v>15</v>
       </c>
-      <c r="S4" s="23">
+      <c r="S4" s="25">
         <v>16</v>
       </c>
-      <c r="T4" s="23">
+      <c r="T4" s="25">
         <v>17</v>
       </c>
-      <c r="U4" s="23">
+      <c r="U4" s="25">
         <v>18</v>
       </c>
-      <c r="V4" s="23">
+      <c r="V4" s="25">
         <v>19</v>
       </c>
-      <c r="W4" s="23">
+      <c r="W4" s="25">
         <v>20</v>
       </c>
-      <c r="X4" s="23">
+      <c r="X4" s="25">
         <v>21</v>
       </c>
-      <c r="Y4" s="23">
+      <c r="Y4" s="25">
         <v>22</v>
       </c>
-      <c r="Z4" s="23">
+      <c r="Z4" s="25">
         <v>23</v>
       </c>
-      <c r="AA4" s="21" t="s">
+      <c r="AA4" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="AB4" s="21" t="s">
+      <c r="AB4" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="AC4" s="23" t="s">
+      <c r="AC4" s="25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="23"/>
-    </row>
-    <row r="6" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A6" s="24" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="25"/>
+    </row>
+    <row r="6" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="27" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -3043,8 +3551,8 @@
       <c r="AB6" s="17"/>
       <c r="AC6" s="18"/>
     </row>
-    <row r="7" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A7" s="24"/>
+    <row r="7" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="27"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
@@ -3076,8 +3584,8 @@
       <c r="AB7" s="17"/>
       <c r="AC7" s="18"/>
     </row>
-    <row r="8" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A8" s="24" t="s">
+    <row r="8" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="27" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -3111,8 +3619,8 @@
       <c r="AB8" s="17"/>
       <c r="AC8" s="18"/>
     </row>
-    <row r="9" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A9" s="24"/>
+    <row r="9" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="27"/>
       <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
@@ -3144,8 +3652,8 @@
       <c r="AB9" s="17"/>
       <c r="AC9" s="18"/>
     </row>
-    <row r="10" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A10" s="24" t="s">
+    <row r="10" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -3179,8 +3687,8 @@
       <c r="AB10" s="17"/>
       <c r="AC10" s="18"/>
     </row>
-    <row r="11" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A11" s="24"/>
+    <row r="11" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="27"/>
       <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
@@ -3212,8 +3720,8 @@
       <c r="AB11" s="17"/>
       <c r="AC11" s="18"/>
     </row>
-    <row r="12" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="31" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -3247,8 +3755,8 @@
       <c r="AB12" s="17"/>
       <c r="AC12" s="18"/>
     </row>
-    <row r="13" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A13" s="26"/>
+    <row r="13" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="32"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
@@ -3280,8 +3788,8 @@
       <c r="AB13" s="17"/>
       <c r="AC13" s="18"/>
     </row>
-    <row r="14" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A14" s="24" t="s">
+    <row r="14" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="27" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3315,8 +3823,8 @@
       <c r="AB14" s="17"/>
       <c r="AC14" s="18"/>
     </row>
-    <row r="15" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A15" s="24"/>
+    <row r="15" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="27"/>
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
@@ -3348,8 +3856,8 @@
       <c r="AB15" s="17"/>
       <c r="AC15" s="18"/>
     </row>
-    <row r="16" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A16" s="24" t="s">
+    <row r="16" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3383,8 +3891,8 @@
       <c r="AB16" s="17"/>
       <c r="AC16" s="18"/>
     </row>
-    <row r="17" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A17" s="24"/>
+    <row r="17" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="27"/>
       <c r="B17" s="4" t="s">
         <v>8</v>
       </c>
@@ -3416,8 +3924,8 @@
       <c r="AB17" s="17"/>
       <c r="AC17" s="18"/>
     </row>
-    <row r="18" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A18" s="24" t="s">
+    <row r="18" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="27" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -3451,8 +3959,8 @@
       <c r="AB18" s="17"/>
       <c r="AC18" s="18"/>
     </row>
-    <row r="19" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A19" s="24"/>
+    <row r="19" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="27"/>
       <c r="B19" s="4" t="s">
         <v>8</v>
       </c>
@@ -3484,8 +3992,8 @@
       <c r="AB19" s="17"/>
       <c r="AC19" s="18"/>
     </row>
-    <row r="20" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A20" s="24" t="s">
+    <row r="20" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="27" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -3519,8 +4027,8 @@
       <c r="AB20" s="17"/>
       <c r="AC20" s="18"/>
     </row>
-    <row r="21" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A21" s="24"/>
+    <row r="21" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="27"/>
       <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
@@ -3552,8 +4060,8 @@
       <c r="AB21" s="17"/>
       <c r="AC21" s="18"/>
     </row>
-    <row r="22" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A22" s="24" t="s">
+    <row r="22" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -3587,8 +4095,8 @@
       <c r="AB22" s="17"/>
       <c r="AC22" s="18"/>
     </row>
-    <row r="23" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A23" s="24"/>
+    <row r="23" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="27"/>
       <c r="B23" s="4" t="s">
         <v>8</v>
       </c>
@@ -3620,8 +4128,8 @@
       <c r="AB23" s="17"/>
       <c r="AC23" s="18"/>
     </row>
-    <row r="24" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A24" s="24" t="s">
+    <row r="24" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -3655,8 +4163,8 @@
       <c r="AB24" s="17"/>
       <c r="AC24" s="18"/>
     </row>
-    <row r="25" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A25" s="24"/>
+    <row r="25" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="27"/>
       <c r="B25" s="4" t="s">
         <v>8</v>
       </c>
@@ -3688,319 +4196,319 @@
       <c r="AB25" s="17"/>
       <c r="AC25" s="18"/>
     </row>
-    <row r="26" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="24" t="s">
+    <row r="26" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="29"/>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="29"/>
-    </row>
-    <row r="27" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="29"/>
-      <c r="AB27" s="29"/>
-      <c r="AC27" s="29"/>
-    </row>
-    <row r="28" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="29"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="29"/>
-    </row>
-    <row r="29" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="29"/>
-    </row>
-    <row r="30" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="28"/>
-      <c r="AC30" s="28"/>
-    </row>
-    <row r="31" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="28"/>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="28"/>
-      <c r="AC31" s="28"/>
-    </row>
-    <row r="32" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="27"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="28"/>
-    </row>
-    <row r="33" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="27"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="28"/>
-      <c r="AA33" s="28"/>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="28"/>
-    </row>
-    <row r="36" spans="1:29">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="20"/>
-      <c r="W36" s="20"/>
-      <c r="X36" s="20"/>
-      <c r="Y36" s="20"/>
-      <c r="Z36" s="20"/>
-      <c r="AA36" s="20"/>
-      <c r="AB36" s="20"/>
-      <c r="AC36" s="20"/>
-    </row>
-    <row r="37" spans="1:29">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="20"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="20"/>
-      <c r="Y37" s="20"/>
-      <c r="Z37" s="20"/>
-      <c r="AA37" s="20"/>
-      <c r="AB37" s="20"/>
-      <c r="AC37" s="20"/>
-    </row>
-    <row r="38" spans="1:29">
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="35"/>
+    </row>
+    <row r="27" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="33"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="35"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="35"/>
+    </row>
+    <row r="28" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="33"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="35"/>
+    </row>
+    <row r="29" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="33"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="35"/>
+      <c r="AA29" s="35"/>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="35"/>
+    </row>
+    <row r="30" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="33"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="34"/>
+      <c r="AC30" s="34"/>
+    </row>
+    <row r="31" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="33"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="34"/>
+    </row>
+    <row r="32" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="33"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
+      <c r="AB32" s="34"/>
+      <c r="AC32" s="34"/>
+    </row>
+    <row r="33" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="33"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="34"/>
+      <c r="AC33" s="34"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="26"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="26"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="26"/>
+      <c r="AA37" s="26"/>
+      <c r="AB37" s="26"/>
+      <c r="AC37" s="26"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
       <c r="B38" s="2"/>
       <c r="C38" s="8"/>
@@ -4031,7 +4539,7 @@
       <c r="AB38" s="8"/>
       <c r="AC38" s="8"/>
     </row>
-    <row r="39" spans="1:29">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
       <c r="B39" s="2"/>
       <c r="C39" s="8"/>
@@ -4062,7 +4570,7 @@
       <c r="AB39" s="8"/>
       <c r="AC39" s="8"/>
     </row>
-    <row r="40" spans="1:29">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
       <c r="B40" s="2"/>
       <c r="C40" s="8"/>
@@ -4093,7 +4601,7 @@
       <c r="AB40" s="8"/>
       <c r="AC40" s="8"/>
     </row>
-    <row r="41" spans="1:29">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
       <c r="B41" s="2"/>
       <c r="C41" s="8"/>
@@ -4124,7 +4632,7 @@
       <c r="AB41" s="8"/>
       <c r="AC41" s="8"/>
     </row>
-    <row r="42" spans="1:29">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
       <c r="B42" s="2"/>
       <c r="C42" s="8"/>
@@ -4155,7 +4663,7 @@
       <c r="AB42" s="8"/>
       <c r="AC42" s="8"/>
     </row>
-    <row r="43" spans="1:29">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
       <c r="B43" s="2"/>
       <c r="C43" s="8"/>
@@ -4186,7 +4694,7 @@
       <c r="AB43" s="8"/>
       <c r="AC43" s="8"/>
     </row>
-    <row r="44" spans="1:29">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
       <c r="B44" s="2"/>
       <c r="C44" s="8"/>
@@ -4217,7 +4725,7 @@
       <c r="AB44" s="8"/>
       <c r="AC44" s="8"/>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
       <c r="B45" s="2"/>
       <c r="C45" s="8"/>
@@ -4248,7 +4756,7 @@
       <c r="AB45" s="8"/>
       <c r="AC45" s="8"/>
     </row>
-    <row r="46" spans="1:29">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A46" s="5"/>
       <c r="B46" s="2"/>
       <c r="C46" s="8"/>
@@ -4279,7 +4787,7 @@
       <c r="AB46" s="8"/>
       <c r="AC46" s="8"/>
     </row>
-    <row r="47" spans="1:29">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
       <c r="B47" s="2"/>
       <c r="C47" s="8"/>
@@ -4310,7 +4818,7 @@
       <c r="AB47" s="8"/>
       <c r="AC47" s="8"/>
     </row>
-    <row r="48" spans="1:29">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A48" s="5"/>
       <c r="B48" s="2"/>
       <c r="C48" s="8"/>
@@ -4341,7 +4849,7 @@
       <c r="AB48" s="8"/>
       <c r="AC48" s="8"/>
     </row>
-    <row r="49" spans="1:29">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A49" s="5"/>
       <c r="B49" s="2"/>
       <c r="C49" s="8"/>
@@ -4372,7 +4880,7 @@
       <c r="AB49" s="8"/>
       <c r="AC49" s="8"/>
     </row>
-    <row r="50" spans="1:29">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A50" s="5"/>
       <c r="B50" s="2"/>
       <c r="C50" s="8"/>
@@ -4403,7 +4911,7 @@
       <c r="AB50" s="8"/>
       <c r="AC50" s="8"/>
     </row>
-    <row r="51" spans="1:29">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A51" s="5"/>
       <c r="B51" s="2"/>
       <c r="C51" s="8"/>
@@ -4434,7 +4942,7 @@
       <c r="AB51" s="8"/>
       <c r="AC51" s="8"/>
     </row>
-    <row r="52" spans="1:29">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A52" s="5"/>
       <c r="B52" s="2"/>
       <c r="C52" s="8"/>
@@ -4465,7 +4973,7 @@
       <c r="AB52" s="8"/>
       <c r="AC52" s="8"/>
     </row>
-    <row r="53" spans="1:29">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A53" s="5"/>
       <c r="B53" s="2"/>
       <c r="C53" s="8"/>
@@ -4496,7 +5004,7 @@
       <c r="AB53" s="8"/>
       <c r="AC53" s="8"/>
     </row>
-    <row r="54" spans="1:29">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A54" s="5"/>
       <c r="B54" s="2"/>
       <c r="C54" s="8"/>
@@ -4527,7 +5035,7 @@
       <c r="AB54" s="8"/>
       <c r="AC54" s="8"/>
     </row>
-    <row r="55" spans="1:29">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A55" s="5"/>
       <c r="B55" s="2"/>
       <c r="C55" s="8"/>
@@ -4558,7 +5066,7 @@
       <c r="AB55" s="8"/>
       <c r="AC55" s="8"/>
     </row>
-    <row r="56" spans="1:29">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A56" s="5"/>
       <c r="B56" s="2"/>
       <c r="C56" s="8"/>
@@ -4589,7 +5097,7 @@
       <c r="AB56" s="8"/>
       <c r="AC56" s="8"/>
     </row>
-    <row r="57" spans="1:29">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A57" s="5"/>
       <c r="B57" s="2"/>
       <c r="C57" s="8"/>
@@ -4620,7 +5128,7 @@
       <c r="AB57" s="8"/>
       <c r="AC57" s="8"/>
     </row>
-    <row r="58" spans="1:29">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A58" s="5"/>
       <c r="B58" s="2"/>
       <c r="C58" s="8"/>
@@ -4651,7 +5159,7 @@
       <c r="AB58" s="8"/>
       <c r="AC58" s="8"/>
     </row>
-    <row r="59" spans="1:29">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A59" s="5"/>
       <c r="B59" s="2"/>
       <c r="C59" s="8"/>
@@ -4682,7 +5190,7 @@
       <c r="AB59" s="8"/>
       <c r="AC59" s="8"/>
     </row>
-    <row r="60" spans="1:29">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A60" s="5"/>
       <c r="B60" s="2"/>
       <c r="C60" s="8"/>
@@ -4713,7 +5221,7 @@
       <c r="AB60" s="8"/>
       <c r="AC60" s="8"/>
     </row>
-    <row r="61" spans="1:29">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A61" s="5"/>
       <c r="B61" s="2"/>
       <c r="C61" s="8"/>
@@ -4744,7 +5252,7 @@
       <c r="AB61" s="8"/>
       <c r="AC61" s="8"/>
     </row>
-    <row r="62" spans="1:29">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A62" s="5"/>
       <c r="B62" s="2"/>
       <c r="C62" s="8"/>
@@ -4775,7 +5283,7 @@
       <c r="AB62" s="8"/>
       <c r="AC62" s="8"/>
     </row>
-    <row r="63" spans="1:29">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A63" s="5"/>
       <c r="B63" s="2"/>
       <c r="C63" s="8"/>
@@ -4806,7 +5314,7 @@
       <c r="AB63" s="8"/>
       <c r="AC63" s="8"/>
     </row>
-    <row r="64" spans="1:29">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A64" s="5"/>
       <c r="B64" s="2"/>
       <c r="C64" s="8"/>
@@ -4837,7 +5345,7 @@
       <c r="AB64" s="8"/>
       <c r="AC64" s="8"/>
     </row>
-    <row r="65" spans="1:29">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A65" s="5"/>
       <c r="B65" s="2"/>
       <c r="C65" s="8"/>
@@ -4868,7 +5376,7 @@
       <c r="AB65" s="8"/>
       <c r="AC65" s="8"/>
     </row>
-    <row r="66" spans="1:29">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A66" s="5"/>
       <c r="B66" s="2"/>
       <c r="C66" s="8"/>
@@ -4899,7 +5407,7 @@
       <c r="AB66" s="8"/>
       <c r="AC66" s="8"/>
     </row>
-    <row r="67" spans="1:29">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A67" s="5"/>
       <c r="B67" s="2"/>
       <c r="C67" s="8"/>
@@ -4930,7 +5438,7 @@
       <c r="AB67" s="8"/>
       <c r="AC67" s="8"/>
     </row>
-    <row r="68" spans="1:29">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A68" s="5"/>
       <c r="B68" s="2"/>
       <c r="C68" s="8"/>
@@ -4961,7 +5469,7 @@
       <c r="AB68" s="8"/>
       <c r="AC68" s="8"/>
     </row>
-    <row r="69" spans="1:29">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A69" s="5"/>
       <c r="B69" s="2"/>
       <c r="C69" s="8"/>
@@ -4992,7 +5500,7 @@
       <c r="AB69" s="8"/>
       <c r="AC69" s="8"/>
     </row>
-    <row r="70" spans="1:29">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A70" s="5"/>
       <c r="B70" s="2"/>
       <c r="C70" s="8"/>
@@ -5023,7 +5531,7 @@
       <c r="AB70" s="8"/>
       <c r="AC70" s="8"/>
     </row>
-    <row r="71" spans="1:29">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A71" s="5"/>
       <c r="B71" s="2"/>
       <c r="C71" s="8"/>
@@ -5054,7 +5562,7 @@
       <c r="AB71" s="8"/>
       <c r="AC71" s="8"/>
     </row>
-    <row r="72" spans="1:29">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A72" s="5"/>
       <c r="B72" s="2"/>
       <c r="C72" s="8"/>
@@ -5085,7 +5593,7 @@
       <c r="AB72" s="8"/>
       <c r="AC72" s="8"/>
     </row>
-    <row r="73" spans="1:29">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A73" s="5"/>
       <c r="B73" s="2"/>
       <c r="C73" s="8"/>
@@ -5116,7 +5624,7 @@
       <c r="AB73" s="8"/>
       <c r="AC73" s="8"/>
     </row>
-    <row r="74" spans="1:29">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A74" s="5"/>
       <c r="B74" s="2"/>
       <c r="C74" s="8"/>
@@ -5147,7 +5655,7 @@
       <c r="AB74" s="8"/>
       <c r="AC74" s="8"/>
     </row>
-    <row r="75" spans="1:29">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A75" s="5"/>
       <c r="B75" s="2"/>
       <c r="C75" s="8"/>
@@ -5178,7 +5686,7 @@
       <c r="AB75" s="8"/>
       <c r="AC75" s="8"/>
     </row>
-    <row r="76" spans="1:29">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A76" s="5"/>
       <c r="B76" s="2"/>
       <c r="C76" s="8"/>
@@ -5209,7 +5717,7 @@
       <c r="AB76" s="8"/>
       <c r="AC76" s="8"/>
     </row>
-    <row r="77" spans="1:29">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A77" s="5"/>
       <c r="B77" s="2"/>
       <c r="C77" s="8"/>
@@ -5240,7 +5748,7 @@
       <c r="AB77" s="8"/>
       <c r="AC77" s="8"/>
     </row>
-    <row r="78" spans="1:29">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A78" s="5"/>
       <c r="B78" s="2"/>
       <c r="C78" s="8"/>
@@ -5271,7 +5779,7 @@
       <c r="AB78" s="8"/>
       <c r="AC78" s="8"/>
     </row>
-    <row r="79" spans="1:29">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A79" s="5"/>
       <c r="B79" s="2"/>
       <c r="C79" s="8"/>
@@ -5302,7 +5810,7 @@
       <c r="AB79" s="8"/>
       <c r="AC79" s="8"/>
     </row>
-    <row r="80" spans="1:29">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A80" s="5"/>
       <c r="B80" s="2"/>
       <c r="C80" s="8"/>
@@ -5333,7 +5841,7 @@
       <c r="AB80" s="8"/>
       <c r="AC80" s="8"/>
     </row>
-    <row r="81" spans="1:29">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A81" s="5"/>
       <c r="B81" s="2"/>
       <c r="C81" s="8"/>
@@ -5364,7 +5872,7 @@
       <c r="AB81" s="8"/>
       <c r="AC81" s="8"/>
     </row>
-    <row r="82" spans="1:29">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A82" s="5"/>
       <c r="B82" s="2"/>
       <c r="C82" s="8"/>
@@ -5395,69 +5903,69 @@
       <c r="AB82" s="8"/>
       <c r="AC82" s="8"/>
     </row>
-    <row r="83" spans="1:29">
-      <c r="A83" s="20"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="20"/>
-      <c r="L83" s="20"/>
-      <c r="M83" s="20"/>
-      <c r="N83" s="20"/>
-      <c r="O83" s="20"/>
-      <c r="P83" s="20"/>
-      <c r="Q83" s="20"/>
-      <c r="R83" s="20"/>
-      <c r="S83" s="20"/>
-      <c r="T83" s="20"/>
-      <c r="U83" s="20"/>
-      <c r="V83" s="20"/>
-      <c r="W83" s="20"/>
-      <c r="X83" s="20"/>
-      <c r="Y83" s="20"/>
-      <c r="Z83" s="20"/>
-      <c r="AA83" s="20"/>
-      <c r="AB83" s="20"/>
-      <c r="AC83" s="20"/>
-    </row>
-    <row r="84" spans="1:29">
-      <c r="A84" s="20"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="20"/>
-      <c r="K84" s="20"/>
-      <c r="L84" s="20"/>
-      <c r="M84" s="20"/>
-      <c r="N84" s="20"/>
-      <c r="O84" s="20"/>
-      <c r="P84" s="20"/>
-      <c r="Q84" s="20"/>
-      <c r="R84" s="20"/>
-      <c r="S84" s="20"/>
-      <c r="T84" s="20"/>
-      <c r="U84" s="20"/>
-      <c r="V84" s="20"/>
-      <c r="W84" s="20"/>
-      <c r="X84" s="20"/>
-      <c r="Y84" s="20"/>
-      <c r="Z84" s="20"/>
-      <c r="AA84" s="20"/>
-      <c r="AB84" s="20"/>
-      <c r="AC84" s="20"/>
-    </row>
-    <row r="85" spans="1:29">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A83" s="26"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="26"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="26"/>
+      <c r="L83" s="26"/>
+      <c r="M83" s="26"/>
+      <c r="N83" s="26"/>
+      <c r="O83" s="26"/>
+      <c r="P83" s="26"/>
+      <c r="Q83" s="26"/>
+      <c r="R83" s="26"/>
+      <c r="S83" s="26"/>
+      <c r="T83" s="26"/>
+      <c r="U83" s="26"/>
+      <c r="V83" s="26"/>
+      <c r="W83" s="26"/>
+      <c r="X83" s="26"/>
+      <c r="Y83" s="26"/>
+      <c r="Z83" s="26"/>
+      <c r="AA83" s="26"/>
+      <c r="AB83" s="26"/>
+      <c r="AC83" s="26"/>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A84" s="26"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="26"/>
+      <c r="L84" s="26"/>
+      <c r="M84" s="26"/>
+      <c r="N84" s="26"/>
+      <c r="O84" s="26"/>
+      <c r="P84" s="26"/>
+      <c r="Q84" s="26"/>
+      <c r="R84" s="26"/>
+      <c r="S84" s="26"/>
+      <c r="T84" s="26"/>
+      <c r="U84" s="26"/>
+      <c r="V84" s="26"/>
+      <c r="W84" s="26"/>
+      <c r="X84" s="26"/>
+      <c r="Y84" s="26"/>
+      <c r="Z84" s="26"/>
+      <c r="AA84" s="26"/>
+      <c r="AB84" s="26"/>
+      <c r="AC84" s="26"/>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A85" s="5"/>
       <c r="B85" s="2"/>
       <c r="C85" s="8"/>
@@ -5488,7 +5996,7 @@
       <c r="AB85" s="8"/>
       <c r="AC85" s="8"/>
     </row>
-    <row r="86" spans="1:29">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A86" s="5"/>
       <c r="B86" s="2"/>
       <c r="C86" s="8"/>
@@ -5519,7 +6027,7 @@
       <c r="AB86" s="8"/>
       <c r="AC86" s="8"/>
     </row>
-    <row r="87" spans="1:29">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A87" s="5"/>
       <c r="B87" s="2"/>
       <c r="C87" s="8"/>
@@ -5550,7 +6058,7 @@
       <c r="AB87" s="8"/>
       <c r="AC87" s="8"/>
     </row>
-    <row r="88" spans="1:29">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A88" s="5"/>
       <c r="B88" s="2"/>
       <c r="C88" s="8"/>
@@ -5581,7 +6089,7 @@
       <c r="AB88" s="8"/>
       <c r="AC88" s="8"/>
     </row>
-    <row r="89" spans="1:29">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A89" s="5"/>
       <c r="B89" s="2"/>
       <c r="C89" s="8"/>
@@ -5612,7 +6120,7 @@
       <c r="AB89" s="8"/>
       <c r="AC89" s="8"/>
     </row>
-    <row r="90" spans="1:29">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A90" s="5"/>
       <c r="B90" s="2"/>
       <c r="C90" s="8"/>
@@ -5643,7 +6151,7 @@
       <c r="AB90" s="8"/>
       <c r="AC90" s="8"/>
     </row>
-    <row r="91" spans="1:29">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A91" s="5"/>
       <c r="B91" s="2"/>
       <c r="C91" s="8"/>
@@ -5674,7 +6182,7 @@
       <c r="AB91" s="8"/>
       <c r="AC91" s="8"/>
     </row>
-    <row r="92" spans="1:29">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A92" s="5"/>
       <c r="B92" s="2"/>
       <c r="C92" s="8"/>
@@ -5705,7 +6213,7 @@
       <c r="AB92" s="8"/>
       <c r="AC92" s="8"/>
     </row>
-    <row r="93" spans="1:29">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A93" s="5"/>
       <c r="B93" s="2"/>
       <c r="C93" s="8"/>
@@ -5736,7 +6244,7 @@
       <c r="AB93" s="8"/>
       <c r="AC93" s="8"/>
     </row>
-    <row r="94" spans="1:29">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A94" s="5"/>
       <c r="B94" s="2"/>
       <c r="C94" s="8"/>
@@ -5767,7 +6275,7 @@
       <c r="AB94" s="8"/>
       <c r="AC94" s="8"/>
     </row>
-    <row r="95" spans="1:29">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A95" s="5"/>
       <c r="B95" s="2"/>
       <c r="C95" s="8"/>
@@ -5798,7 +6306,7 @@
       <c r="AB95" s="8"/>
       <c r="AC95" s="8"/>
     </row>
-    <row r="96" spans="1:29">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A96" s="5"/>
       <c r="B96" s="2"/>
       <c r="C96" s="8"/>
@@ -5829,7 +6337,7 @@
       <c r="AB96" s="8"/>
       <c r="AC96" s="8"/>
     </row>
-    <row r="97" spans="1:29">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A97" s="5"/>
       <c r="B97" s="2"/>
       <c r="C97" s="8"/>
@@ -5860,7 +6368,7 @@
       <c r="AB97" s="8"/>
       <c r="AC97" s="8"/>
     </row>
-    <row r="98" spans="1:29">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A98" s="5"/>
       <c r="B98" s="2"/>
       <c r="C98" s="8"/>
@@ -5891,7 +6399,7 @@
       <c r="AB98" s="8"/>
       <c r="AC98" s="8"/>
     </row>
-    <row r="99" spans="1:29">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A99" s="5"/>
       <c r="B99" s="2"/>
       <c r="C99" s="8"/>
@@ -5922,7 +6430,7 @@
       <c r="AB99" s="8"/>
       <c r="AC99" s="8"/>
     </row>
-    <row r="100" spans="1:29">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A100" s="5"/>
       <c r="B100" s="2"/>
       <c r="C100" s="8"/>
@@ -5953,7 +6461,7 @@
       <c r="AB100" s="8"/>
       <c r="AC100" s="8"/>
     </row>
-    <row r="101" spans="1:29">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A101" s="5"/>
       <c r="B101" s="2"/>
       <c r="C101" s="8"/>
@@ -5984,7 +6492,7 @@
       <c r="AB101" s="8"/>
       <c r="AC101" s="8"/>
     </row>
-    <row r="102" spans="1:29">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A102" s="5"/>
       <c r="B102" s="2"/>
       <c r="C102" s="8"/>
@@ -6015,7 +6523,7 @@
       <c r="AB102" s="8"/>
       <c r="AC102" s="8"/>
     </row>
-    <row r="103" spans="1:29">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A103" s="5"/>
       <c r="B103" s="2"/>
       <c r="C103" s="8"/>
@@ -6046,7 +6554,7 @@
       <c r="AB103" s="8"/>
       <c r="AC103" s="8"/>
     </row>
-    <row r="104" spans="1:29">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A104" s="5"/>
       <c r="B104" s="2"/>
       <c r="C104" s="8"/>
@@ -6077,7 +6585,7 @@
       <c r="AB104" s="8"/>
       <c r="AC104" s="8"/>
     </row>
-    <row r="105" spans="1:29">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A105" s="5"/>
       <c r="B105" s="2"/>
       <c r="C105" s="8"/>
@@ -6108,7 +6616,7 @@
       <c r="AB105" s="8"/>
       <c r="AC105" s="8"/>
     </row>
-    <row r="106" spans="1:29">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A106" s="5"/>
       <c r="B106" s="2"/>
       <c r="C106" s="8"/>
@@ -6139,7 +6647,7 @@
       <c r="AB106" s="8"/>
       <c r="AC106" s="8"/>
     </row>
-    <row r="107" spans="1:29">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A107" s="5"/>
       <c r="B107" s="2"/>
       <c r="C107" s="8"/>
@@ -6170,7 +6678,7 @@
       <c r="AB107" s="8"/>
       <c r="AC107" s="8"/>
     </row>
-    <row r="108" spans="1:29">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A108" s="5"/>
       <c r="B108" s="2"/>
       <c r="C108" s="8"/>
@@ -6201,7 +6709,7 @@
       <c r="AB108" s="8"/>
       <c r="AC108" s="8"/>
     </row>
-    <row r="109" spans="1:29">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A109" s="5"/>
       <c r="B109" s="2"/>
       <c r="C109" s="8"/>
@@ -6232,7 +6740,7 @@
       <c r="AB109" s="8"/>
       <c r="AC109" s="8"/>
     </row>
-    <row r="110" spans="1:29">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A110" s="5"/>
       <c r="B110" s="2"/>
       <c r="C110" s="8"/>
@@ -6263,7 +6771,7 @@
       <c r="AB110" s="8"/>
       <c r="AC110" s="8"/>
     </row>
-    <row r="111" spans="1:29">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A111" s="5"/>
       <c r="B111" s="2"/>
       <c r="C111" s="8"/>
@@ -6294,7 +6802,7 @@
       <c r="AB111" s="8"/>
       <c r="AC111" s="8"/>
     </row>
-    <row r="112" spans="1:29">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A112" s="5"/>
       <c r="B112" s="2"/>
       <c r="C112" s="8"/>
@@ -6325,7 +6833,7 @@
       <c r="AB112" s="8"/>
       <c r="AC112" s="8"/>
     </row>
-    <row r="113" spans="1:29">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A113" s="5"/>
       <c r="B113" s="2"/>
       <c r="C113" s="8"/>
@@ -6356,7 +6864,7 @@
       <c r="AB113" s="8"/>
       <c r="AC113" s="8"/>
     </row>
-    <row r="114" spans="1:29">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A114" s="5"/>
       <c r="B114" s="2"/>
       <c r="C114" s="8"/>
@@ -6387,7 +6895,7 @@
       <c r="AB114" s="8"/>
       <c r="AC114" s="8"/>
     </row>
-    <row r="115" spans="1:29">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A115" s="5"/>
       <c r="B115" s="2"/>
       <c r="C115" s="8"/>
@@ -6418,7 +6926,7 @@
       <c r="AB115" s="8"/>
       <c r="AC115" s="8"/>
     </row>
-    <row r="116" spans="1:29">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A116" s="5"/>
       <c r="B116" s="2"/>
       <c r="C116" s="8"/>
@@ -6449,7 +6957,7 @@
       <c r="AB116" s="8"/>
       <c r="AC116" s="8"/>
     </row>
-    <row r="117" spans="1:29">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A117" s="5"/>
       <c r="B117" s="2"/>
       <c r="C117" s="8"/>
@@ -6480,7 +6988,7 @@
       <c r="AB117" s="8"/>
       <c r="AC117" s="8"/>
     </row>
-    <row r="118" spans="1:29">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A118" s="5"/>
       <c r="B118" s="2"/>
       <c r="C118" s="8"/>
@@ -6511,7 +7019,7 @@
       <c r="AB118" s="8"/>
       <c r="AC118" s="8"/>
     </row>
-    <row r="119" spans="1:29">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A119" s="5"/>
       <c r="B119" s="2"/>
       <c r="C119" s="8"/>
@@ -6542,7 +7050,7 @@
       <c r="AB119" s="8"/>
       <c r="AC119" s="8"/>
     </row>
-    <row r="120" spans="1:29">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A120" s="5"/>
       <c r="B120" s="2"/>
       <c r="C120" s="8"/>
@@ -6573,7 +7081,7 @@
       <c r="AB120" s="8"/>
       <c r="AC120" s="8"/>
     </row>
-    <row r="121" spans="1:29">
+    <row r="121" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A121" s="5"/>
       <c r="B121" s="2"/>
       <c r="C121" s="8"/>
@@ -6604,7 +7112,7 @@
       <c r="AB121" s="8"/>
       <c r="AC121" s="8"/>
     </row>
-    <row r="122" spans="1:29">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A122" s="5"/>
       <c r="B122" s="2"/>
       <c r="C122" s="8"/>
@@ -6635,7 +7143,7 @@
       <c r="AB122" s="8"/>
       <c r="AC122" s="8"/>
     </row>
-    <row r="123" spans="1:29">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A123" s="5"/>
       <c r="B123" s="2"/>
       <c r="C123" s="8"/>
@@ -6666,7 +7174,7 @@
       <c r="AB123" s="8"/>
       <c r="AC123" s="8"/>
     </row>
-    <row r="124" spans="1:29">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A124" s="5"/>
       <c r="B124" s="2"/>
       <c r="C124" s="8"/>
@@ -6697,7 +7205,7 @@
       <c r="AB124" s="8"/>
       <c r="AC124" s="8"/>
     </row>
-    <row r="125" spans="1:29">
+    <row r="125" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A125" s="5"/>
       <c r="B125" s="2"/>
       <c r="C125" s="8"/>
@@ -6728,7 +7236,7 @@
       <c r="AB125" s="8"/>
       <c r="AC125" s="8"/>
     </row>
-    <row r="126" spans="1:29">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A126" s="5"/>
       <c r="B126" s="2"/>
       <c r="C126" s="8"/>
@@ -6759,7 +7267,7 @@
       <c r="AB126" s="8"/>
       <c r="AC126" s="8"/>
     </row>
-    <row r="127" spans="1:29">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A127" s="5"/>
       <c r="B127" s="2"/>
       <c r="C127" s="8"/>
@@ -6790,7 +7298,7 @@
       <c r="AB127" s="8"/>
       <c r="AC127" s="8"/>
     </row>
-    <row r="128" spans="1:29">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A128" s="5"/>
       <c r="B128" s="2"/>
       <c r="C128" s="8"/>
@@ -6821,7 +7329,7 @@
       <c r="AB128" s="8"/>
       <c r="AC128" s="8"/>
     </row>
-    <row r="129" spans="1:29">
+    <row r="129" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A129" s="5"/>
       <c r="B129" s="2"/>
       <c r="C129" s="8"/>
@@ -6852,7 +7360,7 @@
       <c r="AB129" s="8"/>
       <c r="AC129" s="8"/>
     </row>
-    <row r="130" spans="1:29">
+    <row r="130" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A130" s="5"/>
       <c r="B130" s="2"/>
       <c r="C130" s="8"/>
@@ -6883,21 +7391,21 @@
       <c r="AB130" s="8"/>
       <c r="AC130" s="8"/>
     </row>
-    <row r="131" spans="1:29">
-      <c r="A131" s="20"/>
-      <c r="B131" s="20"/>
-      <c r="C131" s="20"/>
-      <c r="D131" s="20"/>
-      <c r="E131" s="20"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="20"/>
-      <c r="H131" s="20"/>
-      <c r="I131" s="20"/>
-      <c r="J131" s="20"/>
-      <c r="K131" s="20"/>
-      <c r="L131" s="20"/>
-      <c r="M131" s="20"/>
-      <c r="N131" s="20"/>
+    <row r="131" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A131" s="26"/>
+      <c r="B131" s="26"/>
+      <c r="C131" s="26"/>
+      <c r="D131" s="26"/>
+      <c r="E131" s="26"/>
+      <c r="F131" s="26"/>
+      <c r="G131" s="26"/>
+      <c r="H131" s="26"/>
+      <c r="I131" s="26"/>
+      <c r="J131" s="26"/>
+      <c r="K131" s="26"/>
+      <c r="L131" s="26"/>
+      <c r="M131" s="26"/>
+      <c r="N131" s="26"/>
       <c r="O131" s="8"/>
       <c r="P131" s="8"/>
       <c r="Q131" s="8"/>
@@ -6914,21 +7422,21 @@
       <c r="AB131" s="8"/>
       <c r="AC131" s="8"/>
     </row>
-    <row r="132" spans="1:29">
-      <c r="A132" s="20"/>
-      <c r="B132" s="20"/>
-      <c r="C132" s="20"/>
-      <c r="D132" s="20"/>
-      <c r="E132" s="20"/>
-      <c r="F132" s="20"/>
-      <c r="G132" s="20"/>
-      <c r="H132" s="20"/>
-      <c r="I132" s="20"/>
-      <c r="J132" s="20"/>
-      <c r="K132" s="20"/>
-      <c r="L132" s="20"/>
-      <c r="M132" s="20"/>
-      <c r="N132" s="20"/>
+    <row r="132" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A132" s="26"/>
+      <c r="B132" s="26"/>
+      <c r="C132" s="26"/>
+      <c r="D132" s="26"/>
+      <c r="E132" s="26"/>
+      <c r="F132" s="26"/>
+      <c r="G132" s="26"/>
+      <c r="H132" s="26"/>
+      <c r="I132" s="26"/>
+      <c r="J132" s="26"/>
+      <c r="K132" s="26"/>
+      <c r="L132" s="26"/>
+      <c r="M132" s="26"/>
+      <c r="N132" s="26"/>
       <c r="O132" s="8"/>
       <c r="P132" s="8"/>
       <c r="Q132" s="8"/>
@@ -6947,46 +7455,7 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="A2:X2"/>
-    <mergeCell ref="Y2:AC2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="Y3:AC3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="A132:K132"/>
-    <mergeCell ref="L132:N132"/>
-    <mergeCell ref="A37:X37"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A131:K131"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A36:X36"/>
-    <mergeCell ref="A84:X84"/>
-    <mergeCell ref="L131:N131"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="Y36:AC36"/>
     <mergeCell ref="Y84:AC84"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="A14:A15"/>
@@ -7003,7 +7472,46 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Y36:AC36"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A132:K132"/>
+    <mergeCell ref="L132:N132"/>
+    <mergeCell ref="A37:X37"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A131:K131"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A36:X36"/>
+    <mergeCell ref="A84:X84"/>
+    <mergeCell ref="L131:N131"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="Y3:AC3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -7014,12 +7522,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7027,12 +7535,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/report_template/epa_compare.xlsx
+++ b/report_template/epa_compare.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\webApp\AQM\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\20160802\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="##0.00"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
@@ -335,37 +335,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -381,6 +357,30 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -400,7 +400,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -433,6 +433,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -474,6 +475,86 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>EPA測站比較表!$C$4:$Z$5</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>EPA測站比較表!$C$6:$Z$6</c:f>
@@ -484,7 +565,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CECA-48B6-B574-6FCF2FA9D65F}"/>
             </c:ext>
@@ -507,6 +588,86 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>EPA測站比較表!$C$4:$Z$5</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>EPA測站比較表!$C$7:$Z$7</c:f>
@@ -517,7 +678,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CECA-48B6-B574-6FCF2FA9D65F}"/>
             </c:ext>
@@ -533,11 +694,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70992640"/>
-        <c:axId val="70995328"/>
+        <c:axId val="522277720"/>
+        <c:axId val="522278504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70992640"/>
+        <c:axId val="522277720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -559,6 +720,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -571,7 +733,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70995328"/>
+        <c:crossAx val="522278504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -579,7 +741,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70995328"/>
+        <c:axId val="522278504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="360"/>
@@ -604,6 +766,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -616,7 +779,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70992640"/>
+        <c:crossAx val="522277720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="90"/>
@@ -649,7 +812,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -686,6 +849,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -727,6 +891,86 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>EPA測站比較表!$C$4:$Z$5</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>EPA測站比較表!$C$10:$Z$10</c:f>
@@ -737,7 +981,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-ACFE-4C55-8109-89DAF1C0F620}"/>
             </c:ext>
@@ -760,6 +1004,86 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>EPA測站比較表!$C$4:$Z$5</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>EPA測站比較表!$C$11:$Z$11</c:f>
@@ -770,7 +1094,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-ACFE-4C55-8109-89DAF1C0F620}"/>
             </c:ext>
@@ -786,11 +1110,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71024640"/>
-        <c:axId val="71026944"/>
+        <c:axId val="522292224"/>
+        <c:axId val="522295752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71024640"/>
+        <c:axId val="522292224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -812,6 +1136,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -824,7 +1149,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71026944"/>
+        <c:crossAx val="522295752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -832,7 +1157,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71026944"/>
+        <c:axId val="522295752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -855,6 +1180,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -867,7 +1193,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71024640"/>
+        <c:crossAx val="522292224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -899,7 +1225,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -932,6 +1258,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -973,6 +1300,86 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>EPA測站比較表!$C$4:$Z$5</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>EPA測站比較表!$C$12:$Z$12</c:f>
@@ -983,7 +1390,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4E4A-4F90-AC87-FCB2E4E915D2}"/>
             </c:ext>
@@ -1006,6 +1413,86 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>EPA測站比較表!$C$4:$Z$5</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>EPA測站比較表!$C$13:$Z$13</c:f>
@@ -1016,7 +1503,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4E4A-4F90-AC87-FCB2E4E915D2}"/>
             </c:ext>
@@ -1032,11 +1519,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71084672"/>
-        <c:axId val="71095424"/>
+        <c:axId val="522294576"/>
+        <c:axId val="522296144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71084672"/>
+        <c:axId val="522294576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1058,6 +1545,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1070,7 +1558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71095424"/>
+        <c:crossAx val="522296144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1078,7 +1566,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71095424"/>
+        <c:axId val="522296144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1101,6 +1589,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1113,7 +1602,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71084672"/>
+        <c:crossAx val="522294576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1145,7 +1634,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -1178,6 +1667,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1219,6 +1709,86 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>EPA測站比較表!$C$4:$Z$5</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>EPA測站比較表!$C$14:$Z$14</c:f>
@@ -1229,7 +1799,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CB2D-44D5-9585-5DCD4FD7A50C}"/>
             </c:ext>
@@ -1252,6 +1822,86 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>EPA測站比較表!$C$4:$Z$5</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>EPA測站比較表!$C$15:$Z$15</c:f>
@@ -1262,7 +1912,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CB2D-44D5-9585-5DCD4FD7A50C}"/>
             </c:ext>
@@ -1278,11 +1928,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71788032"/>
-        <c:axId val="71794688"/>
+        <c:axId val="522298888"/>
+        <c:axId val="522291832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71788032"/>
+        <c:axId val="522298888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1304,6 +1954,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1316,7 +1967,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71794688"/>
+        <c:crossAx val="522291832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1324,7 +1975,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71794688"/>
+        <c:axId val="522291832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1347,6 +1998,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1359,7 +2011,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71788032"/>
+        <c:crossAx val="522298888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1391,7 +2043,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -1424,6 +2076,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1465,6 +2118,86 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>EPA測站比較表!$C$4:$Z$5</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>EPA測站比較表!$C$16:$Z$16</c:f>
@@ -1475,7 +2208,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3B27-4E08-B23E-47EB69E7EB31}"/>
             </c:ext>
@@ -1498,6 +2231,86 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>EPA測站比較表!$C$4:$Z$5</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>EPA測站比較表!$C$17:$Z$17</c:f>
@@ -1508,7 +2321,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3B27-4E08-B23E-47EB69E7EB31}"/>
             </c:ext>
@@ -1524,11 +2337,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71811456"/>
-        <c:axId val="71813760"/>
+        <c:axId val="522292616"/>
+        <c:axId val="522300064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71811456"/>
+        <c:axId val="522292616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1550,6 +2363,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1562,7 +2376,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71813760"/>
+        <c:crossAx val="522300064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1570,7 +2384,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71813760"/>
+        <c:axId val="522300064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1593,6 +2407,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1605,7 +2420,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71811456"/>
+        <c:crossAx val="522292616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1637,7 +2452,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -1689,6 +2504,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1730,6 +2546,86 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>EPA測站比較表!$C$4:$Z$5</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>EPA測站比較表!$C$18:$Z$18</c:f>
@@ -1740,7 +2636,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-90DB-421F-B09F-49BCE72A1658}"/>
             </c:ext>
@@ -1763,6 +2659,86 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>EPA測站比較表!$C$4:$Z$5</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>EPA測站比較表!$C$19:$Z$19</c:f>
@@ -1773,7 +2749,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-90DB-421F-B09F-49BCE72A1658}"/>
             </c:ext>
@@ -1789,11 +2765,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="72158208"/>
-        <c:axId val="72164864"/>
+        <c:axId val="522289872"/>
+        <c:axId val="522299280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72158208"/>
+        <c:axId val="522289872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1815,6 +2791,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1827,7 +2804,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72164864"/>
+        <c:crossAx val="522299280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1835,7 +2812,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72164864"/>
+        <c:axId val="522299280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1858,6 +2835,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1870,7 +2848,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72158208"/>
+        <c:crossAx val="522289872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1902,7 +2880,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -1954,6 +2932,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1995,6 +2974,86 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>EPA測站比較表!$C$4:$Z$5</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>EPA測站比較表!$C$20:$Z$20</c:f>
@@ -2005,7 +3064,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2D80-4FEC-A121-ECD769700331}"/>
             </c:ext>
@@ -2028,6 +3087,86 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>EPA測站比較表!$C$4:$Z$5</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>EPA測站比較表!$C$21:$Z$21</c:f>
@@ -2038,7 +3177,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2D80-4FEC-A121-ECD769700331}"/>
             </c:ext>
@@ -2054,11 +3193,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="72189824"/>
-        <c:axId val="72212864"/>
+        <c:axId val="522301632"/>
+        <c:axId val="522296536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72189824"/>
+        <c:axId val="522301632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2080,6 +3219,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2092,7 +3232,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72212864"/>
+        <c:crossAx val="522296536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2100,7 +3240,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72212864"/>
+        <c:axId val="522296536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2123,6 +3263,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2135,7 +3276,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72189824"/>
+        <c:crossAx val="522301632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2167,7 +3308,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -2200,6 +3341,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2241,6 +3383,86 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>EPA測站比較表!$C$4:$Z$5</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>EPA測站比較表!$C$22:$Z$22</c:f>
@@ -2251,7 +3473,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-477F-41E5-97DF-0BD820CC9A7D}"/>
             </c:ext>
@@ -2274,6 +3496,86 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>EPA測站比較表!$C$4:$Z$5</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>EPA測站比較表!$C$23:$Z$23</c:f>
@@ -2284,7 +3586,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-477F-41E5-97DF-0BD820CC9A7D}"/>
             </c:ext>
@@ -2300,11 +3602,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="72258304"/>
-        <c:axId val="72260608"/>
+        <c:axId val="522289480"/>
+        <c:axId val="522294968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72258304"/>
+        <c:axId val="522289480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2326,6 +3628,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2338,7 +3641,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72260608"/>
+        <c:crossAx val="522294968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2346,7 +3649,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72260608"/>
+        <c:axId val="522294968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2369,6 +3672,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2381,7 +3685,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72258304"/>
+        <c:crossAx val="522289480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2413,7 +3717,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -2446,6 +3750,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2487,6 +3792,86 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>EPA測站比較表!$C$4:$Z$5</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>EPA測站比較表!$C$24:$Z$24</c:f>
@@ -2497,7 +3882,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0646-4080-9FF0-F37FE9E3F91A}"/>
             </c:ext>
@@ -2520,6 +3905,86 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>EPA測站比較表!$C$4:$Z$5</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>EPA測站比較表!$C$25:$Z$25</c:f>
@@ -2530,7 +3995,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0646-4080-9FF0-F37FE9E3F91A}"/>
             </c:ext>
@@ -2546,11 +4011,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="73337856"/>
-        <c:axId val="73344512"/>
+        <c:axId val="522290264"/>
+        <c:axId val="522290656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73337856"/>
+        <c:axId val="522290264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2572,6 +4037,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2584,7 +4050,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73344512"/>
+        <c:crossAx val="522290656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2592,7 +4058,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73344512"/>
+        <c:axId val="522290656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2615,6 +4081,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2627,7 +4094,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73337856"/>
+        <c:crossAx val="522290264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3027,23 +4494,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3079,23 +4529,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3274,92 +4707,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AB138" sqref="AB138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="6.86328125" style="3" customWidth="1"/>
-    <col min="3" max="29" width="6.59765625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="6.6328125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" style="3" customWidth="1"/>
+    <col min="3" max="29" width="6.6328125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-    </row>
-    <row r="2" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="21" t="s">
+    <row r="1" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+    </row>
+    <row r="2" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-    </row>
-    <row r="3" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="22" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+    </row>
+    <row r="3" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="10" t="s">
         <v>26</v>
       </c>
@@ -3388,136 +4821,136 @@
       <c r="V3" s="16"/>
       <c r="W3" s="16"/>
       <c r="X3" s="19"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-    </row>
-    <row r="4" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="28" t="s">
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+    </row>
+    <row r="4" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="25">
+      <c r="B4" s="30"/>
+      <c r="C4" s="21">
         <v>0</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="21">
         <v>1</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="21">
         <v>2</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="21">
         <v>3</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="21">
         <v>4</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="21">
         <v>5</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="21">
         <v>6</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="21">
         <v>7</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="21">
         <v>8</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="21">
         <v>9</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="21">
         <v>10</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="21">
         <v>11</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="21">
         <v>12</v>
       </c>
-      <c r="P4" s="25">
+      <c r="P4" s="21">
         <v>13</v>
       </c>
-      <c r="Q4" s="25">
+      <c r="Q4" s="21">
         <v>14</v>
       </c>
-      <c r="R4" s="25">
+      <c r="R4" s="21">
         <v>15</v>
       </c>
-      <c r="S4" s="25">
+      <c r="S4" s="21">
         <v>16</v>
       </c>
-      <c r="T4" s="25">
+      <c r="T4" s="21">
         <v>17</v>
       </c>
-      <c r="U4" s="25">
+      <c r="U4" s="21">
         <v>18</v>
       </c>
-      <c r="V4" s="25">
+      <c r="V4" s="21">
         <v>19</v>
       </c>
-      <c r="W4" s="25">
+      <c r="W4" s="21">
         <v>20</v>
       </c>
-      <c r="X4" s="25">
+      <c r="X4" s="21">
         <v>21</v>
       </c>
-      <c r="Y4" s="25">
+      <c r="Y4" s="21">
         <v>22</v>
       </c>
-      <c r="Z4" s="25">
+      <c r="Z4" s="21">
         <v>23</v>
       </c>
-      <c r="AA4" s="29" t="s">
+      <c r="AA4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AB4" s="29" t="s">
+      <c r="AB4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="AC4" s="25" t="s">
+      <c r="AC4" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="25"/>
-    </row>
-    <row r="6" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="27" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="21"/>
+    </row>
+    <row r="6" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -3551,8 +4984,8 @@
       <c r="AB6" s="17"/>
       <c r="AC6" s="18"/>
     </row>
-    <row r="7" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="27"/>
+    <row r="7" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="22"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
@@ -3584,8 +5017,8 @@
       <c r="AB7" s="17"/>
       <c r="AC7" s="18"/>
     </row>
-    <row r="8" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="22" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -3619,8 +5052,8 @@
       <c r="AB8" s="17"/>
       <c r="AC8" s="18"/>
     </row>
-    <row r="9" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="27"/>
+    <row r="9" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="22"/>
       <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
@@ -3652,8 +5085,8 @@
       <c r="AB9" s="17"/>
       <c r="AC9" s="18"/>
     </row>
-    <row r="10" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="22" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -3687,8 +5120,8 @@
       <c r="AB10" s="17"/>
       <c r="AC10" s="18"/>
     </row>
-    <row r="11" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="27"/>
+    <row r="11" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="22"/>
       <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
@@ -3720,8 +5153,8 @@
       <c r="AB11" s="17"/>
       <c r="AC11" s="18"/>
     </row>
-    <row r="12" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="31" t="s">
+    <row r="12" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -3755,8 +5188,8 @@
       <c r="AB12" s="17"/>
       <c r="AC12" s="18"/>
     </row>
-    <row r="13" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="32"/>
+    <row r="13" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="24"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
@@ -3788,8 +5221,8 @@
       <c r="AB13" s="17"/>
       <c r="AC13" s="18"/>
     </row>
-    <row r="14" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="27" t="s">
+    <row r="14" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3823,8 +5256,8 @@
       <c r="AB14" s="17"/>
       <c r="AC14" s="18"/>
     </row>
-    <row r="15" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="27"/>
+    <row r="15" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="22"/>
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
@@ -3856,8 +5289,8 @@
       <c r="AB15" s="17"/>
       <c r="AC15" s="18"/>
     </row>
-    <row r="16" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="27" t="s">
+    <row r="16" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3891,8 +5324,8 @@
       <c r="AB16" s="17"/>
       <c r="AC16" s="18"/>
     </row>
-    <row r="17" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="27"/>
+    <row r="17" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="22"/>
       <c r="B17" s="4" t="s">
         <v>8</v>
       </c>
@@ -3924,8 +5357,8 @@
       <c r="AB17" s="17"/>
       <c r="AC17" s="18"/>
     </row>
-    <row r="18" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="27" t="s">
+    <row r="18" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -3959,8 +5392,8 @@
       <c r="AB18" s="17"/>
       <c r="AC18" s="18"/>
     </row>
-    <row r="19" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="27"/>
+    <row r="19" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="22"/>
       <c r="B19" s="4" t="s">
         <v>8</v>
       </c>
@@ -3992,8 +5425,8 @@
       <c r="AB19" s="17"/>
       <c r="AC19" s="18"/>
     </row>
-    <row r="20" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="27" t="s">
+    <row r="20" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="22" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -4027,8 +5460,8 @@
       <c r="AB20" s="17"/>
       <c r="AC20" s="18"/>
     </row>
-    <row r="21" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="27"/>
+    <row r="21" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="22"/>
       <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
@@ -4060,8 +5493,8 @@
       <c r="AB21" s="17"/>
       <c r="AC21" s="18"/>
     </row>
-    <row r="22" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="27" t="s">
+    <row r="22" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -4095,8 +5528,8 @@
       <c r="AB22" s="17"/>
       <c r="AC22" s="18"/>
     </row>
-    <row r="23" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="27"/>
+    <row r="23" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="22"/>
       <c r="B23" s="4" t="s">
         <v>8</v>
       </c>
@@ -4128,8 +5561,8 @@
       <c r="AB23" s="17"/>
       <c r="AC23" s="18"/>
     </row>
-    <row r="24" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="27" t="s">
+    <row r="24" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="22" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4163,8 +5596,8 @@
       <c r="AB24" s="17"/>
       <c r="AC24" s="18"/>
     </row>
-    <row r="25" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="27"/>
+    <row r="25" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="22"/>
       <c r="B25" s="4" t="s">
         <v>8</v>
       </c>
@@ -4196,319 +5629,319 @@
       <c r="AB25" s="17"/>
       <c r="AC25" s="18"/>
     </row>
-    <row r="26" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="27" t="s">
+    <row r="26" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="35"/>
-      <c r="AB26" s="35"/>
-      <c r="AC26" s="35"/>
-    </row>
-    <row r="27" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="35"/>
-      <c r="AA27" s="35"/>
-      <c r="AB27" s="35"/>
-      <c r="AC27" s="35"/>
-    </row>
-    <row r="28" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="35"/>
-      <c r="Z28" s="35"/>
-      <c r="AA28" s="35"/>
-      <c r="AB28" s="35"/>
-      <c r="AC28" s="35"/>
-    </row>
-    <row r="29" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="33"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="35"/>
-      <c r="Z29" s="35"/>
-      <c r="AA29" s="35"/>
-      <c r="AB29" s="35"/>
-      <c r="AC29" s="35"/>
-    </row>
-    <row r="30" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="34"/>
-      <c r="V30" s="34"/>
-      <c r="W30" s="34"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="34"/>
-      <c r="Z30" s="34"/>
-      <c r="AA30" s="34"/>
-      <c r="AB30" s="34"/>
-      <c r="AC30" s="34"/>
-    </row>
-    <row r="31" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="33"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="34"/>
-      <c r="AA31" s="34"/>
-      <c r="AB31" s="34"/>
-      <c r="AC31" s="34"/>
-    </row>
-    <row r="32" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="33"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="34"/>
-      <c r="AC32" s="34"/>
-    </row>
-    <row r="33" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="33"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="34"/>
-      <c r="AA33" s="34"/>
-      <c r="AB33" s="34"/>
-      <c r="AC33" s="34"/>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="26"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="26"/>
-      <c r="Z36" s="26"/>
-      <c r="AA36" s="26"/>
-      <c r="AB36" s="26"/>
-      <c r="AC36" s="26"/>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26"/>
-      <c r="S37" s="26"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="26"/>
-      <c r="W37" s="26"/>
-      <c r="X37" s="26"/>
-      <c r="Y37" s="26"/>
-      <c r="Z37" s="26"/>
-      <c r="AA37" s="26"/>
-      <c r="AB37" s="26"/>
-      <c r="AC37" s="26"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+    </row>
+    <row r="27" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="25"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+    </row>
+    <row r="28" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+    </row>
+    <row r="29" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
+    </row>
+    <row r="30" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26"/>
+    </row>
+    <row r="31" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="25"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="26"/>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="26"/>
+    </row>
+    <row r="32" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="26"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="26"/>
+    </row>
+    <row r="33" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="26"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="20"/>
+      <c r="AA36" s="20"/>
+      <c r="AB36" s="20"/>
+      <c r="AC36" s="20"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="20"/>
+      <c r="AA37" s="20"/>
+      <c r="AB37" s="20"/>
+      <c r="AC37" s="20"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A38" s="5"/>
       <c r="B38" s="2"/>
       <c r="C38" s="8"/>
@@ -4539,7 +5972,7 @@
       <c r="AB38" s="8"/>
       <c r="AC38" s="8"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A39" s="5"/>
       <c r="B39" s="2"/>
       <c r="C39" s="8"/>
@@ -4570,7 +6003,7 @@
       <c r="AB39" s="8"/>
       <c r="AC39" s="8"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A40" s="5"/>
       <c r="B40" s="2"/>
       <c r="C40" s="8"/>
@@ -4601,7 +6034,7 @@
       <c r="AB40" s="8"/>
       <c r="AC40" s="8"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A41" s="5"/>
       <c r="B41" s="2"/>
       <c r="C41" s="8"/>
@@ -4632,7 +6065,7 @@
       <c r="AB41" s="8"/>
       <c r="AC41" s="8"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="2"/>
       <c r="C42" s="8"/>
@@ -4663,7 +6096,7 @@
       <c r="AB42" s="8"/>
       <c r="AC42" s="8"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A43" s="5"/>
       <c r="B43" s="2"/>
       <c r="C43" s="8"/>
@@ -4694,7 +6127,7 @@
       <c r="AB43" s="8"/>
       <c r="AC43" s="8"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A44" s="5"/>
       <c r="B44" s="2"/>
       <c r="C44" s="8"/>
@@ -4725,7 +6158,7 @@
       <c r="AB44" s="8"/>
       <c r="AC44" s="8"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A45" s="5"/>
       <c r="B45" s="2"/>
       <c r="C45" s="8"/>
@@ -4756,7 +6189,7 @@
       <c r="AB45" s="8"/>
       <c r="AC45" s="8"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A46" s="5"/>
       <c r="B46" s="2"/>
       <c r="C46" s="8"/>
@@ -4787,7 +6220,7 @@
       <c r="AB46" s="8"/>
       <c r="AC46" s="8"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A47" s="5"/>
       <c r="B47" s="2"/>
       <c r="C47" s="8"/>
@@ -4818,7 +6251,7 @@
       <c r="AB47" s="8"/>
       <c r="AC47" s="8"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A48" s="5"/>
       <c r="B48" s="2"/>
       <c r="C48" s="8"/>
@@ -4849,7 +6282,7 @@
       <c r="AB48" s="8"/>
       <c r="AC48" s="8"/>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A49" s="5"/>
       <c r="B49" s="2"/>
       <c r="C49" s="8"/>
@@ -4880,7 +6313,7 @@
       <c r="AB49" s="8"/>
       <c r="AC49" s="8"/>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A50" s="5"/>
       <c r="B50" s="2"/>
       <c r="C50" s="8"/>
@@ -4911,7 +6344,7 @@
       <c r="AB50" s="8"/>
       <c r="AC50" s="8"/>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A51" s="5"/>
       <c r="B51" s="2"/>
       <c r="C51" s="8"/>
@@ -4942,7 +6375,7 @@
       <c r="AB51" s="8"/>
       <c r="AC51" s="8"/>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A52" s="5"/>
       <c r="B52" s="2"/>
       <c r="C52" s="8"/>
@@ -4973,7 +6406,7 @@
       <c r="AB52" s="8"/>
       <c r="AC52" s="8"/>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A53" s="5"/>
       <c r="B53" s="2"/>
       <c r="C53" s="8"/>
@@ -5004,7 +6437,7 @@
       <c r="AB53" s="8"/>
       <c r="AC53" s="8"/>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A54" s="5"/>
       <c r="B54" s="2"/>
       <c r="C54" s="8"/>
@@ -5035,7 +6468,7 @@
       <c r="AB54" s="8"/>
       <c r="AC54" s="8"/>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A55" s="5"/>
       <c r="B55" s="2"/>
       <c r="C55" s="8"/>
@@ -5066,7 +6499,7 @@
       <c r="AB55" s="8"/>
       <c r="AC55" s="8"/>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A56" s="5"/>
       <c r="B56" s="2"/>
       <c r="C56" s="8"/>
@@ -5097,7 +6530,7 @@
       <c r="AB56" s="8"/>
       <c r="AC56" s="8"/>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A57" s="5"/>
       <c r="B57" s="2"/>
       <c r="C57" s="8"/>
@@ -5128,7 +6561,7 @@
       <c r="AB57" s="8"/>
       <c r="AC57" s="8"/>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A58" s="5"/>
       <c r="B58" s="2"/>
       <c r="C58" s="8"/>
@@ -5159,7 +6592,7 @@
       <c r="AB58" s="8"/>
       <c r="AC58" s="8"/>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A59" s="5"/>
       <c r="B59" s="2"/>
       <c r="C59" s="8"/>
@@ -5190,7 +6623,7 @@
       <c r="AB59" s="8"/>
       <c r="AC59" s="8"/>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A60" s="5"/>
       <c r="B60" s="2"/>
       <c r="C60" s="8"/>
@@ -5221,7 +6654,7 @@
       <c r="AB60" s="8"/>
       <c r="AC60" s="8"/>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A61" s="5"/>
       <c r="B61" s="2"/>
       <c r="C61" s="8"/>
@@ -5252,7 +6685,7 @@
       <c r="AB61" s="8"/>
       <c r="AC61" s="8"/>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A62" s="5"/>
       <c r="B62" s="2"/>
       <c r="C62" s="8"/>
@@ -5283,7 +6716,7 @@
       <c r="AB62" s="8"/>
       <c r="AC62" s="8"/>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A63" s="5"/>
       <c r="B63" s="2"/>
       <c r="C63" s="8"/>
@@ -5314,7 +6747,7 @@
       <c r="AB63" s="8"/>
       <c r="AC63" s="8"/>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A64" s="5"/>
       <c r="B64" s="2"/>
       <c r="C64" s="8"/>
@@ -5345,7 +6778,7 @@
       <c r="AB64" s="8"/>
       <c r="AC64" s="8"/>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A65" s="5"/>
       <c r="B65" s="2"/>
       <c r="C65" s="8"/>
@@ -5376,7 +6809,7 @@
       <c r="AB65" s="8"/>
       <c r="AC65" s="8"/>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A66" s="5"/>
       <c r="B66" s="2"/>
       <c r="C66" s="8"/>
@@ -5407,7 +6840,7 @@
       <c r="AB66" s="8"/>
       <c r="AC66" s="8"/>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A67" s="5"/>
       <c r="B67" s="2"/>
       <c r="C67" s="8"/>
@@ -5438,7 +6871,7 @@
       <c r="AB67" s="8"/>
       <c r="AC67" s="8"/>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A68" s="5"/>
       <c r="B68" s="2"/>
       <c r="C68" s="8"/>
@@ -5469,7 +6902,7 @@
       <c r="AB68" s="8"/>
       <c r="AC68" s="8"/>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A69" s="5"/>
       <c r="B69" s="2"/>
       <c r="C69" s="8"/>
@@ -5500,7 +6933,7 @@
       <c r="AB69" s="8"/>
       <c r="AC69" s="8"/>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A70" s="5"/>
       <c r="B70" s="2"/>
       <c r="C70" s="8"/>
@@ -5531,7 +6964,7 @@
       <c r="AB70" s="8"/>
       <c r="AC70" s="8"/>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A71" s="5"/>
       <c r="B71" s="2"/>
       <c r="C71" s="8"/>
@@ -5562,7 +6995,7 @@
       <c r="AB71" s="8"/>
       <c r="AC71" s="8"/>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="2"/>
       <c r="C72" s="8"/>
@@ -5593,7 +7026,7 @@
       <c r="AB72" s="8"/>
       <c r="AC72" s="8"/>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A73" s="5"/>
       <c r="B73" s="2"/>
       <c r="C73" s="8"/>
@@ -5624,7 +7057,7 @@
       <c r="AB73" s="8"/>
       <c r="AC73" s="8"/>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A74" s="5"/>
       <c r="B74" s="2"/>
       <c r="C74" s="8"/>
@@ -5655,7 +7088,7 @@
       <c r="AB74" s="8"/>
       <c r="AC74" s="8"/>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A75" s="5"/>
       <c r="B75" s="2"/>
       <c r="C75" s="8"/>
@@ -5686,7 +7119,7 @@
       <c r="AB75" s="8"/>
       <c r="AC75" s="8"/>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A76" s="5"/>
       <c r="B76" s="2"/>
       <c r="C76" s="8"/>
@@ -5717,7 +7150,7 @@
       <c r="AB76" s="8"/>
       <c r="AC76" s="8"/>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A77" s="5"/>
       <c r="B77" s="2"/>
       <c r="C77" s="8"/>
@@ -5748,7 +7181,7 @@
       <c r="AB77" s="8"/>
       <c r="AC77" s="8"/>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A78" s="5"/>
       <c r="B78" s="2"/>
       <c r="C78" s="8"/>
@@ -5779,7 +7212,7 @@
       <c r="AB78" s="8"/>
       <c r="AC78" s="8"/>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A79" s="5"/>
       <c r="B79" s="2"/>
       <c r="C79" s="8"/>
@@ -5810,7 +7243,7 @@
       <c r="AB79" s="8"/>
       <c r="AC79" s="8"/>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A80" s="5"/>
       <c r="B80" s="2"/>
       <c r="C80" s="8"/>
@@ -5841,7 +7274,7 @@
       <c r="AB80" s="8"/>
       <c r="AC80" s="8"/>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A81" s="5"/>
       <c r="B81" s="2"/>
       <c r="C81" s="8"/>
@@ -5872,7 +7305,7 @@
       <c r="AB81" s="8"/>
       <c r="AC81" s="8"/>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A82" s="5"/>
       <c r="B82" s="2"/>
       <c r="C82" s="8"/>
@@ -5903,69 +7336,69 @@
       <c r="AB82" s="8"/>
       <c r="AC82" s="8"/>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A83" s="26"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="26"/>
-      <c r="K83" s="26"/>
-      <c r="L83" s="26"/>
-      <c r="M83" s="26"/>
-      <c r="N83" s="26"/>
-      <c r="O83" s="26"/>
-      <c r="P83" s="26"/>
-      <c r="Q83" s="26"/>
-      <c r="R83" s="26"/>
-      <c r="S83" s="26"/>
-      <c r="T83" s="26"/>
-      <c r="U83" s="26"/>
-      <c r="V83" s="26"/>
-      <c r="W83" s="26"/>
-      <c r="X83" s="26"/>
-      <c r="Y83" s="26"/>
-      <c r="Z83" s="26"/>
-      <c r="AA83" s="26"/>
-      <c r="AB83" s="26"/>
-      <c r="AC83" s="26"/>
-    </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A84" s="26"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="26"/>
-      <c r="J84" s="26"/>
-      <c r="K84" s="26"/>
-      <c r="L84" s="26"/>
-      <c r="M84" s="26"/>
-      <c r="N84" s="26"/>
-      <c r="O84" s="26"/>
-      <c r="P84" s="26"/>
-      <c r="Q84" s="26"/>
-      <c r="R84" s="26"/>
-      <c r="S84" s="26"/>
-      <c r="T84" s="26"/>
-      <c r="U84" s="26"/>
-      <c r="V84" s="26"/>
-      <c r="W84" s="26"/>
-      <c r="X84" s="26"/>
-      <c r="Y84" s="26"/>
-      <c r="Z84" s="26"/>
-      <c r="AA84" s="26"/>
-      <c r="AB84" s="26"/>
-      <c r="AC84" s="26"/>
-    </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A83" s="20"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="20"/>
+      <c r="N83" s="20"/>
+      <c r="O83" s="20"/>
+      <c r="P83" s="20"/>
+      <c r="Q83" s="20"/>
+      <c r="R83" s="20"/>
+      <c r="S83" s="20"/>
+      <c r="T83" s="20"/>
+      <c r="U83" s="20"/>
+      <c r="V83" s="20"/>
+      <c r="W83" s="20"/>
+      <c r="X83" s="20"/>
+      <c r="Y83" s="20"/>
+      <c r="Z83" s="20"/>
+      <c r="AA83" s="20"/>
+      <c r="AB83" s="20"/>
+      <c r="AC83" s="20"/>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A84" s="20"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="20"/>
+      <c r="N84" s="20"/>
+      <c r="O84" s="20"/>
+      <c r="P84" s="20"/>
+      <c r="Q84" s="20"/>
+      <c r="R84" s="20"/>
+      <c r="S84" s="20"/>
+      <c r="T84" s="20"/>
+      <c r="U84" s="20"/>
+      <c r="V84" s="20"/>
+      <c r="W84" s="20"/>
+      <c r="X84" s="20"/>
+      <c r="Y84" s="20"/>
+      <c r="Z84" s="20"/>
+      <c r="AA84" s="20"/>
+      <c r="AB84" s="20"/>
+      <c r="AC84" s="20"/>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A85" s="5"/>
       <c r="B85" s="2"/>
       <c r="C85" s="8"/>
@@ -5996,7 +7429,7 @@
       <c r="AB85" s="8"/>
       <c r="AC85" s="8"/>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A86" s="5"/>
       <c r="B86" s="2"/>
       <c r="C86" s="8"/>
@@ -6027,7 +7460,7 @@
       <c r="AB86" s="8"/>
       <c r="AC86" s="8"/>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A87" s="5"/>
       <c r="B87" s="2"/>
       <c r="C87" s="8"/>
@@ -6058,7 +7491,7 @@
       <c r="AB87" s="8"/>
       <c r="AC87" s="8"/>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A88" s="5"/>
       <c r="B88" s="2"/>
       <c r="C88" s="8"/>
@@ -6089,7 +7522,7 @@
       <c r="AB88" s="8"/>
       <c r="AC88" s="8"/>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
       <c r="B89" s="2"/>
       <c r="C89" s="8"/>
@@ -6120,7 +7553,7 @@
       <c r="AB89" s="8"/>
       <c r="AC89" s="8"/>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A90" s="5"/>
       <c r="B90" s="2"/>
       <c r="C90" s="8"/>
@@ -6151,7 +7584,7 @@
       <c r="AB90" s="8"/>
       <c r="AC90" s="8"/>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
       <c r="B91" s="2"/>
       <c r="C91" s="8"/>
@@ -6182,7 +7615,7 @@
       <c r="AB91" s="8"/>
       <c r="AC91" s="8"/>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A92" s="5"/>
       <c r="B92" s="2"/>
       <c r="C92" s="8"/>
@@ -6213,7 +7646,7 @@
       <c r="AB92" s="8"/>
       <c r="AC92" s="8"/>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A93" s="5"/>
       <c r="B93" s="2"/>
       <c r="C93" s="8"/>
@@ -6244,7 +7677,7 @@
       <c r="AB93" s="8"/>
       <c r="AC93" s="8"/>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="B94" s="2"/>
       <c r="C94" s="8"/>
@@ -6275,7 +7708,7 @@
       <c r="AB94" s="8"/>
       <c r="AC94" s="8"/>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A95" s="5"/>
       <c r="B95" s="2"/>
       <c r="C95" s="8"/>
@@ -6306,7 +7739,7 @@
       <c r="AB95" s="8"/>
       <c r="AC95" s="8"/>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
       <c r="B96" s="2"/>
       <c r="C96" s="8"/>
@@ -6337,7 +7770,7 @@
       <c r="AB96" s="8"/>
       <c r="AC96" s="8"/>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A97" s="5"/>
       <c r="B97" s="2"/>
       <c r="C97" s="8"/>
@@ -6368,7 +7801,7 @@
       <c r="AB97" s="8"/>
       <c r="AC97" s="8"/>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A98" s="5"/>
       <c r="B98" s="2"/>
       <c r="C98" s="8"/>
@@ -6399,7 +7832,7 @@
       <c r="AB98" s="8"/>
       <c r="AC98" s="8"/>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A99" s="5"/>
       <c r="B99" s="2"/>
       <c r="C99" s="8"/>
@@ -6430,7 +7863,7 @@
       <c r="AB99" s="8"/>
       <c r="AC99" s="8"/>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A100" s="5"/>
       <c r="B100" s="2"/>
       <c r="C100" s="8"/>
@@ -6461,7 +7894,7 @@
       <c r="AB100" s="8"/>
       <c r="AC100" s="8"/>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A101" s="5"/>
       <c r="B101" s="2"/>
       <c r="C101" s="8"/>
@@ -6492,7 +7925,7 @@
       <c r="AB101" s="8"/>
       <c r="AC101" s="8"/>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A102" s="5"/>
       <c r="B102" s="2"/>
       <c r="C102" s="8"/>
@@ -6523,7 +7956,7 @@
       <c r="AB102" s="8"/>
       <c r="AC102" s="8"/>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A103" s="5"/>
       <c r="B103" s="2"/>
       <c r="C103" s="8"/>
@@ -6554,7 +7987,7 @@
       <c r="AB103" s="8"/>
       <c r="AC103" s="8"/>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A104" s="5"/>
       <c r="B104" s="2"/>
       <c r="C104" s="8"/>
@@ -6585,7 +8018,7 @@
       <c r="AB104" s="8"/>
       <c r="AC104" s="8"/>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A105" s="5"/>
       <c r="B105" s="2"/>
       <c r="C105" s="8"/>
@@ -6616,7 +8049,7 @@
       <c r="AB105" s="8"/>
       <c r="AC105" s="8"/>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A106" s="5"/>
       <c r="B106" s="2"/>
       <c r="C106" s="8"/>
@@ -6647,7 +8080,7 @@
       <c r="AB106" s="8"/>
       <c r="AC106" s="8"/>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A107" s="5"/>
       <c r="B107" s="2"/>
       <c r="C107" s="8"/>
@@ -6678,7 +8111,7 @@
       <c r="AB107" s="8"/>
       <c r="AC107" s="8"/>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A108" s="5"/>
       <c r="B108" s="2"/>
       <c r="C108" s="8"/>
@@ -6709,7 +8142,7 @@
       <c r="AB108" s="8"/>
       <c r="AC108" s="8"/>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A109" s="5"/>
       <c r="B109" s="2"/>
       <c r="C109" s="8"/>
@@ -6740,7 +8173,7 @@
       <c r="AB109" s="8"/>
       <c r="AC109" s="8"/>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A110" s="5"/>
       <c r="B110" s="2"/>
       <c r="C110" s="8"/>
@@ -6771,7 +8204,7 @@
       <c r="AB110" s="8"/>
       <c r="AC110" s="8"/>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A111" s="5"/>
       <c r="B111" s="2"/>
       <c r="C111" s="8"/>
@@ -6802,7 +8235,7 @@
       <c r="AB111" s="8"/>
       <c r="AC111" s="8"/>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A112" s="5"/>
       <c r="B112" s="2"/>
       <c r="C112" s="8"/>
@@ -6833,7 +8266,7 @@
       <c r="AB112" s="8"/>
       <c r="AC112" s="8"/>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A113" s="5"/>
       <c r="B113" s="2"/>
       <c r="C113" s="8"/>
@@ -6864,7 +8297,7 @@
       <c r="AB113" s="8"/>
       <c r="AC113" s="8"/>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A114" s="5"/>
       <c r="B114" s="2"/>
       <c r="C114" s="8"/>
@@ -6895,7 +8328,7 @@
       <c r="AB114" s="8"/>
       <c r="AC114" s="8"/>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A115" s="5"/>
       <c r="B115" s="2"/>
       <c r="C115" s="8"/>
@@ -6926,7 +8359,7 @@
       <c r="AB115" s="8"/>
       <c r="AC115" s="8"/>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A116" s="5"/>
       <c r="B116" s="2"/>
       <c r="C116" s="8"/>
@@ -6957,7 +8390,7 @@
       <c r="AB116" s="8"/>
       <c r="AC116" s="8"/>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A117" s="5"/>
       <c r="B117" s="2"/>
       <c r="C117" s="8"/>
@@ -6988,7 +8421,7 @@
       <c r="AB117" s="8"/>
       <c r="AC117" s="8"/>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A118" s="5"/>
       <c r="B118" s="2"/>
       <c r="C118" s="8"/>
@@ -7019,7 +8452,7 @@
       <c r="AB118" s="8"/>
       <c r="AC118" s="8"/>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A119" s="5"/>
       <c r="B119" s="2"/>
       <c r="C119" s="8"/>
@@ -7050,7 +8483,7 @@
       <c r="AB119" s="8"/>
       <c r="AC119" s="8"/>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A120" s="5"/>
       <c r="B120" s="2"/>
       <c r="C120" s="8"/>
@@ -7081,7 +8514,7 @@
       <c r="AB120" s="8"/>
       <c r="AC120" s="8"/>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A121" s="5"/>
       <c r="B121" s="2"/>
       <c r="C121" s="8"/>
@@ -7112,7 +8545,7 @@
       <c r="AB121" s="8"/>
       <c r="AC121" s="8"/>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A122" s="5"/>
       <c r="B122" s="2"/>
       <c r="C122" s="8"/>
@@ -7143,7 +8576,7 @@
       <c r="AB122" s="8"/>
       <c r="AC122" s="8"/>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A123" s="5"/>
       <c r="B123" s="2"/>
       <c r="C123" s="8"/>
@@ -7174,7 +8607,7 @@
       <c r="AB123" s="8"/>
       <c r="AC123" s="8"/>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A124" s="5"/>
       <c r="B124" s="2"/>
       <c r="C124" s="8"/>
@@ -7205,7 +8638,7 @@
       <c r="AB124" s="8"/>
       <c r="AC124" s="8"/>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A125" s="5"/>
       <c r="B125" s="2"/>
       <c r="C125" s="8"/>
@@ -7236,7 +8669,7 @@
       <c r="AB125" s="8"/>
       <c r="AC125" s="8"/>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A126" s="5"/>
       <c r="B126" s="2"/>
       <c r="C126" s="8"/>
@@ -7267,7 +8700,7 @@
       <c r="AB126" s="8"/>
       <c r="AC126" s="8"/>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A127" s="5"/>
       <c r="B127" s="2"/>
       <c r="C127" s="8"/>
@@ -7298,7 +8731,7 @@
       <c r="AB127" s="8"/>
       <c r="AC127" s="8"/>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A128" s="5"/>
       <c r="B128" s="2"/>
       <c r="C128" s="8"/>
@@ -7329,7 +8762,7 @@
       <c r="AB128" s="8"/>
       <c r="AC128" s="8"/>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A129" s="5"/>
       <c r="B129" s="2"/>
       <c r="C129" s="8"/>
@@ -7360,7 +8793,7 @@
       <c r="AB129" s="8"/>
       <c r="AC129" s="8"/>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A130" s="5"/>
       <c r="B130" s="2"/>
       <c r="C130" s="8"/>
@@ -7391,21 +8824,21 @@
       <c r="AB130" s="8"/>
       <c r="AC130" s="8"/>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A131" s="26"/>
-      <c r="B131" s="26"/>
-      <c r="C131" s="26"/>
-      <c r="D131" s="26"/>
-      <c r="E131" s="26"/>
-      <c r="F131" s="26"/>
-      <c r="G131" s="26"/>
-      <c r="H131" s="26"/>
-      <c r="I131" s="26"/>
-      <c r="J131" s="26"/>
-      <c r="K131" s="26"/>
-      <c r="L131" s="26"/>
-      <c r="M131" s="26"/>
-      <c r="N131" s="26"/>
+    <row r="131" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A131" s="20"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="20"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="20"/>
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
+      <c r="J131" s="20"/>
+      <c r="K131" s="20"/>
+      <c r="L131" s="20"/>
+      <c r="M131" s="20"/>
+      <c r="N131" s="20"/>
       <c r="O131" s="8"/>
       <c r="P131" s="8"/>
       <c r="Q131" s="8"/>
@@ -7422,21 +8855,21 @@
       <c r="AB131" s="8"/>
       <c r="AC131" s="8"/>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A132" s="26"/>
-      <c r="B132" s="26"/>
-      <c r="C132" s="26"/>
-      <c r="D132" s="26"/>
-      <c r="E132" s="26"/>
-      <c r="F132" s="26"/>
-      <c r="G132" s="26"/>
-      <c r="H132" s="26"/>
-      <c r="I132" s="26"/>
-      <c r="J132" s="26"/>
-      <c r="K132" s="26"/>
-      <c r="L132" s="26"/>
-      <c r="M132" s="26"/>
-      <c r="N132" s="26"/>
+    <row r="132" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A132" s="20"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="20"/>
+      <c r="H132" s="20"/>
+      <c r="I132" s="20"/>
+      <c r="J132" s="20"/>
+      <c r="K132" s="20"/>
+      <c r="L132" s="20"/>
+      <c r="M132" s="20"/>
+      <c r="N132" s="20"/>
       <c r="O132" s="8"/>
       <c r="P132" s="8"/>
       <c r="Q132" s="8"/>
@@ -7455,6 +8888,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="Y3:AC3"/>
+    <mergeCell ref="A132:K132"/>
+    <mergeCell ref="L132:N132"/>
+    <mergeCell ref="A37:X37"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A131:K131"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A36:X36"/>
+    <mergeCell ref="A84:X84"/>
+    <mergeCell ref="L131:N131"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="Y36:AC36"/>
     <mergeCell ref="Y84:AC84"/>
     <mergeCell ref="N4:N5"/>
@@ -7471,47 +8945,6 @@
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="V4:V5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A132:K132"/>
-    <mergeCell ref="L132:N132"/>
-    <mergeCell ref="A37:X37"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A131:K131"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A36:X36"/>
-    <mergeCell ref="A84:X84"/>
-    <mergeCell ref="L131:N131"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="A2:X2"/>
-    <mergeCell ref="Y2:AC2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="Y3:AC3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -7527,7 +8960,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7540,7 +8973,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
